--- a/source/downloads/business-rules/Appoint Business Rules.xlsx
+++ b/source/downloads/business-rules/Appoint Business Rules.xlsx
@@ -206,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -215,50 +215,30 @@
     <font>
       <b/>
       <sz val="10.0"/>
-      <color theme="1"/>
+      <color rgb="FF202122"/>
+    </font>
+    <font>
+      <color rgb="FF202122"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF202122"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FF202122"/>
       <name val="Arial"/>
     </font>
     <font/>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
+      <color rgb="FF202122"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF0B0C0C"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
     </font>
     <font>
       <sz val="10.0"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF172B4D"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF172B4D"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -325,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -342,72 +322,57 @@
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
@@ -858,13 +823,13 @@
       <c r="A8" s="8">
         <v>2.4</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -896,7 +861,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="19"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -913,7 +878,7 @@
       <c r="U9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="6"/>
@@ -944,13 +909,13 @@
       <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="4"/>
@@ -974,13 +939,13 @@
       <c r="A12" s="8">
         <v>3.2</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -1004,7 +969,7 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="6"/>
@@ -1032,16 +997,16 @@
       <c r="A14" s="8">
         <v>3.4</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="4"/>
@@ -1062,19 +1027,19 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="22">
+      <c r="A15" s="20">
         <v>3.9</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="14" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="4"/>
@@ -1103,7 +1068,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1120,7 +1085,7 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="6"/>
@@ -1148,21 +1113,21 @@
       <c r="A18" s="8">
         <v>4.1</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="19"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1181,13 +1146,13 @@
       <c r="A19" s="8">
         <v>4.2</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -1211,7 +1176,7 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="6"/>
@@ -1239,16 +1204,16 @@
       <c r="A21" s="8">
         <v>4.3</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="4"/>
@@ -1275,13 +1240,13 @@
       <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="4"/>
@@ -1310,7 +1275,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1330,13 +1295,13 @@
       <c r="A24" s="8">
         <v>5.1</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="14" t="s">
@@ -1366,10 +1331,10 @@
       <c r="B25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="14" t="s">
@@ -1424,20 +1389,20 @@
       <c r="B27" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="19"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -1457,10 +1422,10 @@
       <c r="B28" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="14" t="s">
@@ -1515,17 +1480,17 @@
       <c r="B30" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>52</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="G30" s="29"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1544,7 +1509,7 @@
     <row r="31">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="30"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1567,7 +1532,7 @@
     <row r="32">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="30"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1590,7 +1555,7 @@
     <row r="33">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="30"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1613,7 +1578,7 @@
     <row r="34">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="30"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1636,7 +1601,7 @@
     <row r="35">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="30"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1659,7 +1624,7 @@
     <row r="36">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="30"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1682,7 +1647,7 @@
     <row r="37">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="30"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1705,7 +1670,7 @@
     <row r="38">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="30"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1728,7 +1693,7 @@
     <row r="39">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="30"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1751,7 +1716,7 @@
     <row r="40">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="30"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1774,7 +1739,7 @@
     <row r="41">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="30"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -1797,7 +1762,7 @@
     <row r="42">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="30"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -1820,7 +1785,7 @@
     <row r="43">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="30"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -1843,7 +1808,7 @@
     <row r="44">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="30"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -1866,7 +1831,7 @@
     <row r="45">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="30"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -1889,7 +1854,7 @@
     <row r="46">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="30"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -1912,7 +1877,7 @@
     <row r="47">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="30"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -1935,7 +1900,7 @@
     <row r="48">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="30"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1958,7 +1923,7 @@
     <row r="49">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="30"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1981,7 +1946,7 @@
     <row r="50">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="30"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -2004,7 +1969,7 @@
     <row r="51">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="30"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -2027,7 +1992,7 @@
     <row r="52">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="30"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -2050,7 +2015,7 @@
     <row r="53">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="30"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -2073,7 +2038,7 @@
     <row r="54">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="30"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2096,7 +2061,7 @@
     <row r="55">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="30"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -2119,7 +2084,7 @@
     <row r="56">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="30"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -2142,7 +2107,7 @@
     <row r="57">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="30"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -2165,7 +2130,7 @@
     <row r="58">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="30"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -2188,7 +2153,7 @@
     <row r="59">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="30"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -2211,7 +2176,7 @@
     <row r="60">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="30"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -2234,7 +2199,7 @@
     <row r="61">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="30"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -2257,7 +2222,7 @@
     <row r="62">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="30"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -2280,7 +2245,7 @@
     <row r="63">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="30"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -2303,7 +2268,7 @@
     <row r="64">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="30"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -2326,7 +2291,7 @@
     <row r="65">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="30"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -2349,7 +2314,7 @@
     <row r="66">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="30"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -2372,7 +2337,7 @@
     <row r="67">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="30"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -2395,7 +2360,7 @@
     <row r="68">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="30"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -2418,7 +2383,7 @@
     <row r="69">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="30"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -2441,7 +2406,7 @@
     <row r="70">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="30"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -2464,7 +2429,7 @@
     <row r="71">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="30"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -2487,7 +2452,7 @@
     <row r="72">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="30"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -2510,7 +2475,7 @@
     <row r="73">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="30"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -2533,7 +2498,7 @@
     <row r="74">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="30"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -2556,7 +2521,7 @@
     <row r="75">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="30"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -2579,7 +2544,7 @@
     <row r="76">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="30"/>
+      <c r="C76" s="25"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -2602,7 +2567,7 @@
     <row r="77">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="30"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -2625,7 +2590,7 @@
     <row r="78">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="30"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -2648,7 +2613,7 @@
     <row r="79">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="30"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -2671,7 +2636,7 @@
     <row r="80">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="30"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -2694,7 +2659,7 @@
     <row r="81">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="30"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -2717,7 +2682,7 @@
     <row r="82">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="30"/>
+      <c r="C82" s="25"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -2740,7 +2705,7 @@
     <row r="83">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="30"/>
+      <c r="C83" s="25"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -2763,7 +2728,7 @@
     <row r="84">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="30"/>
+      <c r="C84" s="25"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -2786,7 +2751,7 @@
     <row r="85">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="30"/>
+      <c r="C85" s="25"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -2809,7 +2774,7 @@
     <row r="86">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="30"/>
+      <c r="C86" s="25"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -2832,7 +2797,7 @@
     <row r="87">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="30"/>
+      <c r="C87" s="25"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -2855,7 +2820,7 @@
     <row r="88">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="30"/>
+      <c r="C88" s="25"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -2878,7 +2843,7 @@
     <row r="89">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="30"/>
+      <c r="C89" s="25"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -2901,7 +2866,7 @@
     <row r="90">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="30"/>
+      <c r="C90" s="25"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -2924,7 +2889,7 @@
     <row r="91">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="30"/>
+      <c r="C91" s="25"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -2947,7 +2912,7 @@
     <row r="92">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="30"/>
+      <c r="C92" s="25"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -2970,7 +2935,7 @@
     <row r="93">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="30"/>
+      <c r="C93" s="25"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -2993,7 +2958,7 @@
     <row r="94">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="30"/>
+      <c r="C94" s="25"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -3016,7 +2981,7 @@
     <row r="95">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="30"/>
+      <c r="C95" s="25"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -3039,7 +3004,7 @@
     <row r="96">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="30"/>
+      <c r="C96" s="25"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -3062,7 +3027,7 @@
     <row r="97">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="30"/>
+      <c r="C97" s="25"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -3085,7 +3050,7 @@
     <row r="98">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="30"/>
+      <c r="C98" s="25"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -3108,7 +3073,7 @@
     <row r="99">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="30"/>
+      <c r="C99" s="25"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -3131,7 +3096,7 @@
     <row r="100">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="30"/>
+      <c r="C100" s="25"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -3154,7 +3119,7 @@
     <row r="101">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="30"/>
+      <c r="C101" s="25"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -3177,7 +3142,7 @@
     <row r="102">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="30"/>
+      <c r="C102" s="25"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -3200,7 +3165,7 @@
     <row r="103">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="30"/>
+      <c r="C103" s="25"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -3223,7 +3188,7 @@
     <row r="104">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="30"/>
+      <c r="C104" s="25"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -3246,7 +3211,7 @@
     <row r="105">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="30"/>
+      <c r="C105" s="25"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -3269,7 +3234,7 @@
     <row r="106">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="30"/>
+      <c r="C106" s="25"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -3292,7 +3257,7 @@
     <row r="107">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="30"/>
+      <c r="C107" s="25"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -3315,7 +3280,7 @@
     <row r="108">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="30"/>
+      <c r="C108" s="25"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -3338,7 +3303,7 @@
     <row r="109">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="30"/>
+      <c r="C109" s="25"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -3361,7 +3326,7 @@
     <row r="110">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="30"/>
+      <c r="C110" s="25"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -3384,7 +3349,7 @@
     <row r="111">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="30"/>
+      <c r="C111" s="25"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -3407,7 +3372,7 @@
     <row r="112">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="30"/>
+      <c r="C112" s="25"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -3430,7 +3395,7 @@
     <row r="113">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="30"/>
+      <c r="C113" s="25"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -3453,7 +3418,7 @@
     <row r="114">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="30"/>
+      <c r="C114" s="25"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -3476,7 +3441,7 @@
     <row r="115">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="30"/>
+      <c r="C115" s="25"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -3499,7 +3464,7 @@
     <row r="116">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="30"/>
+      <c r="C116" s="25"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -3522,7 +3487,7 @@
     <row r="117">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="30"/>
+      <c r="C117" s="25"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -3545,7 +3510,7 @@
     <row r="118">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="30"/>
+      <c r="C118" s="25"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -3568,7 +3533,7 @@
     <row r="119">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="30"/>
+      <c r="C119" s="25"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -3591,7 +3556,7 @@
     <row r="120">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="30"/>
+      <c r="C120" s="25"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -3614,7 +3579,7 @@
     <row r="121">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="30"/>
+      <c r="C121" s="25"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -3637,7 +3602,7 @@
     <row r="122">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="30"/>
+      <c r="C122" s="25"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -3660,7 +3625,7 @@
     <row r="123">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="30"/>
+      <c r="C123" s="25"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -3683,7 +3648,7 @@
     <row r="124">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="30"/>
+      <c r="C124" s="25"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -3706,7 +3671,7 @@
     <row r="125">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="30"/>
+      <c r="C125" s="25"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -3729,7 +3694,7 @@
     <row r="126">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="30"/>
+      <c r="C126" s="25"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -3752,7 +3717,7 @@
     <row r="127">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="30"/>
+      <c r="C127" s="25"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -3775,7 +3740,7 @@
     <row r="128">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="30"/>
+      <c r="C128" s="25"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -3798,7 +3763,7 @@
     <row r="129">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="30"/>
+      <c r="C129" s="25"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -3821,7 +3786,7 @@
     <row r="130">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="30"/>
+      <c r="C130" s="25"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -3844,7 +3809,7 @@
     <row r="131">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="30"/>
+      <c r="C131" s="25"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -3867,7 +3832,7 @@
     <row r="132">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="30"/>
+      <c r="C132" s="25"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -3890,7 +3855,7 @@
     <row r="133">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="30"/>
+      <c r="C133" s="25"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -3913,7 +3878,7 @@
     <row r="134">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="30"/>
+      <c r="C134" s="25"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -3936,7 +3901,7 @@
     <row r="135">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="30"/>
+      <c r="C135" s="25"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -3959,7 +3924,7 @@
     <row r="136">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="30"/>
+      <c r="C136" s="25"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -3982,7 +3947,7 @@
     <row r="137">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="30"/>
+      <c r="C137" s="25"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -4005,7 +3970,7 @@
     <row r="138">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="30"/>
+      <c r="C138" s="25"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -4028,7 +3993,7 @@
     <row r="139">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="30"/>
+      <c r="C139" s="25"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -4051,7 +4016,7 @@
     <row r="140">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="30"/>
+      <c r="C140" s="25"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -4074,7 +4039,7 @@
     <row r="141">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="30"/>
+      <c r="C141" s="25"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -4097,7 +4062,7 @@
     <row r="142">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="30"/>
+      <c r="C142" s="25"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -4120,7 +4085,7 @@
     <row r="143">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="30"/>
+      <c r="C143" s="25"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -4143,7 +4108,7 @@
     <row r="144">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="30"/>
+      <c r="C144" s="25"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -4166,7 +4131,7 @@
     <row r="145">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="30"/>
+      <c r="C145" s="25"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -4189,7 +4154,7 @@
     <row r="146">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="30"/>
+      <c r="C146" s="25"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -4212,7 +4177,7 @@
     <row r="147">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="30"/>
+      <c r="C147" s="25"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -4235,7 +4200,7 @@
     <row r="148">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="30"/>
+      <c r="C148" s="25"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -4258,7 +4223,7 @@
     <row r="149">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="30"/>
+      <c r="C149" s="25"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -4281,7 +4246,7 @@
     <row r="150">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="30"/>
+      <c r="C150" s="25"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -4304,7 +4269,7 @@
     <row r="151">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
-      <c r="C151" s="30"/>
+      <c r="C151" s="25"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -4327,7 +4292,7 @@
     <row r="152">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
-      <c r="C152" s="30"/>
+      <c r="C152" s="25"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -4350,7 +4315,7 @@
     <row r="153">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="30"/>
+      <c r="C153" s="25"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -4373,7 +4338,7 @@
     <row r="154">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="30"/>
+      <c r="C154" s="25"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -4396,7 +4361,7 @@
     <row r="155">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="30"/>
+      <c r="C155" s="25"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -4419,7 +4384,7 @@
     <row r="156">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="30"/>
+      <c r="C156" s="25"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -4442,7 +4407,7 @@
     <row r="157">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
-      <c r="C157" s="30"/>
+      <c r="C157" s="25"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -4465,7 +4430,7 @@
     <row r="158">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="30"/>
+      <c r="C158" s="25"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -4488,7 +4453,7 @@
     <row r="159">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="30"/>
+      <c r="C159" s="25"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -4511,7 +4476,7 @@
     <row r="160">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
-      <c r="C160" s="30"/>
+      <c r="C160" s="25"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -4534,7 +4499,7 @@
     <row r="161">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
-      <c r="C161" s="30"/>
+      <c r="C161" s="25"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -4557,7 +4522,7 @@
     <row r="162">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="30"/>
+      <c r="C162" s="25"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -4580,7 +4545,7 @@
     <row r="163">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="30"/>
+      <c r="C163" s="25"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
@@ -4603,7 +4568,7 @@
     <row r="164">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
-      <c r="C164" s="30"/>
+      <c r="C164" s="25"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -4626,7 +4591,7 @@
     <row r="165">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="30"/>
+      <c r="C165" s="25"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
@@ -4649,7 +4614,7 @@
     <row r="166">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
-      <c r="C166" s="30"/>
+      <c r="C166" s="25"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
@@ -4672,7 +4637,7 @@
     <row r="167">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="30"/>
+      <c r="C167" s="25"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -4695,7 +4660,7 @@
     <row r="168">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
-      <c r="C168" s="30"/>
+      <c r="C168" s="25"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -4718,7 +4683,7 @@
     <row r="169">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
-      <c r="C169" s="30"/>
+      <c r="C169" s="25"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
@@ -4741,7 +4706,7 @@
     <row r="170">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
-      <c r="C170" s="30"/>
+      <c r="C170" s="25"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
@@ -4764,7 +4729,7 @@
     <row r="171">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
-      <c r="C171" s="30"/>
+      <c r="C171" s="25"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
@@ -4787,7 +4752,7 @@
     <row r="172">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="30"/>
+      <c r="C172" s="25"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
@@ -4810,7 +4775,7 @@
     <row r="173">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
-      <c r="C173" s="30"/>
+      <c r="C173" s="25"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
@@ -4833,7 +4798,7 @@
     <row r="174">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
-      <c r="C174" s="30"/>
+      <c r="C174" s="25"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
@@ -4856,7 +4821,7 @@
     <row r="175">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
-      <c r="C175" s="30"/>
+      <c r="C175" s="25"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
@@ -4879,7 +4844,7 @@
     <row r="176">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
-      <c r="C176" s="30"/>
+      <c r="C176" s="25"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
@@ -4902,7 +4867,7 @@
     <row r="177">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="30"/>
+      <c r="C177" s="25"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
@@ -4925,7 +4890,7 @@
     <row r="178">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="30"/>
+      <c r="C178" s="25"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
@@ -4948,7 +4913,7 @@
     <row r="179">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
-      <c r="C179" s="30"/>
+      <c r="C179" s="25"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
@@ -4971,7 +4936,7 @@
     <row r="180">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
-      <c r="C180" s="30"/>
+      <c r="C180" s="25"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
@@ -4994,7 +4959,7 @@
     <row r="181">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
-      <c r="C181" s="30"/>
+      <c r="C181" s="25"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
@@ -5017,7 +4982,7 @@
     <row r="182">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
-      <c r="C182" s="30"/>
+      <c r="C182" s="25"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
@@ -5040,7 +5005,7 @@
     <row r="183">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
-      <c r="C183" s="30"/>
+      <c r="C183" s="25"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
@@ -5063,7 +5028,7 @@
     <row r="184">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
-      <c r="C184" s="30"/>
+      <c r="C184" s="25"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
@@ -5086,7 +5051,7 @@
     <row r="185">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="30"/>
+      <c r="C185" s="25"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
@@ -5109,7 +5074,7 @@
     <row r="186">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
-      <c r="C186" s="30"/>
+      <c r="C186" s="25"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
@@ -5132,7 +5097,7 @@
     <row r="187">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
-      <c r="C187" s="30"/>
+      <c r="C187" s="25"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
@@ -5155,7 +5120,7 @@
     <row r="188">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
-      <c r="C188" s="30"/>
+      <c r="C188" s="25"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
@@ -5178,7 +5143,7 @@
     <row r="189">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
-      <c r="C189" s="30"/>
+      <c r="C189" s="25"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
@@ -5201,7 +5166,7 @@
     <row r="190">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
-      <c r="C190" s="30"/>
+      <c r="C190" s="25"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
@@ -5224,7 +5189,7 @@
     <row r="191">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
-      <c r="C191" s="30"/>
+      <c r="C191" s="25"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
@@ -5247,7 +5212,7 @@
     <row r="192">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
-      <c r="C192" s="30"/>
+      <c r="C192" s="25"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
@@ -5270,7 +5235,7 @@
     <row r="193">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
-      <c r="C193" s="30"/>
+      <c r="C193" s="25"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
@@ -5293,7 +5258,7 @@
     <row r="194">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
-      <c r="C194" s="30"/>
+      <c r="C194" s="25"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
@@ -5316,7 +5281,7 @@
     <row r="195">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
-      <c r="C195" s="30"/>
+      <c r="C195" s="25"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
@@ -5339,7 +5304,7 @@
     <row r="196">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
-      <c r="C196" s="30"/>
+      <c r="C196" s="25"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
@@ -5362,7 +5327,7 @@
     <row r="197">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
-      <c r="C197" s="30"/>
+      <c r="C197" s="25"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
@@ -5385,7 +5350,7 @@
     <row r="198">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
-      <c r="C198" s="30"/>
+      <c r="C198" s="25"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
@@ -5408,7 +5373,7 @@
     <row r="199">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
-      <c r="C199" s="30"/>
+      <c r="C199" s="25"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
@@ -5431,7 +5396,7 @@
     <row r="200">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
-      <c r="C200" s="30"/>
+      <c r="C200" s="25"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
@@ -5454,7 +5419,7 @@
     <row r="201">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
-      <c r="C201" s="30"/>
+      <c r="C201" s="25"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
@@ -5477,7 +5442,7 @@
     <row r="202">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
-      <c r="C202" s="30"/>
+      <c r="C202" s="25"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
@@ -5500,7 +5465,7 @@
     <row r="203">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
-      <c r="C203" s="30"/>
+      <c r="C203" s="25"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
@@ -5523,7 +5488,7 @@
     <row r="204">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="30"/>
+      <c r="C204" s="25"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
@@ -5546,7 +5511,7 @@
     <row r="205">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
-      <c r="C205" s="30"/>
+      <c r="C205" s="25"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
@@ -5569,7 +5534,7 @@
     <row r="206">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="30"/>
+      <c r="C206" s="25"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
@@ -5592,7 +5557,7 @@
     <row r="207">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
-      <c r="C207" s="30"/>
+      <c r="C207" s="25"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
@@ -5615,7 +5580,7 @@
     <row r="208">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
-      <c r="C208" s="30"/>
+      <c r="C208" s="25"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
@@ -5638,7 +5603,7 @@
     <row r="209">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
-      <c r="C209" s="30"/>
+      <c r="C209" s="25"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
@@ -5661,7 +5626,7 @@
     <row r="210">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
-      <c r="C210" s="30"/>
+      <c r="C210" s="25"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
@@ -5684,7 +5649,7 @@
     <row r="211">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
-      <c r="C211" s="30"/>
+      <c r="C211" s="25"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
@@ -5707,7 +5672,7 @@
     <row r="212">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
-      <c r="C212" s="30"/>
+      <c r="C212" s="25"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
@@ -5730,7 +5695,7 @@
     <row r="213">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
-      <c r="C213" s="30"/>
+      <c r="C213" s="25"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
@@ -5753,7 +5718,7 @@
     <row r="214">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
-      <c r="C214" s="30"/>
+      <c r="C214" s="25"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
@@ -5776,7 +5741,7 @@
     <row r="215">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
-      <c r="C215" s="30"/>
+      <c r="C215" s="25"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
@@ -5799,7 +5764,7 @@
     <row r="216">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
-      <c r="C216" s="30"/>
+      <c r="C216" s="25"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
@@ -5822,7 +5787,7 @@
     <row r="217">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
-      <c r="C217" s="30"/>
+      <c r="C217" s="25"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
@@ -5845,7 +5810,7 @@
     <row r="218">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
-      <c r="C218" s="30"/>
+      <c r="C218" s="25"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
@@ -5868,7 +5833,7 @@
     <row r="219">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
-      <c r="C219" s="30"/>
+      <c r="C219" s="25"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
@@ -5891,7 +5856,7 @@
     <row r="220">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
-      <c r="C220" s="30"/>
+      <c r="C220" s="25"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
@@ -5914,7 +5879,7 @@
     <row r="221">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
-      <c r="C221" s="30"/>
+      <c r="C221" s="25"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
@@ -5937,7 +5902,7 @@
     <row r="222">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
-      <c r="C222" s="30"/>
+      <c r="C222" s="25"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
@@ -5960,7 +5925,7 @@
     <row r="223">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
-      <c r="C223" s="30"/>
+      <c r="C223" s="25"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
@@ -5983,7 +5948,7 @@
     <row r="224">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
-      <c r="C224" s="30"/>
+      <c r="C224" s="25"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
@@ -6006,7 +5971,7 @@
     <row r="225">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
-      <c r="C225" s="30"/>
+      <c r="C225" s="25"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
@@ -6029,7 +5994,7 @@
     <row r="226">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="30"/>
+      <c r="C226" s="25"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
@@ -6052,7 +6017,7 @@
     <row r="227">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="30"/>
+      <c r="C227" s="25"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
@@ -6075,7 +6040,7 @@
     <row r="228">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
-      <c r="C228" s="30"/>
+      <c r="C228" s="25"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
@@ -6098,7 +6063,7 @@
     <row r="229">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
-      <c r="C229" s="30"/>
+      <c r="C229" s="25"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
@@ -6121,7 +6086,7 @@
     <row r="230">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
-      <c r="C230" s="30"/>
+      <c r="C230" s="25"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
@@ -6144,7 +6109,7 @@
     <row r="231">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
-      <c r="C231" s="30"/>
+      <c r="C231" s="25"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
@@ -6167,7 +6132,7 @@
     <row r="232">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
-      <c r="C232" s="30"/>
+      <c r="C232" s="25"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
@@ -6190,7 +6155,7 @@
     <row r="233">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
-      <c r="C233" s="30"/>
+      <c r="C233" s="25"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
@@ -6213,7 +6178,7 @@
     <row r="234">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
-      <c r="C234" s="30"/>
+      <c r="C234" s="25"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
@@ -6236,7 +6201,7 @@
     <row r="235">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
-      <c r="C235" s="30"/>
+      <c r="C235" s="25"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
@@ -6259,7 +6224,7 @@
     <row r="236">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
-      <c r="C236" s="30"/>
+      <c r="C236" s="25"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
@@ -6282,7 +6247,7 @@
     <row r="237">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
-      <c r="C237" s="30"/>
+      <c r="C237" s="25"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
@@ -6305,7 +6270,7 @@
     <row r="238">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
-      <c r="C238" s="30"/>
+      <c r="C238" s="25"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
@@ -6328,7 +6293,7 @@
     <row r="239">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
-      <c r="C239" s="30"/>
+      <c r="C239" s="25"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
@@ -6351,7 +6316,7 @@
     <row r="240">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
-      <c r="C240" s="30"/>
+      <c r="C240" s="25"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
@@ -6374,7 +6339,7 @@
     <row r="241">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
-      <c r="C241" s="30"/>
+      <c r="C241" s="25"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
@@ -6397,7 +6362,7 @@
     <row r="242">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
-      <c r="C242" s="30"/>
+      <c r="C242" s="25"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
@@ -6420,7 +6385,7 @@
     <row r="243">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
-      <c r="C243" s="30"/>
+      <c r="C243" s="25"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
@@ -6443,7 +6408,7 @@
     <row r="244">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
-      <c r="C244" s="30"/>
+      <c r="C244" s="25"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
@@ -6466,7 +6431,7 @@
     <row r="245">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
-      <c r="C245" s="30"/>
+      <c r="C245" s="25"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
@@ -6489,7 +6454,7 @@
     <row r="246">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
-      <c r="C246" s="30"/>
+      <c r="C246" s="25"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
@@ -6512,7 +6477,7 @@
     <row r="247">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
-      <c r="C247" s="30"/>
+      <c r="C247" s="25"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
@@ -6535,7 +6500,7 @@
     <row r="248">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
-      <c r="C248" s="30"/>
+      <c r="C248" s="25"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
@@ -6558,7 +6523,7 @@
     <row r="249">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
-      <c r="C249" s="30"/>
+      <c r="C249" s="25"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
@@ -6581,7 +6546,7 @@
     <row r="250">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
-      <c r="C250" s="30"/>
+      <c r="C250" s="25"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
@@ -6604,7 +6569,7 @@
     <row r="251">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
-      <c r="C251" s="30"/>
+      <c r="C251" s="25"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
@@ -6627,7 +6592,7 @@
     <row r="252">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
-      <c r="C252" s="30"/>
+      <c r="C252" s="25"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
@@ -6650,7 +6615,7 @@
     <row r="253">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
-      <c r="C253" s="30"/>
+      <c r="C253" s="25"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
@@ -6673,7 +6638,7 @@
     <row r="254">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
-      <c r="C254" s="30"/>
+      <c r="C254" s="25"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
@@ -6696,7 +6661,7 @@
     <row r="255">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
-      <c r="C255" s="30"/>
+      <c r="C255" s="25"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
@@ -6719,7 +6684,7 @@
     <row r="256">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
-      <c r="C256" s="30"/>
+      <c r="C256" s="25"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
@@ -6742,7 +6707,7 @@
     <row r="257">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
-      <c r="C257" s="30"/>
+      <c r="C257" s="25"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
@@ -6765,7 +6730,7 @@
     <row r="258">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
-      <c r="C258" s="30"/>
+      <c r="C258" s="25"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
@@ -6788,7 +6753,7 @@
     <row r="259">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
-      <c r="C259" s="30"/>
+      <c r="C259" s="25"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
@@ -6811,7 +6776,7 @@
     <row r="260">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
-      <c r="C260" s="30"/>
+      <c r="C260" s="25"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
@@ -6834,7 +6799,7 @@
     <row r="261">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
-      <c r="C261" s="30"/>
+      <c r="C261" s="25"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
@@ -6857,7 +6822,7 @@
     <row r="262">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
-      <c r="C262" s="30"/>
+      <c r="C262" s="25"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
@@ -6880,7 +6845,7 @@
     <row r="263">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
-      <c r="C263" s="30"/>
+      <c r="C263" s="25"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
@@ -6903,7 +6868,7 @@
     <row r="264">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
-      <c r="C264" s="30"/>
+      <c r="C264" s="25"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
@@ -6926,7 +6891,7 @@
     <row r="265">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
-      <c r="C265" s="30"/>
+      <c r="C265" s="25"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
@@ -6949,7 +6914,7 @@
     <row r="266">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
-      <c r="C266" s="30"/>
+      <c r="C266" s="25"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
@@ -6972,7 +6937,7 @@
     <row r="267">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
-      <c r="C267" s="30"/>
+      <c r="C267" s="25"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
@@ -6995,7 +6960,7 @@
     <row r="268">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
-      <c r="C268" s="30"/>
+      <c r="C268" s="25"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
@@ -7018,7 +6983,7 @@
     <row r="269">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
-      <c r="C269" s="30"/>
+      <c r="C269" s="25"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
@@ -7041,7 +7006,7 @@
     <row r="270">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
-      <c r="C270" s="30"/>
+      <c r="C270" s="25"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
@@ -7064,7 +7029,7 @@
     <row r="271">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
-      <c r="C271" s="30"/>
+      <c r="C271" s="25"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
@@ -7087,7 +7052,7 @@
     <row r="272">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
-      <c r="C272" s="30"/>
+      <c r="C272" s="25"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
@@ -7110,7 +7075,7 @@
     <row r="273">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
-      <c r="C273" s="30"/>
+      <c r="C273" s="25"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
@@ -7133,7 +7098,7 @@
     <row r="274">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
-      <c r="C274" s="30"/>
+      <c r="C274" s="25"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
@@ -7156,7 +7121,7 @@
     <row r="275">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
-      <c r="C275" s="30"/>
+      <c r="C275" s="25"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
@@ -7179,7 +7144,7 @@
     <row r="276">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
-      <c r="C276" s="30"/>
+      <c r="C276" s="25"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
@@ -7202,7 +7167,7 @@
     <row r="277">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
-      <c r="C277" s="30"/>
+      <c r="C277" s="25"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
@@ -7225,7 +7190,7 @@
     <row r="278">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
-      <c r="C278" s="30"/>
+      <c r="C278" s="25"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
@@ -7248,7 +7213,7 @@
     <row r="279">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
-      <c r="C279" s="30"/>
+      <c r="C279" s="25"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
@@ -7271,7 +7236,7 @@
     <row r="280">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
-      <c r="C280" s="30"/>
+      <c r="C280" s="25"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
@@ -7294,7 +7259,7 @@
     <row r="281">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
-      <c r="C281" s="30"/>
+      <c r="C281" s="25"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
@@ -7317,7 +7282,7 @@
     <row r="282">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
-      <c r="C282" s="30"/>
+      <c r="C282" s="25"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
@@ -7340,7 +7305,7 @@
     <row r="283">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
-      <c r="C283" s="30"/>
+      <c r="C283" s="25"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
@@ -7363,7 +7328,7 @@
     <row r="284">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="30"/>
+      <c r="C284" s="25"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
@@ -7386,7 +7351,7 @@
     <row r="285">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
-      <c r="C285" s="30"/>
+      <c r="C285" s="25"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
@@ -7409,7 +7374,7 @@
     <row r="286">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
-      <c r="C286" s="30"/>
+      <c r="C286" s="25"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
@@ -7432,7 +7397,7 @@
     <row r="287">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
-      <c r="C287" s="30"/>
+      <c r="C287" s="25"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
@@ -7455,7 +7420,7 @@
     <row r="288">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
-      <c r="C288" s="30"/>
+      <c r="C288" s="25"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
@@ -7478,7 +7443,7 @@
     <row r="289">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
-      <c r="C289" s="30"/>
+      <c r="C289" s="25"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
@@ -7501,7 +7466,7 @@
     <row r="290">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
-      <c r="C290" s="30"/>
+      <c r="C290" s="25"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
@@ -7524,7 +7489,7 @@
     <row r="291">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
-      <c r="C291" s="30"/>
+      <c r="C291" s="25"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
@@ -7547,7 +7512,7 @@
     <row r="292">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
-      <c r="C292" s="30"/>
+      <c r="C292" s="25"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
@@ -7570,7 +7535,7 @@
     <row r="293">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
-      <c r="C293" s="30"/>
+      <c r="C293" s="25"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
@@ -7593,7 +7558,7 @@
     <row r="294">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
-      <c r="C294" s="30"/>
+      <c r="C294" s="25"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
@@ -7616,7 +7581,7 @@
     <row r="295">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
-      <c r="C295" s="30"/>
+      <c r="C295" s="25"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
@@ -7639,7 +7604,7 @@
     <row r="296">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
-      <c r="C296" s="30"/>
+      <c r="C296" s="25"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
@@ -7662,7 +7627,7 @@
     <row r="297">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
-      <c r="C297" s="30"/>
+      <c r="C297" s="25"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
@@ -7685,7 +7650,7 @@
     <row r="298">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
-      <c r="C298" s="30"/>
+      <c r="C298" s="25"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
@@ -7708,7 +7673,7 @@
     <row r="299">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
-      <c r="C299" s="30"/>
+      <c r="C299" s="25"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
@@ -7731,7 +7696,7 @@
     <row r="300">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
-      <c r="C300" s="30"/>
+      <c r="C300" s="25"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
@@ -7754,7 +7719,7 @@
     <row r="301">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
-      <c r="C301" s="30"/>
+      <c r="C301" s="25"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
@@ -7777,7 +7742,7 @@
     <row r="302">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
-      <c r="C302" s="30"/>
+      <c r="C302" s="25"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
@@ -7800,7 +7765,7 @@
     <row r="303">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
-      <c r="C303" s="30"/>
+      <c r="C303" s="25"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
@@ -7823,7 +7788,7 @@
     <row r="304">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
-      <c r="C304" s="30"/>
+      <c r="C304" s="25"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
@@ -7846,7 +7811,7 @@
     <row r="305">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
-      <c r="C305" s="30"/>
+      <c r="C305" s="25"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
@@ -7869,7 +7834,7 @@
     <row r="306">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
-      <c r="C306" s="30"/>
+      <c r="C306" s="25"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
@@ -7892,7 +7857,7 @@
     <row r="307">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
-      <c r="C307" s="30"/>
+      <c r="C307" s="25"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
@@ -7915,7 +7880,7 @@
     <row r="308">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
-      <c r="C308" s="30"/>
+      <c r="C308" s="25"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
@@ -7938,7 +7903,7 @@
     <row r="309">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
-      <c r="C309" s="30"/>
+      <c r="C309" s="25"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
@@ -7961,7 +7926,7 @@
     <row r="310">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
-      <c r="C310" s="30"/>
+      <c r="C310" s="25"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
@@ -7984,7 +7949,7 @@
     <row r="311">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
-      <c r="C311" s="30"/>
+      <c r="C311" s="25"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
@@ -8007,7 +7972,7 @@
     <row r="312">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
-      <c r="C312" s="30"/>
+      <c r="C312" s="25"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
@@ -8030,7 +7995,7 @@
     <row r="313">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
-      <c r="C313" s="30"/>
+      <c r="C313" s="25"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
@@ -8053,7 +8018,7 @@
     <row r="314">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
-      <c r="C314" s="30"/>
+      <c r="C314" s="25"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
@@ -8076,7 +8041,7 @@
     <row r="315">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
-      <c r="C315" s="30"/>
+      <c r="C315" s="25"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
@@ -8099,7 +8064,7 @@
     <row r="316">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
-      <c r="C316" s="30"/>
+      <c r="C316" s="25"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
@@ -8122,7 +8087,7 @@
     <row r="317">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
-      <c r="C317" s="30"/>
+      <c r="C317" s="25"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
@@ -8145,7 +8110,7 @@
     <row r="318">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
-      <c r="C318" s="30"/>
+      <c r="C318" s="25"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
@@ -8168,7 +8133,7 @@
     <row r="319">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
-      <c r="C319" s="30"/>
+      <c r="C319" s="25"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
@@ -8191,7 +8156,7 @@
     <row r="320">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
-      <c r="C320" s="30"/>
+      <c r="C320" s="25"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
@@ -8214,7 +8179,7 @@
     <row r="321">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
-      <c r="C321" s="30"/>
+      <c r="C321" s="25"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
@@ -8237,7 +8202,7 @@
     <row r="322">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
-      <c r="C322" s="30"/>
+      <c r="C322" s="25"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
@@ -8260,7 +8225,7 @@
     <row r="323">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
-      <c r="C323" s="30"/>
+      <c r="C323" s="25"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
@@ -8283,7 +8248,7 @@
     <row r="324">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
-      <c r="C324" s="30"/>
+      <c r="C324" s="25"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
@@ -8306,7 +8271,7 @@
     <row r="325">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
-      <c r="C325" s="30"/>
+      <c r="C325" s="25"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
@@ -8329,7 +8294,7 @@
     <row r="326">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
-      <c r="C326" s="30"/>
+      <c r="C326" s="25"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
@@ -8352,7 +8317,7 @@
     <row r="327">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
-      <c r="C327" s="30"/>
+      <c r="C327" s="25"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
@@ -8375,7 +8340,7 @@
     <row r="328">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
-      <c r="C328" s="30"/>
+      <c r="C328" s="25"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
@@ -8398,7 +8363,7 @@
     <row r="329">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
-      <c r="C329" s="30"/>
+      <c r="C329" s="25"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
@@ -8421,7 +8386,7 @@
     <row r="330">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
-      <c r="C330" s="30"/>
+      <c r="C330" s="25"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
@@ -8444,7 +8409,7 @@
     <row r="331">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
-      <c r="C331" s="30"/>
+      <c r="C331" s="25"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
@@ -8467,7 +8432,7 @@
     <row r="332">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
-      <c r="C332" s="30"/>
+      <c r="C332" s="25"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
@@ -8490,7 +8455,7 @@
     <row r="333">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
-      <c r="C333" s="30"/>
+      <c r="C333" s="25"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
@@ -8513,7 +8478,7 @@
     <row r="334">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
-      <c r="C334" s="30"/>
+      <c r="C334" s="25"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
@@ -8536,7 +8501,7 @@
     <row r="335">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
-      <c r="C335" s="30"/>
+      <c r="C335" s="25"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
@@ -8559,7 +8524,7 @@
     <row r="336">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
-      <c r="C336" s="30"/>
+      <c r="C336" s="25"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
@@ -8582,7 +8547,7 @@
     <row r="337">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
-      <c r="C337" s="30"/>
+      <c r="C337" s="25"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
       <c r="F337" s="4"/>
@@ -8605,7 +8570,7 @@
     <row r="338">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
-      <c r="C338" s="30"/>
+      <c r="C338" s="25"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
@@ -8628,7 +8593,7 @@
     <row r="339">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
-      <c r="C339" s="30"/>
+      <c r="C339" s="25"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
@@ -8651,7 +8616,7 @@
     <row r="340">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
-      <c r="C340" s="30"/>
+      <c r="C340" s="25"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
@@ -8674,7 +8639,7 @@
     <row r="341">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
-      <c r="C341" s="30"/>
+      <c r="C341" s="25"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
@@ -8697,7 +8662,7 @@
     <row r="342">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
-      <c r="C342" s="30"/>
+      <c r="C342" s="25"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
@@ -8720,7 +8685,7 @@
     <row r="343">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
-      <c r="C343" s="30"/>
+      <c r="C343" s="25"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
@@ -8743,7 +8708,7 @@
     <row r="344">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
-      <c r="C344" s="30"/>
+      <c r="C344" s="25"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
@@ -8766,7 +8731,7 @@
     <row r="345">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
-      <c r="C345" s="30"/>
+      <c r="C345" s="25"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="F345" s="4"/>
@@ -8789,7 +8754,7 @@
     <row r="346">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
-      <c r="C346" s="30"/>
+      <c r="C346" s="25"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="F346" s="4"/>
@@ -8812,7 +8777,7 @@
     <row r="347">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
-      <c r="C347" s="30"/>
+      <c r="C347" s="25"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
@@ -8835,7 +8800,7 @@
     <row r="348">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
-      <c r="C348" s="30"/>
+      <c r="C348" s="25"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
@@ -8858,7 +8823,7 @@
     <row r="349">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
-      <c r="C349" s="30"/>
+      <c r="C349" s="25"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
@@ -8881,7 +8846,7 @@
     <row r="350">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
-      <c r="C350" s="30"/>
+      <c r="C350" s="25"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
@@ -8904,7 +8869,7 @@
     <row r="351">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
-      <c r="C351" s="30"/>
+      <c r="C351" s="25"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
@@ -8927,7 +8892,7 @@
     <row r="352">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
-      <c r="C352" s="30"/>
+      <c r="C352" s="25"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
@@ -8950,7 +8915,7 @@
     <row r="353">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
-      <c r="C353" s="30"/>
+      <c r="C353" s="25"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
@@ -8973,7 +8938,7 @@
     <row r="354">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
-      <c r="C354" s="30"/>
+      <c r="C354" s="25"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
@@ -8996,7 +8961,7 @@
     <row r="355">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
-      <c r="C355" s="30"/>
+      <c r="C355" s="25"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
@@ -9019,7 +8984,7 @@
     <row r="356">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
-      <c r="C356" s="30"/>
+      <c r="C356" s="25"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
@@ -9042,7 +9007,7 @@
     <row r="357">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
-      <c r="C357" s="30"/>
+      <c r="C357" s="25"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
@@ -9065,7 +9030,7 @@
     <row r="358">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
-      <c r="C358" s="30"/>
+      <c r="C358" s="25"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
@@ -9088,7 +9053,7 @@
     <row r="359">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
-      <c r="C359" s="30"/>
+      <c r="C359" s="25"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
@@ -9111,7 +9076,7 @@
     <row r="360">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
-      <c r="C360" s="30"/>
+      <c r="C360" s="25"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
@@ -9134,7 +9099,7 @@
     <row r="361">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
-      <c r="C361" s="30"/>
+      <c r="C361" s="25"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
@@ -9157,7 +9122,7 @@
     <row r="362">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
-      <c r="C362" s="30"/>
+      <c r="C362" s="25"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
@@ -9180,7 +9145,7 @@
     <row r="363">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
-      <c r="C363" s="30"/>
+      <c r="C363" s="25"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
@@ -9203,7 +9168,7 @@
     <row r="364">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
-      <c r="C364" s="30"/>
+      <c r="C364" s="25"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
@@ -9226,7 +9191,7 @@
     <row r="365">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
-      <c r="C365" s="30"/>
+      <c r="C365" s="25"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
@@ -9249,7 +9214,7 @@
     <row r="366">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
-      <c r="C366" s="30"/>
+      <c r="C366" s="25"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
       <c r="F366" s="4"/>
@@ -9272,7 +9237,7 @@
     <row r="367">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
-      <c r="C367" s="30"/>
+      <c r="C367" s="25"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
       <c r="F367" s="4"/>
@@ -9295,7 +9260,7 @@
     <row r="368">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
-      <c r="C368" s="30"/>
+      <c r="C368" s="25"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
       <c r="F368" s="4"/>
@@ -9318,7 +9283,7 @@
     <row r="369">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
-      <c r="C369" s="30"/>
+      <c r="C369" s="25"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
@@ -9341,7 +9306,7 @@
     <row r="370">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
-      <c r="C370" s="30"/>
+      <c r="C370" s="25"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
@@ -9364,7 +9329,7 @@
     <row r="371">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
-      <c r="C371" s="30"/>
+      <c r="C371" s="25"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
@@ -9387,7 +9352,7 @@
     <row r="372">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
-      <c r="C372" s="30"/>
+      <c r="C372" s="25"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
@@ -9410,7 +9375,7 @@
     <row r="373">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
-      <c r="C373" s="30"/>
+      <c r="C373" s="25"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
       <c r="F373" s="4"/>
@@ -9433,7 +9398,7 @@
     <row r="374">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
-      <c r="C374" s="30"/>
+      <c r="C374" s="25"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
       <c r="F374" s="4"/>
@@ -9456,7 +9421,7 @@
     <row r="375">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
-      <c r="C375" s="30"/>
+      <c r="C375" s="25"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
       <c r="F375" s="4"/>
@@ -9479,7 +9444,7 @@
     <row r="376">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
-      <c r="C376" s="30"/>
+      <c r="C376" s="25"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
       <c r="F376" s="4"/>
@@ -9502,7 +9467,7 @@
     <row r="377">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
-      <c r="C377" s="30"/>
+      <c r="C377" s="25"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
       <c r="F377" s="4"/>
@@ -9525,7 +9490,7 @@
     <row r="378">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
-      <c r="C378" s="30"/>
+      <c r="C378" s="25"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
       <c r="F378" s="4"/>
@@ -9548,7 +9513,7 @@
     <row r="379">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
-      <c r="C379" s="30"/>
+      <c r="C379" s="25"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
       <c r="F379" s="4"/>
@@ -9571,7 +9536,7 @@
     <row r="380">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
-      <c r="C380" s="30"/>
+      <c r="C380" s="25"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
       <c r="F380" s="4"/>
@@ -9594,7 +9559,7 @@
     <row r="381">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
-      <c r="C381" s="30"/>
+      <c r="C381" s="25"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
       <c r="F381" s="4"/>
@@ -9617,7 +9582,7 @@
     <row r="382">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
-      <c r="C382" s="30"/>
+      <c r="C382" s="25"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
       <c r="F382" s="4"/>
@@ -9640,7 +9605,7 @@
     <row r="383">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
-      <c r="C383" s="30"/>
+      <c r="C383" s="25"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
       <c r="F383" s="4"/>
@@ -9663,7 +9628,7 @@
     <row r="384">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
-      <c r="C384" s="30"/>
+      <c r="C384" s="25"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
       <c r="F384" s="4"/>
@@ -9686,7 +9651,7 @@
     <row r="385">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
-      <c r="C385" s="30"/>
+      <c r="C385" s="25"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
       <c r="F385" s="4"/>
@@ -9709,7 +9674,7 @@
     <row r="386">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
-      <c r="C386" s="30"/>
+      <c r="C386" s="25"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
       <c r="F386" s="4"/>
@@ -9732,7 +9697,7 @@
     <row r="387">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
-      <c r="C387" s="30"/>
+      <c r="C387" s="25"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
       <c r="F387" s="4"/>
@@ -9755,7 +9720,7 @@
     <row r="388">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
-      <c r="C388" s="30"/>
+      <c r="C388" s="25"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
@@ -9778,7 +9743,7 @@
     <row r="389">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
-      <c r="C389" s="30"/>
+      <c r="C389" s="25"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="F389" s="4"/>
@@ -9801,7 +9766,7 @@
     <row r="390">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
-      <c r="C390" s="30"/>
+      <c r="C390" s="25"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
@@ -9824,7 +9789,7 @@
     <row r="391">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
-      <c r="C391" s="30"/>
+      <c r="C391" s="25"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
@@ -9847,7 +9812,7 @@
     <row r="392">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
-      <c r="C392" s="30"/>
+      <c r="C392" s="25"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
@@ -9870,7 +9835,7 @@
     <row r="393">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
-      <c r="C393" s="30"/>
+      <c r="C393" s="25"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
@@ -9893,7 +9858,7 @@
     <row r="394">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
-      <c r="C394" s="30"/>
+      <c r="C394" s="25"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
@@ -9916,7 +9881,7 @@
     <row r="395">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
-      <c r="C395" s="30"/>
+      <c r="C395" s="25"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
@@ -9939,7 +9904,7 @@
     <row r="396">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
-      <c r="C396" s="30"/>
+      <c r="C396" s="25"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
@@ -9962,7 +9927,7 @@
     <row r="397">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
-      <c r="C397" s="30"/>
+      <c r="C397" s="25"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
@@ -9985,7 +9950,7 @@
     <row r="398">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
-      <c r="C398" s="30"/>
+      <c r="C398" s="25"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
@@ -10008,7 +9973,7 @@
     <row r="399">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
-      <c r="C399" s="30"/>
+      <c r="C399" s="25"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
@@ -10031,7 +9996,7 @@
     <row r="400">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
-      <c r="C400" s="30"/>
+      <c r="C400" s="25"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
@@ -10054,7 +10019,7 @@
     <row r="401">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
-      <c r="C401" s="30"/>
+      <c r="C401" s="25"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
@@ -10077,7 +10042,7 @@
     <row r="402">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
-      <c r="C402" s="30"/>
+      <c r="C402" s="25"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
@@ -10100,7 +10065,7 @@
     <row r="403">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
-      <c r="C403" s="30"/>
+      <c r="C403" s="25"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
@@ -10123,7 +10088,7 @@
     <row r="404">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
-      <c r="C404" s="30"/>
+      <c r="C404" s="25"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
@@ -10146,7 +10111,7 @@
     <row r="405">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
-      <c r="C405" s="30"/>
+      <c r="C405" s="25"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
@@ -10169,7 +10134,7 @@
     <row r="406">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
-      <c r="C406" s="30"/>
+      <c r="C406" s="25"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
@@ -10192,7 +10157,7 @@
     <row r="407">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
-      <c r="C407" s="30"/>
+      <c r="C407" s="25"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
@@ -10215,7 +10180,7 @@
     <row r="408">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
-      <c r="C408" s="30"/>
+      <c r="C408" s="25"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
@@ -10238,7 +10203,7 @@
     <row r="409">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
-      <c r="C409" s="30"/>
+      <c r="C409" s="25"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
@@ -10261,7 +10226,7 @@
     <row r="410">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
-      <c r="C410" s="30"/>
+      <c r="C410" s="25"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
@@ -10284,7 +10249,7 @@
     <row r="411">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
-      <c r="C411" s="30"/>
+      <c r="C411" s="25"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
@@ -10307,7 +10272,7 @@
     <row r="412">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
-      <c r="C412" s="30"/>
+      <c r="C412" s="25"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
@@ -10330,7 +10295,7 @@
     <row r="413">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
-      <c r="C413" s="30"/>
+      <c r="C413" s="25"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
@@ -10353,7 +10318,7 @@
     <row r="414">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
-      <c r="C414" s="30"/>
+      <c r="C414" s="25"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
@@ -10376,7 +10341,7 @@
     <row r="415">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
-      <c r="C415" s="30"/>
+      <c r="C415" s="25"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
@@ -10399,7 +10364,7 @@
     <row r="416">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
-      <c r="C416" s="30"/>
+      <c r="C416" s="25"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
@@ -10422,7 +10387,7 @@
     <row r="417">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
-      <c r="C417" s="30"/>
+      <c r="C417" s="25"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
@@ -10445,7 +10410,7 @@
     <row r="418">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
-      <c r="C418" s="30"/>
+      <c r="C418" s="25"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
@@ -10468,7 +10433,7 @@
     <row r="419">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
-      <c r="C419" s="30"/>
+      <c r="C419" s="25"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
@@ -10491,7 +10456,7 @@
     <row r="420">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
-      <c r="C420" s="30"/>
+      <c r="C420" s="25"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
@@ -10514,7 +10479,7 @@
     <row r="421">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
-      <c r="C421" s="30"/>
+      <c r="C421" s="25"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
@@ -10537,7 +10502,7 @@
     <row r="422">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
-      <c r="C422" s="30"/>
+      <c r="C422" s="25"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
@@ -10560,7 +10525,7 @@
     <row r="423">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
-      <c r="C423" s="30"/>
+      <c r="C423" s="25"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
@@ -10583,7 +10548,7 @@
     <row r="424">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
-      <c r="C424" s="30"/>
+      <c r="C424" s="25"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
@@ -10606,7 +10571,7 @@
     <row r="425">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
-      <c r="C425" s="30"/>
+      <c r="C425" s="25"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
@@ -10629,7 +10594,7 @@
     <row r="426">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
-      <c r="C426" s="30"/>
+      <c r="C426" s="25"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
@@ -10652,7 +10617,7 @@
     <row r="427">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
-      <c r="C427" s="30"/>
+      <c r="C427" s="25"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
@@ -10675,7 +10640,7 @@
     <row r="428">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
-      <c r="C428" s="30"/>
+      <c r="C428" s="25"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
@@ -10698,7 +10663,7 @@
     <row r="429">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
-      <c r="C429" s="30"/>
+      <c r="C429" s="25"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
@@ -10721,7 +10686,7 @@
     <row r="430">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
-      <c r="C430" s="30"/>
+      <c r="C430" s="25"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
@@ -10744,7 +10709,7 @@
     <row r="431">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
-      <c r="C431" s="30"/>
+      <c r="C431" s="25"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
@@ -10767,7 +10732,7 @@
     <row r="432">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
-      <c r="C432" s="30"/>
+      <c r="C432" s="25"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
@@ -10790,7 +10755,7 @@
     <row r="433">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
-      <c r="C433" s="30"/>
+      <c r="C433" s="25"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
@@ -10813,7 +10778,7 @@
     <row r="434">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
-      <c r="C434" s="30"/>
+      <c r="C434" s="25"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
@@ -10836,7 +10801,7 @@
     <row r="435">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
-      <c r="C435" s="30"/>
+      <c r="C435" s="25"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
@@ -10859,7 +10824,7 @@
     <row r="436">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
-      <c r="C436" s="30"/>
+      <c r="C436" s="25"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
@@ -10882,7 +10847,7 @@
     <row r="437">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
-      <c r="C437" s="30"/>
+      <c r="C437" s="25"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
@@ -10905,7 +10870,7 @@
     <row r="438">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
-      <c r="C438" s="30"/>
+      <c r="C438" s="25"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
@@ -10928,7 +10893,7 @@
     <row r="439">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
-      <c r="C439" s="30"/>
+      <c r="C439" s="25"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
@@ -10951,7 +10916,7 @@
     <row r="440">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
-      <c r="C440" s="30"/>
+      <c r="C440" s="25"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
@@ -10974,7 +10939,7 @@
     <row r="441">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
-      <c r="C441" s="30"/>
+      <c r="C441" s="25"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
@@ -10997,7 +10962,7 @@
     <row r="442">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
-      <c r="C442" s="30"/>
+      <c r="C442" s="25"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
@@ -11020,7 +10985,7 @@
     <row r="443">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
-      <c r="C443" s="30"/>
+      <c r="C443" s="25"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
@@ -11043,7 +11008,7 @@
     <row r="444">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
-      <c r="C444" s="30"/>
+      <c r="C444" s="25"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
@@ -11066,7 +11031,7 @@
     <row r="445">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
-      <c r="C445" s="30"/>
+      <c r="C445" s="25"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
@@ -11089,7 +11054,7 @@
     <row r="446">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
-      <c r="C446" s="30"/>
+      <c r="C446" s="25"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
@@ -11112,7 +11077,7 @@
     <row r="447">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
-      <c r="C447" s="30"/>
+      <c r="C447" s="25"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
       <c r="F447" s="4"/>
@@ -11135,7 +11100,7 @@
     <row r="448">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
-      <c r="C448" s="30"/>
+      <c r="C448" s="25"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
@@ -11158,7 +11123,7 @@
     <row r="449">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
-      <c r="C449" s="30"/>
+      <c r="C449" s="25"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
       <c r="F449" s="4"/>
@@ -11181,7 +11146,7 @@
     <row r="450">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
-      <c r="C450" s="30"/>
+      <c r="C450" s="25"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
@@ -11204,7 +11169,7 @@
     <row r="451">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
-      <c r="C451" s="30"/>
+      <c r="C451" s="25"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
       <c r="F451" s="4"/>
@@ -11227,7 +11192,7 @@
     <row r="452">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
-      <c r="C452" s="30"/>
+      <c r="C452" s="25"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
       <c r="F452" s="4"/>
@@ -11250,7 +11215,7 @@
     <row r="453">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
-      <c r="C453" s="30"/>
+      <c r="C453" s="25"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
       <c r="F453" s="4"/>
@@ -11273,7 +11238,7 @@
     <row r="454">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
-      <c r="C454" s="30"/>
+      <c r="C454" s="25"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
       <c r="F454" s="4"/>
@@ -11296,7 +11261,7 @@
     <row r="455">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
-      <c r="C455" s="30"/>
+      <c r="C455" s="25"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
       <c r="F455" s="4"/>
@@ -11319,7 +11284,7 @@
     <row r="456">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
-      <c r="C456" s="30"/>
+      <c r="C456" s="25"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
       <c r="F456" s="4"/>
@@ -11342,7 +11307,7 @@
     <row r="457">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
-      <c r="C457" s="30"/>
+      <c r="C457" s="25"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
       <c r="F457" s="4"/>
@@ -11365,7 +11330,7 @@
     <row r="458">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
-      <c r="C458" s="30"/>
+      <c r="C458" s="25"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
       <c r="F458" s="4"/>
@@ -11388,7 +11353,7 @@
     <row r="459">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
-      <c r="C459" s="30"/>
+      <c r="C459" s="25"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
       <c r="F459" s="4"/>
@@ -11411,7 +11376,7 @@
     <row r="460">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
-      <c r="C460" s="30"/>
+      <c r="C460" s="25"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
       <c r="F460" s="4"/>
@@ -11434,7 +11399,7 @@
     <row r="461">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
-      <c r="C461" s="30"/>
+      <c r="C461" s="25"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
       <c r="F461" s="4"/>
@@ -11457,7 +11422,7 @@
     <row r="462">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
-      <c r="C462" s="30"/>
+      <c r="C462" s="25"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
       <c r="F462" s="4"/>
@@ -11480,7 +11445,7 @@
     <row r="463">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
-      <c r="C463" s="30"/>
+      <c r="C463" s="25"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
       <c r="F463" s="4"/>
@@ -11503,7 +11468,7 @@
     <row r="464">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
-      <c r="C464" s="30"/>
+      <c r="C464" s="25"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
       <c r="F464" s="4"/>
@@ -11526,7 +11491,7 @@
     <row r="465">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
-      <c r="C465" s="30"/>
+      <c r="C465" s="25"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
       <c r="F465" s="4"/>
@@ -11549,7 +11514,7 @@
     <row r="466">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
-      <c r="C466" s="30"/>
+      <c r="C466" s="25"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
       <c r="F466" s="4"/>
@@ -11572,7 +11537,7 @@
     <row r="467">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
-      <c r="C467" s="30"/>
+      <c r="C467" s="25"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
       <c r="F467" s="4"/>
@@ -11595,7 +11560,7 @@
     <row r="468">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
-      <c r="C468" s="30"/>
+      <c r="C468" s="25"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
@@ -11618,7 +11583,7 @@
     <row r="469">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
-      <c r="C469" s="30"/>
+      <c r="C469" s="25"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
       <c r="F469" s="4"/>
@@ -11641,7 +11606,7 @@
     <row r="470">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
-      <c r="C470" s="30"/>
+      <c r="C470" s="25"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
@@ -11664,7 +11629,7 @@
     <row r="471">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
-      <c r="C471" s="30"/>
+      <c r="C471" s="25"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
       <c r="F471" s="4"/>
@@ -11687,7 +11652,7 @@
     <row r="472">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
-      <c r="C472" s="30"/>
+      <c r="C472" s="25"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
       <c r="F472" s="4"/>
@@ -11710,7 +11675,7 @@
     <row r="473">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
-      <c r="C473" s="30"/>
+      <c r="C473" s="25"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
       <c r="F473" s="4"/>
@@ -11733,7 +11698,7 @@
     <row r="474">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
-      <c r="C474" s="30"/>
+      <c r="C474" s="25"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
       <c r="F474" s="4"/>
@@ -11756,7 +11721,7 @@
     <row r="475">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
-      <c r="C475" s="30"/>
+      <c r="C475" s="25"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
       <c r="F475" s="4"/>
@@ -11779,7 +11744,7 @@
     <row r="476">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
-      <c r="C476" s="30"/>
+      <c r="C476" s="25"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
@@ -11802,7 +11767,7 @@
     <row r="477">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
-      <c r="C477" s="30"/>
+      <c r="C477" s="25"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
       <c r="F477" s="4"/>
@@ -11825,7 +11790,7 @@
     <row r="478">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
-      <c r="C478" s="30"/>
+      <c r="C478" s="25"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
       <c r="F478" s="4"/>
@@ -11848,7 +11813,7 @@
     <row r="479">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
-      <c r="C479" s="30"/>
+      <c r="C479" s="25"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
       <c r="F479" s="4"/>
@@ -11871,7 +11836,7 @@
     <row r="480">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
-      <c r="C480" s="30"/>
+      <c r="C480" s="25"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
       <c r="F480" s="4"/>
@@ -11894,7 +11859,7 @@
     <row r="481">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
-      <c r="C481" s="30"/>
+      <c r="C481" s="25"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
       <c r="F481" s="4"/>
@@ -11917,7 +11882,7 @@
     <row r="482">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
-      <c r="C482" s="30"/>
+      <c r="C482" s="25"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
       <c r="F482" s="4"/>
@@ -11940,7 +11905,7 @@
     <row r="483">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
-      <c r="C483" s="30"/>
+      <c r="C483" s="25"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
       <c r="F483" s="4"/>
@@ -11963,7 +11928,7 @@
     <row r="484">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
-      <c r="C484" s="30"/>
+      <c r="C484" s="25"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
       <c r="F484" s="4"/>
@@ -11986,7 +11951,7 @@
     <row r="485">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
-      <c r="C485" s="30"/>
+      <c r="C485" s="25"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
       <c r="F485" s="4"/>
@@ -12009,7 +11974,7 @@
     <row r="486">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
-      <c r="C486" s="30"/>
+      <c r="C486" s="25"/>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
       <c r="F486" s="4"/>
@@ -12032,7 +11997,7 @@
     <row r="487">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
-      <c r="C487" s="30"/>
+      <c r="C487" s="25"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
       <c r="F487" s="4"/>
@@ -12055,7 +12020,7 @@
     <row r="488">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
-      <c r="C488" s="30"/>
+      <c r="C488" s="25"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
       <c r="F488" s="4"/>
@@ -12078,7 +12043,7 @@
     <row r="489">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
-      <c r="C489" s="30"/>
+      <c r="C489" s="25"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
@@ -12101,7 +12066,7 @@
     <row r="490">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
-      <c r="C490" s="30"/>
+      <c r="C490" s="25"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
@@ -12124,7 +12089,7 @@
     <row r="491">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
-      <c r="C491" s="30"/>
+      <c r="C491" s="25"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
@@ -12147,7 +12112,7 @@
     <row r="492">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
-      <c r="C492" s="30"/>
+      <c r="C492" s="25"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
@@ -12170,7 +12135,7 @@
     <row r="493">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
-      <c r="C493" s="30"/>
+      <c r="C493" s="25"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
       <c r="F493" s="4"/>
@@ -12193,7 +12158,7 @@
     <row r="494">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
-      <c r="C494" s="30"/>
+      <c r="C494" s="25"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
       <c r="F494" s="4"/>
@@ -12216,7 +12181,7 @@
     <row r="495">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
-      <c r="C495" s="30"/>
+      <c r="C495" s="25"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
       <c r="F495" s="4"/>
@@ -12239,7 +12204,7 @@
     <row r="496">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
-      <c r="C496" s="30"/>
+      <c r="C496" s="25"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
       <c r="F496" s="4"/>
@@ -12262,7 +12227,7 @@
     <row r="497">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
-      <c r="C497" s="30"/>
+      <c r="C497" s="25"/>
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
       <c r="F497" s="4"/>
@@ -12285,7 +12250,7 @@
     <row r="498">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
-      <c r="C498" s="30"/>
+      <c r="C498" s="25"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
       <c r="F498" s="4"/>
@@ -12308,7 +12273,7 @@
     <row r="499">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
-      <c r="C499" s="30"/>
+      <c r="C499" s="25"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
       <c r="F499" s="4"/>
@@ -12331,7 +12296,7 @@
     <row r="500">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
-      <c r="C500" s="30"/>
+      <c r="C500" s="25"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
       <c r="F500" s="4"/>
@@ -12354,7 +12319,7 @@
     <row r="501">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
-      <c r="C501" s="30"/>
+      <c r="C501" s="25"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
       <c r="F501" s="4"/>
@@ -12377,7 +12342,7 @@
     <row r="502">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
-      <c r="C502" s="30"/>
+      <c r="C502" s="25"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
       <c r="F502" s="4"/>
@@ -12400,7 +12365,7 @@
     <row r="503">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
-      <c r="C503" s="30"/>
+      <c r="C503" s="25"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
       <c r="F503" s="4"/>
@@ -12423,7 +12388,7 @@
     <row r="504">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
-      <c r="C504" s="30"/>
+      <c r="C504" s="25"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
       <c r="F504" s="4"/>
@@ -12446,7 +12411,7 @@
     <row r="505">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
-      <c r="C505" s="30"/>
+      <c r="C505" s="25"/>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
       <c r="F505" s="4"/>
@@ -12469,7 +12434,7 @@
     <row r="506">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
-      <c r="C506" s="30"/>
+      <c r="C506" s="25"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
       <c r="F506" s="4"/>
@@ -12492,7 +12457,7 @@
     <row r="507">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
-      <c r="C507" s="30"/>
+      <c r="C507" s="25"/>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
       <c r="F507" s="4"/>
@@ -12515,7 +12480,7 @@
     <row r="508">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
-      <c r="C508" s="30"/>
+      <c r="C508" s="25"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
       <c r="F508" s="4"/>
@@ -12538,7 +12503,7 @@
     <row r="509">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
-      <c r="C509" s="30"/>
+      <c r="C509" s="25"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
       <c r="F509" s="4"/>
@@ -12561,7 +12526,7 @@
     <row r="510">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
-      <c r="C510" s="30"/>
+      <c r="C510" s="25"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
       <c r="F510" s="4"/>
@@ -12584,7 +12549,7 @@
     <row r="511">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
-      <c r="C511" s="30"/>
+      <c r="C511" s="25"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
       <c r="F511" s="4"/>
@@ -12607,7 +12572,7 @@
     <row r="512">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
-      <c r="C512" s="30"/>
+      <c r="C512" s="25"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
       <c r="F512" s="4"/>
@@ -12630,7 +12595,7 @@
     <row r="513">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
-      <c r="C513" s="30"/>
+      <c r="C513" s="25"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
       <c r="F513" s="4"/>
@@ -12653,7 +12618,7 @@
     <row r="514">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
-      <c r="C514" s="30"/>
+      <c r="C514" s="25"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
       <c r="F514" s="4"/>
@@ -12676,7 +12641,7 @@
     <row r="515">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
-      <c r="C515" s="30"/>
+      <c r="C515" s="25"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
       <c r="F515" s="4"/>
@@ -12699,7 +12664,7 @@
     <row r="516">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
-      <c r="C516" s="30"/>
+      <c r="C516" s="25"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
       <c r="F516" s="4"/>
@@ -12722,7 +12687,7 @@
     <row r="517">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
-      <c r="C517" s="30"/>
+      <c r="C517" s="25"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
@@ -12745,7 +12710,7 @@
     <row r="518">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
-      <c r="C518" s="30"/>
+      <c r="C518" s="25"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
       <c r="F518" s="4"/>
@@ -12768,7 +12733,7 @@
     <row r="519">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
-      <c r="C519" s="30"/>
+      <c r="C519" s="25"/>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
       <c r="F519" s="4"/>
@@ -12791,7 +12756,7 @@
     <row r="520">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
-      <c r="C520" s="30"/>
+      <c r="C520" s="25"/>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
       <c r="F520" s="4"/>
@@ -12814,7 +12779,7 @@
     <row r="521">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
-      <c r="C521" s="30"/>
+      <c r="C521" s="25"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
       <c r="F521" s="4"/>
@@ -12837,7 +12802,7 @@
     <row r="522">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
-      <c r="C522" s="30"/>
+      <c r="C522" s="25"/>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
       <c r="F522" s="4"/>
@@ -12860,7 +12825,7 @@
     <row r="523">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
-      <c r="C523" s="30"/>
+      <c r="C523" s="25"/>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
       <c r="F523" s="4"/>
@@ -12883,7 +12848,7 @@
     <row r="524">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
-      <c r="C524" s="30"/>
+      <c r="C524" s="25"/>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
       <c r="F524" s="4"/>
@@ -12906,7 +12871,7 @@
     <row r="525">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
-      <c r="C525" s="30"/>
+      <c r="C525" s="25"/>
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
       <c r="F525" s="4"/>
@@ -12929,7 +12894,7 @@
     <row r="526">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
-      <c r="C526" s="30"/>
+      <c r="C526" s="25"/>
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
       <c r="F526" s="4"/>
@@ -12952,7 +12917,7 @@
     <row r="527">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
-      <c r="C527" s="30"/>
+      <c r="C527" s="25"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
@@ -12975,7 +12940,7 @@
     <row r="528">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
-      <c r="C528" s="30"/>
+      <c r="C528" s="25"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
@@ -12998,7 +12963,7 @@
     <row r="529">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
-      <c r="C529" s="30"/>
+      <c r="C529" s="25"/>
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
       <c r="F529" s="4"/>
@@ -13021,7 +12986,7 @@
     <row r="530">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
-      <c r="C530" s="30"/>
+      <c r="C530" s="25"/>
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
       <c r="F530" s="4"/>
@@ -13044,7 +13009,7 @@
     <row r="531">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
-      <c r="C531" s="30"/>
+      <c r="C531" s="25"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
       <c r="F531" s="4"/>
@@ -13067,7 +13032,7 @@
     <row r="532">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
-      <c r="C532" s="30"/>
+      <c r="C532" s="25"/>
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
       <c r="F532" s="4"/>
@@ -13090,7 +13055,7 @@
     <row r="533">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
-      <c r="C533" s="30"/>
+      <c r="C533" s="25"/>
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
       <c r="F533" s="4"/>
@@ -13113,7 +13078,7 @@
     <row r="534">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
-      <c r="C534" s="30"/>
+      <c r="C534" s="25"/>
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
       <c r="F534" s="4"/>
@@ -13136,7 +13101,7 @@
     <row r="535">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
-      <c r="C535" s="30"/>
+      <c r="C535" s="25"/>
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
       <c r="F535" s="4"/>
@@ -13159,7 +13124,7 @@
     <row r="536">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
-      <c r="C536" s="30"/>
+      <c r="C536" s="25"/>
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
@@ -13182,7 +13147,7 @@
     <row r="537">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
-      <c r="C537" s="30"/>
+      <c r="C537" s="25"/>
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
       <c r="F537" s="4"/>
@@ -13205,7 +13170,7 @@
     <row r="538">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
-      <c r="C538" s="30"/>
+      <c r="C538" s="25"/>
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
       <c r="F538" s="4"/>
@@ -13228,7 +13193,7 @@
     <row r="539">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
-      <c r="C539" s="30"/>
+      <c r="C539" s="25"/>
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
       <c r="F539" s="4"/>
@@ -13251,7 +13216,7 @@
     <row r="540">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
-      <c r="C540" s="30"/>
+      <c r="C540" s="25"/>
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
       <c r="F540" s="4"/>
@@ -13274,7 +13239,7 @@
     <row r="541">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
-      <c r="C541" s="30"/>
+      <c r="C541" s="25"/>
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
       <c r="F541" s="4"/>
@@ -13297,7 +13262,7 @@
     <row r="542">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
-      <c r="C542" s="30"/>
+      <c r="C542" s="25"/>
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
       <c r="F542" s="4"/>
@@ -13320,7 +13285,7 @@
     <row r="543">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
-      <c r="C543" s="30"/>
+      <c r="C543" s="25"/>
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
       <c r="F543" s="4"/>
@@ -13343,7 +13308,7 @@
     <row r="544">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
-      <c r="C544" s="30"/>
+      <c r="C544" s="25"/>
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
       <c r="F544" s="4"/>
@@ -13366,7 +13331,7 @@
     <row r="545">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
-      <c r="C545" s="30"/>
+      <c r="C545" s="25"/>
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
       <c r="F545" s="4"/>
@@ -13389,7 +13354,7 @@
     <row r="546">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
-      <c r="C546" s="30"/>
+      <c r="C546" s="25"/>
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
       <c r="F546" s="4"/>
@@ -13412,7 +13377,7 @@
     <row r="547">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
-      <c r="C547" s="30"/>
+      <c r="C547" s="25"/>
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
       <c r="F547" s="4"/>
@@ -13435,7 +13400,7 @@
     <row r="548">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
-      <c r="C548" s="30"/>
+      <c r="C548" s="25"/>
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
       <c r="F548" s="4"/>
@@ -13458,7 +13423,7 @@
     <row r="549">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
-      <c r="C549" s="30"/>
+      <c r="C549" s="25"/>
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
@@ -13481,7 +13446,7 @@
     <row r="550">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
-      <c r="C550" s="30"/>
+      <c r="C550" s="25"/>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
       <c r="F550" s="4"/>
@@ -13504,7 +13469,7 @@
     <row r="551">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
-      <c r="C551" s="30"/>
+      <c r="C551" s="25"/>
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
       <c r="F551" s="4"/>
@@ -13527,7 +13492,7 @@
     <row r="552">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
-      <c r="C552" s="30"/>
+      <c r="C552" s="25"/>
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
       <c r="F552" s="4"/>
@@ -13550,7 +13515,7 @@
     <row r="553">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
-      <c r="C553" s="30"/>
+      <c r="C553" s="25"/>
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
       <c r="F553" s="4"/>
@@ -13573,7 +13538,7 @@
     <row r="554">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
-      <c r="C554" s="30"/>
+      <c r="C554" s="25"/>
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
       <c r="F554" s="4"/>
@@ -13596,7 +13561,7 @@
     <row r="555">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
-      <c r="C555" s="30"/>
+      <c r="C555" s="25"/>
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
       <c r="F555" s="4"/>
@@ -13619,7 +13584,7 @@
     <row r="556">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
-      <c r="C556" s="30"/>
+      <c r="C556" s="25"/>
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
       <c r="F556" s="4"/>
@@ -13642,7 +13607,7 @@
     <row r="557">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
-      <c r="C557" s="30"/>
+      <c r="C557" s="25"/>
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
       <c r="F557" s="4"/>
@@ -13665,7 +13630,7 @@
     <row r="558">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
-      <c r="C558" s="30"/>
+      <c r="C558" s="25"/>
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
       <c r="F558" s="4"/>
@@ -13688,7 +13653,7 @@
     <row r="559">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
-      <c r="C559" s="30"/>
+      <c r="C559" s="25"/>
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
       <c r="F559" s="4"/>
@@ -13711,7 +13676,7 @@
     <row r="560">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
-      <c r="C560" s="30"/>
+      <c r="C560" s="25"/>
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
@@ -13734,7 +13699,7 @@
     <row r="561">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
-      <c r="C561" s="30"/>
+      <c r="C561" s="25"/>
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
@@ -13757,7 +13722,7 @@
     <row r="562">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
-      <c r="C562" s="30"/>
+      <c r="C562" s="25"/>
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
       <c r="F562" s="4"/>
@@ -13780,7 +13745,7 @@
     <row r="563">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
-      <c r="C563" s="30"/>
+      <c r="C563" s="25"/>
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
       <c r="F563" s="4"/>
@@ -13803,7 +13768,7 @@
     <row r="564">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
-      <c r="C564" s="30"/>
+      <c r="C564" s="25"/>
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
@@ -13826,7 +13791,7 @@
     <row r="565">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
-      <c r="C565" s="30"/>
+      <c r="C565" s="25"/>
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
       <c r="F565" s="4"/>
@@ -13849,7 +13814,7 @@
     <row r="566">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
-      <c r="C566" s="30"/>
+      <c r="C566" s="25"/>
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
       <c r="F566" s="4"/>
@@ -13872,7 +13837,7 @@
     <row r="567">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
-      <c r="C567" s="30"/>
+      <c r="C567" s="25"/>
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
       <c r="F567" s="4"/>
@@ -13895,7 +13860,7 @@
     <row r="568">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
-      <c r="C568" s="30"/>
+      <c r="C568" s="25"/>
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
       <c r="F568" s="4"/>
@@ -13918,7 +13883,7 @@
     <row r="569">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
-      <c r="C569" s="30"/>
+      <c r="C569" s="25"/>
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
       <c r="F569" s="4"/>
@@ -13941,7 +13906,7 @@
     <row r="570">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
-      <c r="C570" s="30"/>
+      <c r="C570" s="25"/>
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
       <c r="F570" s="4"/>
@@ -13964,7 +13929,7 @@
     <row r="571">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
-      <c r="C571" s="30"/>
+      <c r="C571" s="25"/>
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
       <c r="F571" s="4"/>
@@ -13987,7 +13952,7 @@
     <row r="572">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
-      <c r="C572" s="30"/>
+      <c r="C572" s="25"/>
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
       <c r="F572" s="4"/>
@@ -14010,7 +13975,7 @@
     <row r="573">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
-      <c r="C573" s="30"/>
+      <c r="C573" s="25"/>
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
       <c r="F573" s="4"/>
@@ -14033,7 +13998,7 @@
     <row r="574">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
-      <c r="C574" s="30"/>
+      <c r="C574" s="25"/>
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
       <c r="F574" s="4"/>
@@ -14056,7 +14021,7 @@
     <row r="575">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
-      <c r="C575" s="30"/>
+      <c r="C575" s="25"/>
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
       <c r="F575" s="4"/>
@@ -14079,7 +14044,7 @@
     <row r="576">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
-      <c r="C576" s="30"/>
+      <c r="C576" s="25"/>
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
       <c r="F576" s="4"/>
@@ -14102,7 +14067,7 @@
     <row r="577">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
-      <c r="C577" s="30"/>
+      <c r="C577" s="25"/>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
       <c r="F577" s="4"/>
@@ -14125,7 +14090,7 @@
     <row r="578">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
-      <c r="C578" s="30"/>
+      <c r="C578" s="25"/>
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
       <c r="F578" s="4"/>
@@ -14148,7 +14113,7 @@
     <row r="579">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
-      <c r="C579" s="30"/>
+      <c r="C579" s="25"/>
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
       <c r="F579" s="4"/>
@@ -14171,7 +14136,7 @@
     <row r="580">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
-      <c r="C580" s="30"/>
+      <c r="C580" s="25"/>
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
       <c r="F580" s="4"/>
@@ -14194,7 +14159,7 @@
     <row r="581">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
-      <c r="C581" s="30"/>
+      <c r="C581" s="25"/>
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
       <c r="F581" s="4"/>
@@ -14217,7 +14182,7 @@
     <row r="582">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
-      <c r="C582" s="30"/>
+      <c r="C582" s="25"/>
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
       <c r="F582" s="4"/>
@@ -14240,7 +14205,7 @@
     <row r="583">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
-      <c r="C583" s="30"/>
+      <c r="C583" s="25"/>
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
       <c r="F583" s="4"/>
@@ -14263,7 +14228,7 @@
     <row r="584">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
-      <c r="C584" s="30"/>
+      <c r="C584" s="25"/>
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
       <c r="F584" s="4"/>
@@ -14286,7 +14251,7 @@
     <row r="585">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
-      <c r="C585" s="30"/>
+      <c r="C585" s="25"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
       <c r="F585" s="4"/>
@@ -14309,7 +14274,7 @@
     <row r="586">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
-      <c r="C586" s="30"/>
+      <c r="C586" s="25"/>
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
       <c r="F586" s="4"/>
@@ -14332,7 +14297,7 @@
     <row r="587">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
-      <c r="C587" s="30"/>
+      <c r="C587" s="25"/>
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
       <c r="F587" s="4"/>
@@ -14355,7 +14320,7 @@
     <row r="588">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
-      <c r="C588" s="30"/>
+      <c r="C588" s="25"/>
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
       <c r="F588" s="4"/>
@@ -14378,7 +14343,7 @@
     <row r="589">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
-      <c r="C589" s="30"/>
+      <c r="C589" s="25"/>
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
       <c r="F589" s="4"/>
@@ -14401,7 +14366,7 @@
     <row r="590">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
-      <c r="C590" s="30"/>
+      <c r="C590" s="25"/>
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
       <c r="F590" s="4"/>
@@ -14424,7 +14389,7 @@
     <row r="591">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
-      <c r="C591" s="30"/>
+      <c r="C591" s="25"/>
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
       <c r="F591" s="4"/>
@@ -14447,7 +14412,7 @@
     <row r="592">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
-      <c r="C592" s="30"/>
+      <c r="C592" s="25"/>
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
       <c r="F592" s="4"/>
@@ -14470,7 +14435,7 @@
     <row r="593">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
-      <c r="C593" s="30"/>
+      <c r="C593" s="25"/>
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
       <c r="F593" s="4"/>
@@ -14493,7 +14458,7 @@
     <row r="594">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
-      <c r="C594" s="30"/>
+      <c r="C594" s="25"/>
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
       <c r="F594" s="4"/>
@@ -14516,7 +14481,7 @@
     <row r="595">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
-      <c r="C595" s="30"/>
+      <c r="C595" s="25"/>
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
       <c r="F595" s="4"/>
@@ -14539,7 +14504,7 @@
     <row r="596">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
-      <c r="C596" s="30"/>
+      <c r="C596" s="25"/>
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
       <c r="F596" s="4"/>
@@ -14562,7 +14527,7 @@
     <row r="597">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
-      <c r="C597" s="30"/>
+      <c r="C597" s="25"/>
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
       <c r="F597" s="4"/>
@@ -14585,7 +14550,7 @@
     <row r="598">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
-      <c r="C598" s="30"/>
+      <c r="C598" s="25"/>
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
       <c r="F598" s="4"/>
@@ -14608,7 +14573,7 @@
     <row r="599">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
-      <c r="C599" s="30"/>
+      <c r="C599" s="25"/>
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
       <c r="F599" s="4"/>
@@ -14631,7 +14596,7 @@
     <row r="600">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
-      <c r="C600" s="30"/>
+      <c r="C600" s="25"/>
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
       <c r="F600" s="4"/>
@@ -14654,7 +14619,7 @@
     <row r="601">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
-      <c r="C601" s="30"/>
+      <c r="C601" s="25"/>
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
       <c r="F601" s="4"/>
@@ -14677,7 +14642,7 @@
     <row r="602">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
-      <c r="C602" s="30"/>
+      <c r="C602" s="25"/>
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
       <c r="F602" s="4"/>
@@ -14700,7 +14665,7 @@
     <row r="603">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
-      <c r="C603" s="30"/>
+      <c r="C603" s="25"/>
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
       <c r="F603" s="4"/>
@@ -14723,7 +14688,7 @@
     <row r="604">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
-      <c r="C604" s="30"/>
+      <c r="C604" s="25"/>
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
       <c r="F604" s="4"/>
@@ -14746,7 +14711,7 @@
     <row r="605">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
-      <c r="C605" s="30"/>
+      <c r="C605" s="25"/>
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
       <c r="F605" s="4"/>
@@ -14769,7 +14734,7 @@
     <row r="606">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
-      <c r="C606" s="30"/>
+      <c r="C606" s="25"/>
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
       <c r="F606" s="4"/>
@@ -14792,7 +14757,7 @@
     <row r="607">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
-      <c r="C607" s="30"/>
+      <c r="C607" s="25"/>
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
       <c r="F607" s="4"/>
@@ -14815,7 +14780,7 @@
     <row r="608">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
-      <c r="C608" s="30"/>
+      <c r="C608" s="25"/>
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
       <c r="F608" s="4"/>
@@ -14838,7 +14803,7 @@
     <row r="609">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
-      <c r="C609" s="30"/>
+      <c r="C609" s="25"/>
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
       <c r="F609" s="4"/>
@@ -14861,7 +14826,7 @@
     <row r="610">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
-      <c r="C610" s="30"/>
+      <c r="C610" s="25"/>
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
       <c r="F610" s="4"/>
@@ -14884,7 +14849,7 @@
     <row r="611">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
-      <c r="C611" s="30"/>
+      <c r="C611" s="25"/>
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
       <c r="F611" s="4"/>
@@ -14907,7 +14872,7 @@
     <row r="612">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
-      <c r="C612" s="30"/>
+      <c r="C612" s="25"/>
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
       <c r="F612" s="4"/>
@@ -14930,7 +14895,7 @@
     <row r="613">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
-      <c r="C613" s="30"/>
+      <c r="C613" s="25"/>
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
       <c r="F613" s="4"/>
@@ -14953,7 +14918,7 @@
     <row r="614">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
-      <c r="C614" s="30"/>
+      <c r="C614" s="25"/>
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
       <c r="F614" s="4"/>
@@ -14976,7 +14941,7 @@
     <row r="615">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
-      <c r="C615" s="30"/>
+      <c r="C615" s="25"/>
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
       <c r="F615" s="4"/>
@@ -14999,7 +14964,7 @@
     <row r="616">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
-      <c r="C616" s="30"/>
+      <c r="C616" s="25"/>
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
       <c r="F616" s="4"/>
@@ -15022,7 +14987,7 @@
     <row r="617">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
-      <c r="C617" s="30"/>
+      <c r="C617" s="25"/>
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
       <c r="F617" s="4"/>
@@ -15045,7 +15010,7 @@
     <row r="618">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
-      <c r="C618" s="30"/>
+      <c r="C618" s="25"/>
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
       <c r="F618" s="4"/>
@@ -15068,7 +15033,7 @@
     <row r="619">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
-      <c r="C619" s="30"/>
+      <c r="C619" s="25"/>
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
       <c r="F619" s="4"/>
@@ -15091,7 +15056,7 @@
     <row r="620">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
-      <c r="C620" s="30"/>
+      <c r="C620" s="25"/>
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
       <c r="F620" s="4"/>
@@ -15114,7 +15079,7 @@
     <row r="621">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
-      <c r="C621" s="30"/>
+      <c r="C621" s="25"/>
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
       <c r="F621" s="4"/>
@@ -15137,7 +15102,7 @@
     <row r="622">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
-      <c r="C622" s="30"/>
+      <c r="C622" s="25"/>
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
       <c r="F622" s="4"/>
@@ -15160,7 +15125,7 @@
     <row r="623">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
-      <c r="C623" s="30"/>
+      <c r="C623" s="25"/>
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
       <c r="F623" s="4"/>
@@ -15183,7 +15148,7 @@
     <row r="624">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
-      <c r="C624" s="30"/>
+      <c r="C624" s="25"/>
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
       <c r="F624" s="4"/>
@@ -15206,7 +15171,7 @@
     <row r="625">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
-      <c r="C625" s="30"/>
+      <c r="C625" s="25"/>
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
       <c r="F625" s="4"/>
@@ -15229,7 +15194,7 @@
     <row r="626">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
-      <c r="C626" s="30"/>
+      <c r="C626" s="25"/>
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
       <c r="F626" s="4"/>
@@ -15252,7 +15217,7 @@
     <row r="627">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
-      <c r="C627" s="30"/>
+      <c r="C627" s="25"/>
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
       <c r="F627" s="4"/>
@@ -15275,7 +15240,7 @@
     <row r="628">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
-      <c r="C628" s="30"/>
+      <c r="C628" s="25"/>
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
       <c r="F628" s="4"/>
@@ -15298,7 +15263,7 @@
     <row r="629">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
-      <c r="C629" s="30"/>
+      <c r="C629" s="25"/>
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
       <c r="F629" s="4"/>
@@ -15321,7 +15286,7 @@
     <row r="630">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
-      <c r="C630" s="30"/>
+      <c r="C630" s="25"/>
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
       <c r="F630" s="4"/>
@@ -15344,7 +15309,7 @@
     <row r="631">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
-      <c r="C631" s="30"/>
+      <c r="C631" s="25"/>
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
       <c r="F631" s="4"/>
@@ -15367,7 +15332,7 @@
     <row r="632">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
-      <c r="C632" s="30"/>
+      <c r="C632" s="25"/>
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
       <c r="F632" s="4"/>
@@ -15390,7 +15355,7 @@
     <row r="633">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
-      <c r="C633" s="30"/>
+      <c r="C633" s="25"/>
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
       <c r="F633" s="4"/>
@@ -15413,7 +15378,7 @@
     <row r="634">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
-      <c r="C634" s="30"/>
+      <c r="C634" s="25"/>
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
       <c r="F634" s="4"/>
@@ -15436,7 +15401,7 @@
     <row r="635">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
-      <c r="C635" s="30"/>
+      <c r="C635" s="25"/>
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
       <c r="F635" s="4"/>
@@ -15459,7 +15424,7 @@
     <row r="636">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
-      <c r="C636" s="30"/>
+      <c r="C636" s="25"/>
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
       <c r="F636" s="4"/>
@@ -15482,7 +15447,7 @@
     <row r="637">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
-      <c r="C637" s="30"/>
+      <c r="C637" s="25"/>
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
       <c r="F637" s="4"/>
@@ -15505,7 +15470,7 @@
     <row r="638">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
-      <c r="C638" s="30"/>
+      <c r="C638" s="25"/>
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
       <c r="F638" s="4"/>
@@ -15528,7 +15493,7 @@
     <row r="639">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
-      <c r="C639" s="30"/>
+      <c r="C639" s="25"/>
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
       <c r="F639" s="4"/>
@@ -15551,7 +15516,7 @@
     <row r="640">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
-      <c r="C640" s="30"/>
+      <c r="C640" s="25"/>
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
       <c r="F640" s="4"/>
@@ -15574,7 +15539,7 @@
     <row r="641">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
-      <c r="C641" s="30"/>
+      <c r="C641" s="25"/>
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
       <c r="F641" s="4"/>
@@ -15597,7 +15562,7 @@
     <row r="642">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
-      <c r="C642" s="30"/>
+      <c r="C642" s="25"/>
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
       <c r="F642" s="4"/>
@@ -15620,7 +15585,7 @@
     <row r="643">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
-      <c r="C643" s="30"/>
+      <c r="C643" s="25"/>
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
       <c r="F643" s="4"/>
@@ -15643,7 +15608,7 @@
     <row r="644">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
-      <c r="C644" s="30"/>
+      <c r="C644" s="25"/>
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
       <c r="F644" s="4"/>
@@ -15666,7 +15631,7 @@
     <row r="645">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
-      <c r="C645" s="30"/>
+      <c r="C645" s="25"/>
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
       <c r="F645" s="4"/>
@@ -15689,7 +15654,7 @@
     <row r="646">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
-      <c r="C646" s="30"/>
+      <c r="C646" s="25"/>
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
       <c r="F646" s="4"/>
@@ -15712,7 +15677,7 @@
     <row r="647">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
-      <c r="C647" s="30"/>
+      <c r="C647" s="25"/>
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
       <c r="F647" s="4"/>
@@ -15735,7 +15700,7 @@
     <row r="648">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
-      <c r="C648" s="30"/>
+      <c r="C648" s="25"/>
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
       <c r="F648" s="4"/>
@@ -15758,7 +15723,7 @@
     <row r="649">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
-      <c r="C649" s="30"/>
+      <c r="C649" s="25"/>
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
       <c r="F649" s="4"/>
@@ -15781,7 +15746,7 @@
     <row r="650">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
-      <c r="C650" s="30"/>
+      <c r="C650" s="25"/>
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
       <c r="F650" s="4"/>
@@ -15804,7 +15769,7 @@
     <row r="651">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
-      <c r="C651" s="30"/>
+      <c r="C651" s="25"/>
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
       <c r="F651" s="4"/>
@@ -15827,7 +15792,7 @@
     <row r="652">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
-      <c r="C652" s="30"/>
+      <c r="C652" s="25"/>
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
       <c r="F652" s="4"/>
@@ -15850,7 +15815,7 @@
     <row r="653">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
-      <c r="C653" s="30"/>
+      <c r="C653" s="25"/>
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
       <c r="F653" s="4"/>
@@ -15873,7 +15838,7 @@
     <row r="654">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
-      <c r="C654" s="30"/>
+      <c r="C654" s="25"/>
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
       <c r="F654" s="4"/>
@@ -15896,7 +15861,7 @@
     <row r="655">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
-      <c r="C655" s="30"/>
+      <c r="C655" s="25"/>
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
       <c r="F655" s="4"/>
@@ -15919,7 +15884,7 @@
     <row r="656">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
-      <c r="C656" s="30"/>
+      <c r="C656" s="25"/>
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
       <c r="F656" s="4"/>
@@ -15942,7 +15907,7 @@
     <row r="657">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
-      <c r="C657" s="30"/>
+      <c r="C657" s="25"/>
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
       <c r="F657" s="4"/>
@@ -15965,7 +15930,7 @@
     <row r="658">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
-      <c r="C658" s="30"/>
+      <c r="C658" s="25"/>
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
       <c r="F658" s="4"/>
@@ -15988,7 +15953,7 @@
     <row r="659">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
-      <c r="C659" s="30"/>
+      <c r="C659" s="25"/>
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
       <c r="F659" s="4"/>
@@ -16011,7 +15976,7 @@
     <row r="660">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
-      <c r="C660" s="30"/>
+      <c r="C660" s="25"/>
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
       <c r="F660" s="4"/>
@@ -16034,7 +15999,7 @@
     <row r="661">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
-      <c r="C661" s="30"/>
+      <c r="C661" s="25"/>
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
       <c r="F661" s="4"/>
@@ -16057,7 +16022,7 @@
     <row r="662">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
-      <c r="C662" s="30"/>
+      <c r="C662" s="25"/>
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
       <c r="F662" s="4"/>
@@ -16080,7 +16045,7 @@
     <row r="663">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
-      <c r="C663" s="30"/>
+      <c r="C663" s="25"/>
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
       <c r="F663" s="4"/>
@@ -16103,7 +16068,7 @@
     <row r="664">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
-      <c r="C664" s="30"/>
+      <c r="C664" s="25"/>
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
       <c r="F664" s="4"/>
@@ -16126,7 +16091,7 @@
     <row r="665">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
-      <c r="C665" s="30"/>
+      <c r="C665" s="25"/>
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
       <c r="F665" s="4"/>
@@ -16149,7 +16114,7 @@
     <row r="666">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
-      <c r="C666" s="30"/>
+      <c r="C666" s="25"/>
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
       <c r="F666" s="4"/>
@@ -16172,7 +16137,7 @@
     <row r="667">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
-      <c r="C667" s="30"/>
+      <c r="C667" s="25"/>
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
       <c r="F667" s="4"/>
@@ -16195,7 +16160,7 @@
     <row r="668">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
-      <c r="C668" s="30"/>
+      <c r="C668" s="25"/>
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
       <c r="F668" s="4"/>
@@ -16218,7 +16183,7 @@
     <row r="669">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
-      <c r="C669" s="30"/>
+      <c r="C669" s="25"/>
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
       <c r="F669" s="4"/>
@@ -16241,7 +16206,7 @@
     <row r="670">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
-      <c r="C670" s="30"/>
+      <c r="C670" s="25"/>
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
       <c r="F670" s="4"/>
@@ -16264,7 +16229,7 @@
     <row r="671">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
-      <c r="C671" s="30"/>
+      <c r="C671" s="25"/>
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
       <c r="F671" s="4"/>
@@ -16287,7 +16252,7 @@
     <row r="672">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
-      <c r="C672" s="30"/>
+      <c r="C672" s="25"/>
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
       <c r="F672" s="4"/>
@@ -16310,7 +16275,7 @@
     <row r="673">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
-      <c r="C673" s="30"/>
+      <c r="C673" s="25"/>
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
       <c r="F673" s="4"/>
@@ -16333,7 +16298,7 @@
     <row r="674">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
-      <c r="C674" s="30"/>
+      <c r="C674" s="25"/>
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
       <c r="F674" s="4"/>
@@ -16356,7 +16321,7 @@
     <row r="675">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
-      <c r="C675" s="30"/>
+      <c r="C675" s="25"/>
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
       <c r="F675" s="4"/>
@@ -16379,7 +16344,7 @@
     <row r="676">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
-      <c r="C676" s="30"/>
+      <c r="C676" s="25"/>
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
       <c r="F676" s="4"/>
@@ -16402,7 +16367,7 @@
     <row r="677">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
-      <c r="C677" s="30"/>
+      <c r="C677" s="25"/>
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
       <c r="F677" s="4"/>
@@ -16425,7 +16390,7 @@
     <row r="678">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
-      <c r="C678" s="30"/>
+      <c r="C678" s="25"/>
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
       <c r="F678" s="4"/>
@@ -16448,7 +16413,7 @@
     <row r="679">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
-      <c r="C679" s="30"/>
+      <c r="C679" s="25"/>
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
       <c r="F679" s="4"/>
@@ -16471,7 +16436,7 @@
     <row r="680">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
-      <c r="C680" s="30"/>
+      <c r="C680" s="25"/>
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
       <c r="F680" s="4"/>
@@ -16494,7 +16459,7 @@
     <row r="681">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
-      <c r="C681" s="30"/>
+      <c r="C681" s="25"/>
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
       <c r="F681" s="4"/>
@@ -16517,7 +16482,7 @@
     <row r="682">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
-      <c r="C682" s="30"/>
+      <c r="C682" s="25"/>
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
       <c r="F682" s="4"/>
@@ -16540,7 +16505,7 @@
     <row r="683">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
-      <c r="C683" s="30"/>
+      <c r="C683" s="25"/>
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
       <c r="F683" s="4"/>
@@ -16563,7 +16528,7 @@
     <row r="684">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
-      <c r="C684" s="30"/>
+      <c r="C684" s="25"/>
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
       <c r="F684" s="4"/>
@@ -16586,7 +16551,7 @@
     <row r="685">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
-      <c r="C685" s="30"/>
+      <c r="C685" s="25"/>
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
       <c r="F685" s="4"/>
@@ -16609,7 +16574,7 @@
     <row r="686">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
-      <c r="C686" s="30"/>
+      <c r="C686" s="25"/>
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
       <c r="F686" s="4"/>
@@ -16632,7 +16597,7 @@
     <row r="687">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
-      <c r="C687" s="30"/>
+      <c r="C687" s="25"/>
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
       <c r="F687" s="4"/>
@@ -16655,7 +16620,7 @@
     <row r="688">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
-      <c r="C688" s="30"/>
+      <c r="C688" s="25"/>
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
       <c r="F688" s="4"/>
@@ -16678,7 +16643,7 @@
     <row r="689">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
-      <c r="C689" s="30"/>
+      <c r="C689" s="25"/>
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
       <c r="F689" s="4"/>
@@ -16701,7 +16666,7 @@
     <row r="690">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
-      <c r="C690" s="30"/>
+      <c r="C690" s="25"/>
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
       <c r="F690" s="4"/>
@@ -16724,7 +16689,7 @@
     <row r="691">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
-      <c r="C691" s="30"/>
+      <c r="C691" s="25"/>
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
       <c r="F691" s="4"/>
@@ -16747,7 +16712,7 @@
     <row r="692">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
-      <c r="C692" s="30"/>
+      <c r="C692" s="25"/>
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
       <c r="F692" s="4"/>
@@ -16770,7 +16735,7 @@
     <row r="693">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
-      <c r="C693" s="30"/>
+      <c r="C693" s="25"/>
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
       <c r="F693" s="4"/>
@@ -16793,7 +16758,7 @@
     <row r="694">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
-      <c r="C694" s="30"/>
+      <c r="C694" s="25"/>
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
       <c r="F694" s="4"/>
@@ -16816,7 +16781,7 @@
     <row r="695">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
-      <c r="C695" s="30"/>
+      <c r="C695" s="25"/>
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
       <c r="F695" s="4"/>
@@ -16839,7 +16804,7 @@
     <row r="696">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
-      <c r="C696" s="30"/>
+      <c r="C696" s="25"/>
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
       <c r="F696" s="4"/>
@@ -16862,7 +16827,7 @@
     <row r="697">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
-      <c r="C697" s="30"/>
+      <c r="C697" s="25"/>
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
       <c r="F697" s="4"/>
@@ -16885,7 +16850,7 @@
     <row r="698">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
-      <c r="C698" s="30"/>
+      <c r="C698" s="25"/>
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
       <c r="F698" s="4"/>
@@ -16908,7 +16873,7 @@
     <row r="699">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
-      <c r="C699" s="30"/>
+      <c r="C699" s="25"/>
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
       <c r="F699" s="4"/>
@@ -16931,7 +16896,7 @@
     <row r="700">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
-      <c r="C700" s="30"/>
+      <c r="C700" s="25"/>
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
       <c r="F700" s="4"/>
@@ -16954,7 +16919,7 @@
     <row r="701">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
-      <c r="C701" s="30"/>
+      <c r="C701" s="25"/>
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
       <c r="F701" s="4"/>
@@ -16977,7 +16942,7 @@
     <row r="702">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
-      <c r="C702" s="30"/>
+      <c r="C702" s="25"/>
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
       <c r="F702" s="4"/>
@@ -17000,7 +16965,7 @@
     <row r="703">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
-      <c r="C703" s="30"/>
+      <c r="C703" s="25"/>
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
       <c r="F703" s="4"/>
@@ -17023,7 +16988,7 @@
     <row r="704">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
-      <c r="C704" s="30"/>
+      <c r="C704" s="25"/>
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
       <c r="F704" s="4"/>
@@ -17046,7 +17011,7 @@
     <row r="705">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
-      <c r="C705" s="30"/>
+      <c r="C705" s="25"/>
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
       <c r="F705" s="4"/>
@@ -17069,7 +17034,7 @@
     <row r="706">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
-      <c r="C706" s="30"/>
+      <c r="C706" s="25"/>
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
       <c r="F706" s="4"/>
@@ -17092,7 +17057,7 @@
     <row r="707">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
-      <c r="C707" s="30"/>
+      <c r="C707" s="25"/>
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
       <c r="F707" s="4"/>
@@ -17115,7 +17080,7 @@
     <row r="708">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
-      <c r="C708" s="30"/>
+      <c r="C708" s="25"/>
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
       <c r="F708" s="4"/>
@@ -17138,7 +17103,7 @@
     <row r="709">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
-      <c r="C709" s="30"/>
+      <c r="C709" s="25"/>
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
       <c r="F709" s="4"/>
@@ -17161,7 +17126,7 @@
     <row r="710">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
-      <c r="C710" s="30"/>
+      <c r="C710" s="25"/>
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
       <c r="F710" s="4"/>
@@ -17184,7 +17149,7 @@
     <row r="711">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
-      <c r="C711" s="30"/>
+      <c r="C711" s="25"/>
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
       <c r="F711" s="4"/>
@@ -17207,7 +17172,7 @@
     <row r="712">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
-      <c r="C712" s="30"/>
+      <c r="C712" s="25"/>
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
       <c r="F712" s="4"/>
@@ -17230,7 +17195,7 @@
     <row r="713">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
-      <c r="C713" s="30"/>
+      <c r="C713" s="25"/>
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
       <c r="F713" s="4"/>
@@ -17253,7 +17218,7 @@
     <row r="714">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
-      <c r="C714" s="30"/>
+      <c r="C714" s="25"/>
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
       <c r="F714" s="4"/>
@@ -17276,7 +17241,7 @@
     <row r="715">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
-      <c r="C715" s="30"/>
+      <c r="C715" s="25"/>
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
       <c r="F715" s="4"/>
@@ -17299,7 +17264,7 @@
     <row r="716">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
-      <c r="C716" s="30"/>
+      <c r="C716" s="25"/>
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
       <c r="F716" s="4"/>
@@ -17322,7 +17287,7 @@
     <row r="717">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
-      <c r="C717" s="30"/>
+      <c r="C717" s="25"/>
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
       <c r="F717" s="4"/>
@@ -17345,7 +17310,7 @@
     <row r="718">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
-      <c r="C718" s="30"/>
+      <c r="C718" s="25"/>
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
       <c r="F718" s="4"/>
@@ -17368,7 +17333,7 @@
     <row r="719">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
-      <c r="C719" s="30"/>
+      <c r="C719" s="25"/>
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
       <c r="F719" s="4"/>
@@ -17391,7 +17356,7 @@
     <row r="720">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
-      <c r="C720" s="30"/>
+      <c r="C720" s="25"/>
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
       <c r="F720" s="4"/>
@@ -17414,7 +17379,7 @@
     <row r="721">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
-      <c r="C721" s="30"/>
+      <c r="C721" s="25"/>
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
       <c r="F721" s="4"/>
@@ -17437,7 +17402,7 @@
     <row r="722">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
-      <c r="C722" s="30"/>
+      <c r="C722" s="25"/>
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
       <c r="F722" s="4"/>
@@ -17460,7 +17425,7 @@
     <row r="723">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
-      <c r="C723" s="30"/>
+      <c r="C723" s="25"/>
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
       <c r="F723" s="4"/>
@@ -17483,7 +17448,7 @@
     <row r="724">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
-      <c r="C724" s="30"/>
+      <c r="C724" s="25"/>
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
       <c r="F724" s="4"/>
@@ -17506,7 +17471,7 @@
     <row r="725">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
-      <c r="C725" s="30"/>
+      <c r="C725" s="25"/>
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
       <c r="F725" s="4"/>
@@ -17529,7 +17494,7 @@
     <row r="726">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
-      <c r="C726" s="30"/>
+      <c r="C726" s="25"/>
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
       <c r="F726" s="4"/>
@@ -17552,7 +17517,7 @@
     <row r="727">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
-      <c r="C727" s="30"/>
+      <c r="C727" s="25"/>
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
       <c r="F727" s="4"/>
@@ -17575,7 +17540,7 @@
     <row r="728">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
-      <c r="C728" s="30"/>
+      <c r="C728" s="25"/>
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
       <c r="F728" s="4"/>
@@ -17598,7 +17563,7 @@
     <row r="729">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
-      <c r="C729" s="30"/>
+      <c r="C729" s="25"/>
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
       <c r="F729" s="4"/>
@@ -17621,7 +17586,7 @@
     <row r="730">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
-      <c r="C730" s="30"/>
+      <c r="C730" s="25"/>
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
       <c r="F730" s="4"/>
@@ -17644,7 +17609,7 @@
     <row r="731">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
-      <c r="C731" s="30"/>
+      <c r="C731" s="25"/>
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
       <c r="F731" s="4"/>
@@ -17667,7 +17632,7 @@
     <row r="732">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
-      <c r="C732" s="30"/>
+      <c r="C732" s="25"/>
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
       <c r="F732" s="4"/>
@@ -17690,7 +17655,7 @@
     <row r="733">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
-      <c r="C733" s="30"/>
+      <c r="C733" s="25"/>
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
       <c r="F733" s="4"/>
@@ -17713,7 +17678,7 @@
     <row r="734">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
-      <c r="C734" s="30"/>
+      <c r="C734" s="25"/>
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
       <c r="F734" s="4"/>
@@ -17736,7 +17701,7 @@
     <row r="735">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
-      <c r="C735" s="30"/>
+      <c r="C735" s="25"/>
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
       <c r="F735" s="4"/>
@@ -17759,7 +17724,7 @@
     <row r="736">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
-      <c r="C736" s="30"/>
+      <c r="C736" s="25"/>
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
       <c r="F736" s="4"/>
@@ -17782,7 +17747,7 @@
     <row r="737">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
-      <c r="C737" s="30"/>
+      <c r="C737" s="25"/>
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
       <c r="F737" s="4"/>
@@ -17805,7 +17770,7 @@
     <row r="738">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
-      <c r="C738" s="30"/>
+      <c r="C738" s="25"/>
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
       <c r="F738" s="4"/>
@@ -17828,7 +17793,7 @@
     <row r="739">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
-      <c r="C739" s="30"/>
+      <c r="C739" s="25"/>
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
       <c r="F739" s="4"/>
@@ -17851,7 +17816,7 @@
     <row r="740">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
-      <c r="C740" s="30"/>
+      <c r="C740" s="25"/>
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
       <c r="F740" s="4"/>
@@ -17874,7 +17839,7 @@
     <row r="741">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
-      <c r="C741" s="30"/>
+      <c r="C741" s="25"/>
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
       <c r="F741" s="4"/>
@@ -17897,7 +17862,7 @@
     <row r="742">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
-      <c r="C742" s="30"/>
+      <c r="C742" s="25"/>
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
       <c r="F742" s="4"/>
@@ -17920,7 +17885,7 @@
     <row r="743">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
-      <c r="C743" s="30"/>
+      <c r="C743" s="25"/>
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
       <c r="F743" s="4"/>
@@ -17943,7 +17908,7 @@
     <row r="744">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
-      <c r="C744" s="30"/>
+      <c r="C744" s="25"/>
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
       <c r="F744" s="4"/>
@@ -17966,7 +17931,7 @@
     <row r="745">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
-      <c r="C745" s="30"/>
+      <c r="C745" s="25"/>
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
       <c r="F745" s="4"/>
@@ -17989,7 +17954,7 @@
     <row r="746">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
-      <c r="C746" s="30"/>
+      <c r="C746" s="25"/>
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
       <c r="F746" s="4"/>
@@ -18012,7 +17977,7 @@
     <row r="747">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
-      <c r="C747" s="30"/>
+      <c r="C747" s="25"/>
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
       <c r="F747" s="4"/>
@@ -18035,7 +18000,7 @@
     <row r="748">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
-      <c r="C748" s="30"/>
+      <c r="C748" s="25"/>
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
       <c r="F748" s="4"/>
@@ -18058,7 +18023,7 @@
     <row r="749">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
-      <c r="C749" s="30"/>
+      <c r="C749" s="25"/>
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
       <c r="F749" s="4"/>
@@ -18081,7 +18046,7 @@
     <row r="750">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
-      <c r="C750" s="30"/>
+      <c r="C750" s="25"/>
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
       <c r="F750" s="4"/>
@@ -18104,7 +18069,7 @@
     <row r="751">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
-      <c r="C751" s="30"/>
+      <c r="C751" s="25"/>
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
       <c r="F751" s="4"/>
@@ -18127,7 +18092,7 @@
     <row r="752">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
-      <c r="C752" s="30"/>
+      <c r="C752" s="25"/>
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
       <c r="F752" s="4"/>
@@ -18150,7 +18115,7 @@
     <row r="753">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
-      <c r="C753" s="30"/>
+      <c r="C753" s="25"/>
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
       <c r="F753" s="4"/>
@@ -18173,7 +18138,7 @@
     <row r="754">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
-      <c r="C754" s="30"/>
+      <c r="C754" s="25"/>
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
       <c r="F754" s="4"/>
@@ -18196,7 +18161,7 @@
     <row r="755">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
-      <c r="C755" s="30"/>
+      <c r="C755" s="25"/>
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
       <c r="F755" s="4"/>
@@ -18219,7 +18184,7 @@
     <row r="756">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
-      <c r="C756" s="30"/>
+      <c r="C756" s="25"/>
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
       <c r="F756" s="4"/>
@@ -18242,7 +18207,7 @@
     <row r="757">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
-      <c r="C757" s="30"/>
+      <c r="C757" s="25"/>
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
       <c r="F757" s="4"/>
@@ -18265,7 +18230,7 @@
     <row r="758">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
-      <c r="C758" s="30"/>
+      <c r="C758" s="25"/>
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
       <c r="F758" s="4"/>
@@ -18288,7 +18253,7 @@
     <row r="759">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
-      <c r="C759" s="30"/>
+      <c r="C759" s="25"/>
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
       <c r="F759" s="4"/>
@@ -18311,7 +18276,7 @@
     <row r="760">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
-      <c r="C760" s="30"/>
+      <c r="C760" s="25"/>
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
       <c r="F760" s="4"/>
@@ -18334,7 +18299,7 @@
     <row r="761">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
-      <c r="C761" s="30"/>
+      <c r="C761" s="25"/>
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
       <c r="F761" s="4"/>
@@ -18357,7 +18322,7 @@
     <row r="762">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
-      <c r="C762" s="30"/>
+      <c r="C762" s="25"/>
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
       <c r="F762" s="4"/>
@@ -18380,7 +18345,7 @@
     <row r="763">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
-      <c r="C763" s="30"/>
+      <c r="C763" s="25"/>
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
       <c r="F763" s="4"/>
@@ -18403,7 +18368,7 @@
     <row r="764">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
-      <c r="C764" s="30"/>
+      <c r="C764" s="25"/>
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
       <c r="F764" s="4"/>
@@ -18426,7 +18391,7 @@
     <row r="765">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
-      <c r="C765" s="30"/>
+      <c r="C765" s="25"/>
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
       <c r="F765" s="4"/>
@@ -18449,7 +18414,7 @@
     <row r="766">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
-      <c r="C766" s="30"/>
+      <c r="C766" s="25"/>
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
       <c r="F766" s="4"/>
@@ -18472,7 +18437,7 @@
     <row r="767">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
-      <c r="C767" s="30"/>
+      <c r="C767" s="25"/>
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
       <c r="F767" s="4"/>
@@ -18495,7 +18460,7 @@
     <row r="768">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
-      <c r="C768" s="30"/>
+      <c r="C768" s="25"/>
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
       <c r="F768" s="4"/>
@@ -18518,7 +18483,7 @@
     <row r="769">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
-      <c r="C769" s="30"/>
+      <c r="C769" s="25"/>
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
       <c r="F769" s="4"/>
@@ -18541,7 +18506,7 @@
     <row r="770">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
-      <c r="C770" s="30"/>
+      <c r="C770" s="25"/>
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
       <c r="F770" s="4"/>
@@ -18564,7 +18529,7 @@
     <row r="771">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
-      <c r="C771" s="30"/>
+      <c r="C771" s="25"/>
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
       <c r="F771" s="4"/>
@@ -18587,7 +18552,7 @@
     <row r="772">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
-      <c r="C772" s="30"/>
+      <c r="C772" s="25"/>
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
       <c r="F772" s="4"/>
@@ -18610,7 +18575,7 @@
     <row r="773">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
-      <c r="C773" s="30"/>
+      <c r="C773" s="25"/>
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
       <c r="F773" s="4"/>
@@ -18633,7 +18598,7 @@
     <row r="774">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
-      <c r="C774" s="30"/>
+      <c r="C774" s="25"/>
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
       <c r="F774" s="4"/>
@@ -18656,7 +18621,7 @@
     <row r="775">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
-      <c r="C775" s="30"/>
+      <c r="C775" s="25"/>
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
       <c r="F775" s="4"/>
@@ -18679,7 +18644,7 @@
     <row r="776">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
-      <c r="C776" s="30"/>
+      <c r="C776" s="25"/>
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
       <c r="F776" s="4"/>
@@ -18702,7 +18667,7 @@
     <row r="777">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
-      <c r="C777" s="30"/>
+      <c r="C777" s="25"/>
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
       <c r="F777" s="4"/>
@@ -18725,7 +18690,7 @@
     <row r="778">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
-      <c r="C778" s="30"/>
+      <c r="C778" s="25"/>
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
       <c r="F778" s="4"/>
@@ -18748,7 +18713,7 @@
     <row r="779">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
-      <c r="C779" s="30"/>
+      <c r="C779" s="25"/>
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
       <c r="F779" s="4"/>
@@ -18771,7 +18736,7 @@
     <row r="780">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
-      <c r="C780" s="30"/>
+      <c r="C780" s="25"/>
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
       <c r="F780" s="4"/>
@@ -18794,7 +18759,7 @@
     <row r="781">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
-      <c r="C781" s="30"/>
+      <c r="C781" s="25"/>
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
       <c r="F781" s="4"/>
@@ -18817,7 +18782,7 @@
     <row r="782">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
-      <c r="C782" s="30"/>
+      <c r="C782" s="25"/>
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
       <c r="F782" s="4"/>
@@ -18840,7 +18805,7 @@
     <row r="783">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
-      <c r="C783" s="30"/>
+      <c r="C783" s="25"/>
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
       <c r="F783" s="4"/>
@@ -18863,7 +18828,7 @@
     <row r="784">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
-      <c r="C784" s="30"/>
+      <c r="C784" s="25"/>
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
       <c r="F784" s="4"/>
@@ -18886,7 +18851,7 @@
     <row r="785">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
-      <c r="C785" s="30"/>
+      <c r="C785" s="25"/>
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
       <c r="F785" s="4"/>
@@ -18909,7 +18874,7 @@
     <row r="786">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
-      <c r="C786" s="30"/>
+      <c r="C786" s="25"/>
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
       <c r="F786" s="4"/>
@@ -18932,7 +18897,7 @@
     <row r="787">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
-      <c r="C787" s="30"/>
+      <c r="C787" s="25"/>
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
       <c r="F787" s="4"/>
@@ -18955,7 +18920,7 @@
     <row r="788">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
-      <c r="C788" s="30"/>
+      <c r="C788" s="25"/>
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
       <c r="F788" s="4"/>
@@ -18978,7 +18943,7 @@
     <row r="789">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
-      <c r="C789" s="30"/>
+      <c r="C789" s="25"/>
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
       <c r="F789" s="4"/>
@@ -19001,7 +18966,7 @@
     <row r="790">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
-      <c r="C790" s="30"/>
+      <c r="C790" s="25"/>
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
       <c r="F790" s="4"/>
@@ -19024,7 +18989,7 @@
     <row r="791">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
-      <c r="C791" s="30"/>
+      <c r="C791" s="25"/>
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
       <c r="F791" s="4"/>
@@ -19047,7 +19012,7 @@
     <row r="792">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
-      <c r="C792" s="30"/>
+      <c r="C792" s="25"/>
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
       <c r="F792" s="4"/>
@@ -19070,7 +19035,7 @@
     <row r="793">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
-      <c r="C793" s="30"/>
+      <c r="C793" s="25"/>
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
       <c r="F793" s="4"/>
@@ -19093,7 +19058,7 @@
     <row r="794">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
-      <c r="C794" s="30"/>
+      <c r="C794" s="25"/>
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
       <c r="F794" s="4"/>
@@ -19116,7 +19081,7 @@
     <row r="795">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
-      <c r="C795" s="30"/>
+      <c r="C795" s="25"/>
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
       <c r="F795" s="4"/>
@@ -19139,7 +19104,7 @@
     <row r="796">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
-      <c r="C796" s="30"/>
+      <c r="C796" s="25"/>
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
       <c r="F796" s="4"/>
@@ -19162,7 +19127,7 @@
     <row r="797">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
-      <c r="C797" s="30"/>
+      <c r="C797" s="25"/>
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
       <c r="F797" s="4"/>
@@ -19185,7 +19150,7 @@
     <row r="798">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
-      <c r="C798" s="30"/>
+      <c r="C798" s="25"/>
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
       <c r="F798" s="4"/>
@@ -19208,7 +19173,7 @@
     <row r="799">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
-      <c r="C799" s="30"/>
+      <c r="C799" s="25"/>
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
       <c r="F799" s="4"/>
@@ -19231,7 +19196,7 @@
     <row r="800">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
-      <c r="C800" s="30"/>
+      <c r="C800" s="25"/>
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
       <c r="F800" s="4"/>
@@ -19254,7 +19219,7 @@
     <row r="801">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
-      <c r="C801" s="30"/>
+      <c r="C801" s="25"/>
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
       <c r="F801" s="4"/>
@@ -19277,7 +19242,7 @@
     <row r="802">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
-      <c r="C802" s="30"/>
+      <c r="C802" s="25"/>
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
       <c r="F802" s="4"/>
@@ -19300,7 +19265,7 @@
     <row r="803">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
-      <c r="C803" s="30"/>
+      <c r="C803" s="25"/>
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
       <c r="F803" s="4"/>
@@ -19323,7 +19288,7 @@
     <row r="804">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
-      <c r="C804" s="30"/>
+      <c r="C804" s="25"/>
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
       <c r="F804" s="4"/>
@@ -19346,7 +19311,7 @@
     <row r="805">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
-      <c r="C805" s="30"/>
+      <c r="C805" s="25"/>
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
       <c r="F805" s="4"/>
@@ -19369,7 +19334,7 @@
     <row r="806">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
-      <c r="C806" s="30"/>
+      <c r="C806" s="25"/>
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
       <c r="F806" s="4"/>
@@ -19392,7 +19357,7 @@
     <row r="807">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
-      <c r="C807" s="30"/>
+      <c r="C807" s="25"/>
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
       <c r="F807" s="4"/>
@@ -19415,7 +19380,7 @@
     <row r="808">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
-      <c r="C808" s="30"/>
+      <c r="C808" s="25"/>
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
       <c r="F808" s="4"/>
@@ -19438,7 +19403,7 @@
     <row r="809">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
-      <c r="C809" s="30"/>
+      <c r="C809" s="25"/>
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
       <c r="F809" s="4"/>
@@ -19461,7 +19426,7 @@
     <row r="810">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
-      <c r="C810" s="30"/>
+      <c r="C810" s="25"/>
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
       <c r="F810" s="4"/>
@@ -19484,7 +19449,7 @@
     <row r="811">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
-      <c r="C811" s="30"/>
+      <c r="C811" s="25"/>
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
       <c r="F811" s="4"/>
@@ -19507,7 +19472,7 @@
     <row r="812">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
-      <c r="C812" s="30"/>
+      <c r="C812" s="25"/>
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
       <c r="F812" s="4"/>
@@ -19530,7 +19495,7 @@
     <row r="813">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
-      <c r="C813" s="30"/>
+      <c r="C813" s="25"/>
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
       <c r="F813" s="4"/>
@@ -19553,7 +19518,7 @@
     <row r="814">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
-      <c r="C814" s="30"/>
+      <c r="C814" s="25"/>
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
       <c r="F814" s="4"/>
@@ -19576,7 +19541,7 @@
     <row r="815">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
-      <c r="C815" s="30"/>
+      <c r="C815" s="25"/>
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
       <c r="F815" s="4"/>
@@ -19599,7 +19564,7 @@
     <row r="816">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
-      <c r="C816" s="30"/>
+      <c r="C816" s="25"/>
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
       <c r="F816" s="4"/>
@@ -19622,7 +19587,7 @@
     <row r="817">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
-      <c r="C817" s="30"/>
+      <c r="C817" s="25"/>
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
       <c r="F817" s="4"/>
@@ -19645,7 +19610,7 @@
     <row r="818">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
-      <c r="C818" s="30"/>
+      <c r="C818" s="25"/>
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
       <c r="F818" s="4"/>
@@ -19668,7 +19633,7 @@
     <row r="819">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
-      <c r="C819" s="30"/>
+      <c r="C819" s="25"/>
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
       <c r="F819" s="4"/>
@@ -19691,7 +19656,7 @@
     <row r="820">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
-      <c r="C820" s="30"/>
+      <c r="C820" s="25"/>
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
       <c r="F820" s="4"/>
@@ -19714,7 +19679,7 @@
     <row r="821">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
-      <c r="C821" s="30"/>
+      <c r="C821" s="25"/>
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
       <c r="F821" s="4"/>
@@ -19737,7 +19702,7 @@
     <row r="822">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
-      <c r="C822" s="30"/>
+      <c r="C822" s="25"/>
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
       <c r="F822" s="4"/>
@@ -19760,7 +19725,7 @@
     <row r="823">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
-      <c r="C823" s="30"/>
+      <c r="C823" s="25"/>
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
       <c r="F823" s="4"/>
@@ -19783,7 +19748,7 @@
     <row r="824">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
-      <c r="C824" s="30"/>
+      <c r="C824" s="25"/>
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
       <c r="F824" s="4"/>
@@ -19806,7 +19771,7 @@
     <row r="825">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
-      <c r="C825" s="30"/>
+      <c r="C825" s="25"/>
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
       <c r="F825" s="4"/>
@@ -19829,7 +19794,7 @@
     <row r="826">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
-      <c r="C826" s="30"/>
+      <c r="C826" s="25"/>
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
       <c r="F826" s="4"/>
@@ -19852,7 +19817,7 @@
     <row r="827">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
-      <c r="C827" s="30"/>
+      <c r="C827" s="25"/>
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
       <c r="F827" s="4"/>
@@ -19875,7 +19840,7 @@
     <row r="828">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
-      <c r="C828" s="30"/>
+      <c r="C828" s="25"/>
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
       <c r="F828" s="4"/>
@@ -19898,7 +19863,7 @@
     <row r="829">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
-      <c r="C829" s="30"/>
+      <c r="C829" s="25"/>
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
       <c r="F829" s="4"/>
@@ -19921,7 +19886,7 @@
     <row r="830">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
-      <c r="C830" s="30"/>
+      <c r="C830" s="25"/>
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
       <c r="F830" s="4"/>
@@ -19944,7 +19909,7 @@
     <row r="831">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
-      <c r="C831" s="30"/>
+      <c r="C831" s="25"/>
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
       <c r="F831" s="4"/>
@@ -19967,7 +19932,7 @@
     <row r="832">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
-      <c r="C832" s="30"/>
+      <c r="C832" s="25"/>
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
       <c r="F832" s="4"/>
@@ -19990,7 +19955,7 @@
     <row r="833">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
-      <c r="C833" s="30"/>
+      <c r="C833" s="25"/>
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
       <c r="F833" s="4"/>
@@ -20013,7 +19978,7 @@
     <row r="834">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
-      <c r="C834" s="30"/>
+      <c r="C834" s="25"/>
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
       <c r="F834" s="4"/>
@@ -20036,7 +20001,7 @@
     <row r="835">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
-      <c r="C835" s="30"/>
+      <c r="C835" s="25"/>
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
       <c r="F835" s="4"/>

--- a/source/downloads/business-rules/Appoint Business Rules.xlsx
+++ b/source/downloads/business-rules/Appoint Business Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamcooper/Documents/GitHub/irr-api-end-to-end-service-guide/source/downloads/business-rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAFF655-A413-F343-9360-B3D7863BA070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266AA56E-4260-A64B-B314-E01CC047DB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35060" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="460" windowWidth="37020" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Appoint Business Rules" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>If answer = False, then an error message will be returned advising a reporting company needs to be appointed before being able to continue with the return</t>
   </si>
   <si>
     <t>agentActingOnBehalfOfCompany</t>
@@ -210,12 +207,15 @@
   <si>
     <t>If return does not meet declaration criteria then the return is deemed invalid</t>
   </si>
+  <si>
+    <t>If answer = False, then an error message will be returned advising that a reporting company needs to be appointed before being able to continue with the return</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -226,36 +226,48 @@
       <sz val="10"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial "/>
     </font>
   </fonts>
   <fills count="3">
@@ -272,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -332,11 +344,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -386,6 +413,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -616,11 +646,11 @@
   <dimension ref="A1:U835"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
@@ -630,7 +660,7 @@
     <col min="7" max="7" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,14 +693,14 @@
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -688,7 +718,7 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:21" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="30" customHeight="1">
       <c r="A3" s="5">
         <v>1.1000000000000001</v>
       </c>
@@ -701,8 +731,8 @@
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
+      <c r="E3" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -721,12 +751,12 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="5">
         <v>1.2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>7</v>
@@ -735,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -754,14 +784,14 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
-        <v>12</v>
+    <row r="5" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A5" s="25" t="s">
+        <v>11</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -779,21 +809,21 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:21" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="28">
       <c r="A6" s="5">
         <v>2.1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -812,21 +842,21 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:21" ht="42" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="42">
       <c r="A7" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -845,12 +875,12 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21" ht="70" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="70">
       <c r="A8" s="5">
         <v>2.4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>7</v>
@@ -859,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -878,14 +908,14 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
-        <v>19</v>
+    <row r="9" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>18</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="4"/>
       <c r="G9" s="10"/>
       <c r="H9" s="4"/>
@@ -903,14 +933,14 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
-        <v>20</v>
+    <row r="10" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A10" s="22" t="s">
+        <v>19</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -928,21 +958,21 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:21" ht="42" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="42">
       <c r="A11" s="5">
         <v>3.1</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -961,21 +991,21 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:21" ht="42" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="42">
       <c r="A12" s="5">
         <v>3.2</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -994,14 +1024,14 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21" t="s">
-        <v>24</v>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A13" s="22" t="s">
+        <v>23</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1019,21 +1049,21 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:21" ht="42" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="42">
       <c r="A14" s="5">
         <v>3.4</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1052,21 +1082,21 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" ht="14">
       <c r="A15" s="15">
         <v>3.9</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E15" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1085,14 +1115,14 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="24" t="s">
-        <v>32</v>
+    <row r="16" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A16" s="25" t="s">
+        <v>31</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="4"/>
       <c r="G16" s="10"/>
       <c r="H16" s="4"/>
@@ -1110,14 +1140,14 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21" t="s">
-        <v>33</v>
+    <row r="17" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>32</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1135,21 +1165,21 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="15.75" customHeight="1">
       <c r="A18" s="5">
         <v>4.0999999999999996</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1168,21 +1198,21 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="42" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="42">
       <c r="A19" s="5">
         <v>4.2</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1201,14 +1231,14 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21" t="s">
-        <v>37</v>
+    <row r="20" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>36</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1226,21 +1256,21 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="42" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="42">
       <c r="A21" s="5">
         <v>4.3</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1259,21 +1289,21 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1">
       <c r="A22" s="5">
         <v>4.5</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="E22" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1292,14 +1322,14 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="24" t="s">
-        <v>39</v>
+    <row r="23" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A23" s="25" t="s">
+        <v>38</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="4"/>
       <c r="G23" s="10"/>
       <c r="H23" s="4"/>
@@ -1317,21 +1347,21 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="84" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="84">
       <c r="A24" s="5">
         <v>5.0999999999999996</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1350,21 +1380,21 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="70" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="70">
       <c r="A25" s="5">
         <v>5.2</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1383,14 +1413,14 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="24" t="s">
-        <v>45</v>
+    <row r="26" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A26" s="25" t="s">
+        <v>44</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1408,21 +1438,21 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="42" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="42">
       <c r="A27" s="5">
         <v>6.1</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -1441,21 +1471,21 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="42" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="42">
       <c r="A28" s="5">
         <v>6.2</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1474,14 +1504,14 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="24" t="s">
-        <v>50</v>
+    <row r="29" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A29" s="25" t="s">
+        <v>49</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1499,12 +1529,12 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1">
       <c r="A30" s="5">
         <v>7.1</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>7</v>
@@ -1513,7 +1543,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="19"/>
@@ -1532,7 +1562,7 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="20"/>
@@ -1555,7 +1585,7 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="20"/>
@@ -1578,7 +1608,7 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="20"/>
@@ -1601,7 +1631,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="15.75" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="20"/>
@@ -1624,7 +1654,7 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="20"/>
@@ -1647,7 +1677,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="15.75" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="20"/>
@@ -1670,7 +1700,7 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="20"/>
@@ -1693,7 +1723,7 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="15.75" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="20"/>
@@ -1716,7 +1746,7 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="20"/>
@@ -1739,7 +1769,7 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="15.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="20"/>
@@ -1762,7 +1792,7 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="15.75" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="20"/>
@@ -1785,7 +1815,7 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="15.75" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="20"/>
@@ -1808,7 +1838,7 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="20"/>
@@ -1831,7 +1861,7 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="15.75" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="20"/>
@@ -1854,7 +1884,7 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="20"/>
@@ -1877,7 +1907,7 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="15.75" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="20"/>
@@ -1900,7 +1930,7 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="15.75" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="20"/>
@@ -1923,7 +1953,7 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="15.75" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="20"/>
@@ -1946,7 +1976,7 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="15.75" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="20"/>
@@ -1969,7 +1999,7 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="15.75" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="20"/>
@@ -1992,7 +2022,7 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="15.75" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="20"/>
@@ -2015,7 +2045,7 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="15.75" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="20"/>
@@ -2038,7 +2068,7 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="15.75" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="20"/>
@@ -2061,7 +2091,7 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="13">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="20"/>
@@ -2084,7 +2114,7 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="13">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="20"/>
@@ -2107,7 +2137,7 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="13">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="20"/>
@@ -2130,7 +2160,7 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="13">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="20"/>
@@ -2153,7 +2183,7 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="13">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="20"/>
@@ -2176,7 +2206,7 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="13">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="20"/>
@@ -2199,7 +2229,7 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="13">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="20"/>
@@ -2222,7 +2252,7 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="13">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="20"/>
@@ -2245,7 +2275,7 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="13">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="20"/>
@@ -2268,7 +2298,7 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="13">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="20"/>
@@ -2291,7 +2321,7 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="13">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="20"/>
@@ -2314,7 +2344,7 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="13">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="20"/>
@@ -2337,7 +2367,7 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="13">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="20"/>
@@ -2360,7 +2390,7 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="13">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="20"/>
@@ -2383,7 +2413,7 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="13">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="20"/>
@@ -2406,7 +2436,7 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="13">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="20"/>
@@ -2429,7 +2459,7 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="13">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="20"/>
@@ -2452,7 +2482,7 @@
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
     </row>
-    <row r="71" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="13">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="20"/>
@@ -2475,7 +2505,7 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="72" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="13">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="20"/>
@@ -2498,7 +2528,7 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
     </row>
-    <row r="73" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="13">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="20"/>
@@ -2521,7 +2551,7 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
     </row>
-    <row r="74" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="13">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="20"/>
@@ -2544,7 +2574,7 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
     </row>
-    <row r="75" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="13">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="20"/>
@@ -2567,7 +2597,7 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="13">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="20"/>
@@ -2590,7 +2620,7 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="13">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="20"/>
@@ -2613,7 +2643,7 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="13">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="20"/>
@@ -2636,7 +2666,7 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="13">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="20"/>
@@ -2659,7 +2689,7 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="13">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="20"/>
@@ -2682,7 +2712,7 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="13">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="20"/>
@@ -2705,7 +2735,7 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="13">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="20"/>
@@ -2728,7 +2758,7 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="13">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="20"/>
@@ -2751,7 +2781,7 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="13">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="20"/>
@@ -2774,7 +2804,7 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
     </row>
-    <row r="85" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="13">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="20"/>
@@ -2797,7 +2827,7 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" ht="13">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="20"/>
@@ -2820,7 +2850,7 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" ht="13">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="20"/>
@@ -2843,7 +2873,7 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" ht="13">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="20"/>
@@ -2866,7 +2896,7 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" ht="13">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="20"/>
@@ -2889,7 +2919,7 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" ht="13">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="20"/>
@@ -2912,7 +2942,7 @@
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
     </row>
-    <row r="91" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" ht="13">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="20"/>
@@ -2935,7 +2965,7 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="92" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" ht="13">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="20"/>
@@ -2958,7 +2988,7 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" ht="13">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="20"/>
@@ -2981,7 +3011,7 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" ht="13">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="20"/>
@@ -3004,7 +3034,7 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" ht="13">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="20"/>
@@ -3027,7 +3057,7 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" ht="13">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="20"/>
@@ -3050,7 +3080,7 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" ht="13">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="20"/>
@@ -3073,7 +3103,7 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" ht="13">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="20"/>
@@ -3096,7 +3126,7 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" ht="13">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="20"/>
@@ -3119,7 +3149,7 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" ht="13">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="20"/>
@@ -3142,7 +3172,7 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" ht="13">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="20"/>
@@ -3165,7 +3195,7 @@
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" ht="13">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="20"/>
@@ -3188,7 +3218,7 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" ht="13">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="20"/>
@@ -3211,7 +3241,7 @@
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" ht="13">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="20"/>
@@ -3234,7 +3264,7 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" ht="13">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="20"/>
@@ -3257,7 +3287,7 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" ht="13">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="20"/>
@@ -3280,7 +3310,7 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" ht="13">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="20"/>
@@ -3303,7 +3333,7 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" ht="13">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="20"/>
@@ -3326,7 +3356,7 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" ht="13">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="20"/>
@@ -3349,7 +3379,7 @@
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" ht="13">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="20"/>
@@ -3372,7 +3402,7 @@
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" ht="13">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="20"/>
@@ -3395,7 +3425,7 @@
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" ht="13">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="20"/>
@@ -3418,7 +3448,7 @@
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" ht="13">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="20"/>
@@ -3441,7 +3471,7 @@
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" ht="13">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="20"/>
@@ -3464,7 +3494,7 @@
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" ht="13">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="20"/>
@@ -3487,7 +3517,7 @@
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" ht="13">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="20"/>
@@ -3510,7 +3540,7 @@
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" ht="13">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="20"/>
@@ -3533,7 +3563,7 @@
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" ht="13">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="20"/>
@@ -3556,7 +3586,7 @@
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" ht="13">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="20"/>
@@ -3579,7 +3609,7 @@
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" ht="13">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="20"/>
@@ -3602,7 +3632,7 @@
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" ht="13">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="20"/>
@@ -3625,7 +3655,7 @@
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" ht="13">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="20"/>
@@ -3648,7 +3678,7 @@
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" ht="13">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="20"/>
@@ -3671,7 +3701,7 @@
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" ht="13">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="20"/>
@@ -3694,7 +3724,7 @@
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" ht="13">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="20"/>
@@ -3717,7 +3747,7 @@
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" ht="13">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="20"/>
@@ -3740,7 +3770,7 @@
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" ht="13">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="20"/>
@@ -3763,7 +3793,7 @@
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" ht="13">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="20"/>
@@ -3786,7 +3816,7 @@
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" ht="13">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="20"/>
@@ -3809,7 +3839,7 @@
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" ht="13">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="20"/>
@@ -3832,7 +3862,7 @@
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" ht="13">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="20"/>
@@ -3855,7 +3885,7 @@
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" ht="13">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="20"/>
@@ -3878,7 +3908,7 @@
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" ht="13">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="20"/>
@@ -3901,7 +3931,7 @@
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" ht="13">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="20"/>
@@ -3924,7 +3954,7 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" ht="13">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="20"/>
@@ -3947,7 +3977,7 @@
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
     </row>
-    <row r="136" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21" ht="13">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="20"/>
@@ -3970,7 +4000,7 @@
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21" ht="13">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="20"/>
@@ -3993,7 +4023,7 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
     </row>
-    <row r="138" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21" ht="13">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="20"/>
@@ -4016,7 +4046,7 @@
       <c r="T138" s="4"/>
       <c r="U138" s="4"/>
     </row>
-    <row r="139" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21" ht="13">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="20"/>
@@ -4039,7 +4069,7 @@
       <c r="T139" s="4"/>
       <c r="U139" s="4"/>
     </row>
-    <row r="140" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21" ht="13">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="20"/>
@@ -4062,7 +4092,7 @@
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
     </row>
-    <row r="141" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21" ht="13">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="20"/>
@@ -4085,7 +4115,7 @@
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
     </row>
-    <row r="142" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21" ht="13">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="20"/>
@@ -4108,7 +4138,7 @@
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
     </row>
-    <row r="143" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21" ht="13">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="20"/>
@@ -4131,7 +4161,7 @@
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
     </row>
-    <row r="144" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21" ht="13">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="20"/>
@@ -4154,7 +4184,7 @@
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
     </row>
-    <row r="145" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21" ht="13">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="20"/>
@@ -4177,7 +4207,7 @@
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
     </row>
-    <row r="146" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21" ht="13">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="20"/>
@@ -4200,7 +4230,7 @@
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
     </row>
-    <row r="147" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21" ht="13">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="20"/>
@@ -4223,7 +4253,7 @@
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
     </row>
-    <row r="148" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21" ht="13">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="20"/>
@@ -4246,7 +4276,7 @@
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
     </row>
-    <row r="149" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21" ht="13">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="20"/>
@@ -4269,7 +4299,7 @@
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
     </row>
-    <row r="150" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21" ht="13">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="20"/>
@@ -4292,7 +4322,7 @@
       <c r="T150" s="4"/>
       <c r="U150" s="4"/>
     </row>
-    <row r="151" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21" ht="13">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="20"/>
@@ -4315,7 +4345,7 @@
       <c r="T151" s="4"/>
       <c r="U151" s="4"/>
     </row>
-    <row r="152" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21" ht="13">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="20"/>
@@ -4338,7 +4368,7 @@
       <c r="T152" s="4"/>
       <c r="U152" s="4"/>
     </row>
-    <row r="153" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21" ht="13">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="20"/>
@@ -4361,7 +4391,7 @@
       <c r="T153" s="4"/>
       <c r="U153" s="4"/>
     </row>
-    <row r="154" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21" ht="13">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="20"/>
@@ -4384,7 +4414,7 @@
       <c r="T154" s="4"/>
       <c r="U154" s="4"/>
     </row>
-    <row r="155" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21" ht="13">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="20"/>
@@ -4407,7 +4437,7 @@
       <c r="T155" s="4"/>
       <c r="U155" s="4"/>
     </row>
-    <row r="156" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21" ht="13">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="20"/>
@@ -4430,7 +4460,7 @@
       <c r="T156" s="4"/>
       <c r="U156" s="4"/>
     </row>
-    <row r="157" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21" ht="13">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="20"/>
@@ -4453,7 +4483,7 @@
       <c r="T157" s="4"/>
       <c r="U157" s="4"/>
     </row>
-    <row r="158" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21" ht="13">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="20"/>
@@ -4476,7 +4506,7 @@
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
     </row>
-    <row r="159" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21" ht="13">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="20"/>
@@ -4499,7 +4529,7 @@
       <c r="T159" s="4"/>
       <c r="U159" s="4"/>
     </row>
-    <row r="160" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21" ht="13">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="20"/>
@@ -4522,7 +4552,7 @@
       <c r="T160" s="4"/>
       <c r="U160" s="4"/>
     </row>
-    <row r="161" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21" ht="13">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="20"/>
@@ -4545,7 +4575,7 @@
       <c r="T161" s="4"/>
       <c r="U161" s="4"/>
     </row>
-    <row r="162" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21" ht="13">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="20"/>
@@ -4568,7 +4598,7 @@
       <c r="T162" s="4"/>
       <c r="U162" s="4"/>
     </row>
-    <row r="163" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21" ht="13">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="20"/>
@@ -4591,7 +4621,7 @@
       <c r="T163" s="4"/>
       <c r="U163" s="4"/>
     </row>
-    <row r="164" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21" ht="13">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="20"/>
@@ -4614,7 +4644,7 @@
       <c r="T164" s="4"/>
       <c r="U164" s="4"/>
     </row>
-    <row r="165" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21" ht="13">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="20"/>
@@ -4637,7 +4667,7 @@
       <c r="T165" s="4"/>
       <c r="U165" s="4"/>
     </row>
-    <row r="166" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21" ht="13">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="20"/>
@@ -4660,7 +4690,7 @@
       <c r="T166" s="4"/>
       <c r="U166" s="4"/>
     </row>
-    <row r="167" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21" ht="13">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="20"/>
@@ -4683,7 +4713,7 @@
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
     </row>
-    <row r="168" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21" ht="13">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="20"/>
@@ -4706,7 +4736,7 @@
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
     </row>
-    <row r="169" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21" ht="13">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="20"/>
@@ -4729,7 +4759,7 @@
       <c r="T169" s="4"/>
       <c r="U169" s="4"/>
     </row>
-    <row r="170" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:21" ht="13">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="20"/>
@@ -4752,7 +4782,7 @@
       <c r="T170" s="4"/>
       <c r="U170" s="4"/>
     </row>
-    <row r="171" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:21" ht="13">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="20"/>
@@ -4775,7 +4805,7 @@
       <c r="T171" s="4"/>
       <c r="U171" s="4"/>
     </row>
-    <row r="172" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:21" ht="13">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="20"/>
@@ -4798,7 +4828,7 @@
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
     </row>
-    <row r="173" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:21" ht="13">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="20"/>
@@ -4821,7 +4851,7 @@
       <c r="T173" s="4"/>
       <c r="U173" s="4"/>
     </row>
-    <row r="174" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:21" ht="13">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="20"/>
@@ -4844,7 +4874,7 @@
       <c r="T174" s="4"/>
       <c r="U174" s="4"/>
     </row>
-    <row r="175" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:21" ht="13">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="20"/>
@@ -4867,7 +4897,7 @@
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
     </row>
-    <row r="176" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:21" ht="13">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="20"/>
@@ -4890,7 +4920,7 @@
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
     </row>
-    <row r="177" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:21" ht="13">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="20"/>
@@ -4913,7 +4943,7 @@
       <c r="T177" s="4"/>
       <c r="U177" s="4"/>
     </row>
-    <row r="178" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:21" ht="13">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="20"/>
@@ -4936,7 +4966,7 @@
       <c r="T178" s="4"/>
       <c r="U178" s="4"/>
     </row>
-    <row r="179" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:21" ht="13">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="20"/>
@@ -4959,7 +4989,7 @@
       <c r="T179" s="4"/>
       <c r="U179" s="4"/>
     </row>
-    <row r="180" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:21" ht="13">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="20"/>
@@ -4982,7 +5012,7 @@
       <c r="T180" s="4"/>
       <c r="U180" s="4"/>
     </row>
-    <row r="181" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:21" ht="13">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="20"/>
@@ -5005,7 +5035,7 @@
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
     </row>
-    <row r="182" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:21" ht="13">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="20"/>
@@ -5028,7 +5058,7 @@
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
     </row>
-    <row r="183" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:21" ht="13">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="20"/>
@@ -5051,7 +5081,7 @@
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
     </row>
-    <row r="184" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:21" ht="13">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="20"/>
@@ -5074,7 +5104,7 @@
       <c r="T184" s="4"/>
       <c r="U184" s="4"/>
     </row>
-    <row r="185" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:21" ht="13">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="20"/>
@@ -5097,7 +5127,7 @@
       <c r="T185" s="4"/>
       <c r="U185" s="4"/>
     </row>
-    <row r="186" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:21" ht="13">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="20"/>
@@ -5120,7 +5150,7 @@
       <c r="T186" s="4"/>
       <c r="U186" s="4"/>
     </row>
-    <row r="187" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:21" ht="13">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="20"/>
@@ -5143,7 +5173,7 @@
       <c r="T187" s="4"/>
       <c r="U187" s="4"/>
     </row>
-    <row r="188" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:21" ht="13">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="20"/>
@@ -5166,7 +5196,7 @@
       <c r="T188" s="4"/>
       <c r="U188" s="4"/>
     </row>
-    <row r="189" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:21" ht="13">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="20"/>
@@ -5189,7 +5219,7 @@
       <c r="T189" s="4"/>
       <c r="U189" s="4"/>
     </row>
-    <row r="190" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:21" ht="13">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="20"/>
@@ -5212,7 +5242,7 @@
       <c r="T190" s="4"/>
       <c r="U190" s="4"/>
     </row>
-    <row r="191" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:21" ht="13">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="20"/>
@@ -5235,7 +5265,7 @@
       <c r="T191" s="4"/>
       <c r="U191" s="4"/>
     </row>
-    <row r="192" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:21" ht="13">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="20"/>
@@ -5258,7 +5288,7 @@
       <c r="T192" s="4"/>
       <c r="U192" s="4"/>
     </row>
-    <row r="193" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:21" ht="13">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="20"/>
@@ -5281,7 +5311,7 @@
       <c r="T193" s="4"/>
       <c r="U193" s="4"/>
     </row>
-    <row r="194" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:21" ht="13">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="20"/>
@@ -5304,7 +5334,7 @@
       <c r="T194" s="4"/>
       <c r="U194" s="4"/>
     </row>
-    <row r="195" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:21" ht="13">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="20"/>
@@ -5327,7 +5357,7 @@
       <c r="T195" s="4"/>
       <c r="U195" s="4"/>
     </row>
-    <row r="196" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:21" ht="13">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="20"/>
@@ -5350,7 +5380,7 @@
       <c r="T196" s="4"/>
       <c r="U196" s="4"/>
     </row>
-    <row r="197" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:21" ht="13">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="20"/>
@@ -5373,7 +5403,7 @@
       <c r="T197" s="4"/>
       <c r="U197" s="4"/>
     </row>
-    <row r="198" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:21" ht="13">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="20"/>
@@ -5396,7 +5426,7 @@
       <c r="T198" s="4"/>
       <c r="U198" s="4"/>
     </row>
-    <row r="199" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:21" ht="13">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="20"/>
@@ -5419,7 +5449,7 @@
       <c r="T199" s="4"/>
       <c r="U199" s="4"/>
     </row>
-    <row r="200" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:21" ht="13">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="20"/>
@@ -5442,7 +5472,7 @@
       <c r="T200" s="4"/>
       <c r="U200" s="4"/>
     </row>
-    <row r="201" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:21" ht="13">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="20"/>
@@ -5465,7 +5495,7 @@
       <c r="T201" s="4"/>
       <c r="U201" s="4"/>
     </row>
-    <row r="202" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:21" ht="13">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="20"/>
@@ -5488,7 +5518,7 @@
       <c r="T202" s="4"/>
       <c r="U202" s="4"/>
     </row>
-    <row r="203" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:21" ht="13">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="20"/>
@@ -5511,7 +5541,7 @@
       <c r="T203" s="4"/>
       <c r="U203" s="4"/>
     </row>
-    <row r="204" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:21" ht="13">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="20"/>
@@ -5534,7 +5564,7 @@
       <c r="T204" s="4"/>
       <c r="U204" s="4"/>
     </row>
-    <row r="205" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:21" ht="13">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="20"/>
@@ -5557,7 +5587,7 @@
       <c r="T205" s="4"/>
       <c r="U205" s="4"/>
     </row>
-    <row r="206" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:21" ht="13">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="20"/>
@@ -5580,7 +5610,7 @@
       <c r="T206" s="4"/>
       <c r="U206" s="4"/>
     </row>
-    <row r="207" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:21" ht="13">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="20"/>
@@ -5603,7 +5633,7 @@
       <c r="T207" s="4"/>
       <c r="U207" s="4"/>
     </row>
-    <row r="208" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:21" ht="13">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="20"/>
@@ -5626,7 +5656,7 @@
       <c r="T208" s="4"/>
       <c r="U208" s="4"/>
     </row>
-    <row r="209" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:21" ht="13">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="20"/>
@@ -5649,7 +5679,7 @@
       <c r="T209" s="4"/>
       <c r="U209" s="4"/>
     </row>
-    <row r="210" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:21" ht="13">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="20"/>
@@ -5672,7 +5702,7 @@
       <c r="T210" s="4"/>
       <c r="U210" s="4"/>
     </row>
-    <row r="211" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:21" ht="13">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="20"/>
@@ -5695,7 +5725,7 @@
       <c r="T211" s="4"/>
       <c r="U211" s="4"/>
     </row>
-    <row r="212" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:21" ht="13">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="20"/>
@@ -5718,7 +5748,7 @@
       <c r="T212" s="4"/>
       <c r="U212" s="4"/>
     </row>
-    <row r="213" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:21" ht="13">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="20"/>
@@ -5741,7 +5771,7 @@
       <c r="T213" s="4"/>
       <c r="U213" s="4"/>
     </row>
-    <row r="214" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:21" ht="13">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="20"/>
@@ -5764,7 +5794,7 @@
       <c r="T214" s="4"/>
       <c r="U214" s="4"/>
     </row>
-    <row r="215" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:21" ht="13">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="20"/>
@@ -5787,7 +5817,7 @@
       <c r="T215" s="4"/>
       <c r="U215" s="4"/>
     </row>
-    <row r="216" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:21" ht="13">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="20"/>
@@ -5810,7 +5840,7 @@
       <c r="T216" s="4"/>
       <c r="U216" s="4"/>
     </row>
-    <row r="217" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:21" ht="13">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="20"/>
@@ -5833,7 +5863,7 @@
       <c r="T217" s="4"/>
       <c r="U217" s="4"/>
     </row>
-    <row r="218" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:21" ht="13">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="20"/>
@@ -5856,7 +5886,7 @@
       <c r="T218" s="4"/>
       <c r="U218" s="4"/>
     </row>
-    <row r="219" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:21" ht="13">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="20"/>
@@ -5879,7 +5909,7 @@
       <c r="T219" s="4"/>
       <c r="U219" s="4"/>
     </row>
-    <row r="220" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:21" ht="13">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="20"/>
@@ -5902,7 +5932,7 @@
       <c r="T220" s="4"/>
       <c r="U220" s="4"/>
     </row>
-    <row r="221" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:21" ht="13">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="20"/>
@@ -5925,7 +5955,7 @@
       <c r="T221" s="4"/>
       <c r="U221" s="4"/>
     </row>
-    <row r="222" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:21" ht="13">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="20"/>
@@ -5948,7 +5978,7 @@
       <c r="T222" s="4"/>
       <c r="U222" s="4"/>
     </row>
-    <row r="223" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:21" ht="13">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="20"/>
@@ -5971,7 +6001,7 @@
       <c r="T223" s="4"/>
       <c r="U223" s="4"/>
     </row>
-    <row r="224" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:21" ht="13">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="20"/>
@@ -5994,7 +6024,7 @@
       <c r="T224" s="4"/>
       <c r="U224" s="4"/>
     </row>
-    <row r="225" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:21" ht="13">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="20"/>
@@ -6017,7 +6047,7 @@
       <c r="T225" s="4"/>
       <c r="U225" s="4"/>
     </row>
-    <row r="226" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:21" ht="13">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="20"/>
@@ -6040,7 +6070,7 @@
       <c r="T226" s="4"/>
       <c r="U226" s="4"/>
     </row>
-    <row r="227" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:21" ht="13">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="20"/>
@@ -6063,7 +6093,7 @@
       <c r="T227" s="4"/>
       <c r="U227" s="4"/>
     </row>
-    <row r="228" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:21" ht="13">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="20"/>
@@ -6086,7 +6116,7 @@
       <c r="T228" s="4"/>
       <c r="U228" s="4"/>
     </row>
-    <row r="229" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:21" ht="13">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="20"/>
@@ -6109,7 +6139,7 @@
       <c r="T229" s="4"/>
       <c r="U229" s="4"/>
     </row>
-    <row r="230" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:21" ht="13">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="20"/>
@@ -6132,7 +6162,7 @@
       <c r="T230" s="4"/>
       <c r="U230" s="4"/>
     </row>
-    <row r="231" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:21" ht="13">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="20"/>
@@ -6155,7 +6185,7 @@
       <c r="T231" s="4"/>
       <c r="U231" s="4"/>
     </row>
-    <row r="232" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:21" ht="13">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="20"/>
@@ -6178,7 +6208,7 @@
       <c r="T232" s="4"/>
       <c r="U232" s="4"/>
     </row>
-    <row r="233" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:21" ht="13">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="20"/>
@@ -6201,7 +6231,7 @@
       <c r="T233" s="4"/>
       <c r="U233" s="4"/>
     </row>
-    <row r="234" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:21" ht="13">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="20"/>
@@ -6224,7 +6254,7 @@
       <c r="T234" s="4"/>
       <c r="U234" s="4"/>
     </row>
-    <row r="235" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:21" ht="13">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="20"/>
@@ -6247,7 +6277,7 @@
       <c r="T235" s="4"/>
       <c r="U235" s="4"/>
     </row>
-    <row r="236" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:21" ht="13">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="20"/>
@@ -6270,7 +6300,7 @@
       <c r="T236" s="4"/>
       <c r="U236" s="4"/>
     </row>
-    <row r="237" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:21" ht="13">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="20"/>
@@ -6293,7 +6323,7 @@
       <c r="T237" s="4"/>
       <c r="U237" s="4"/>
     </row>
-    <row r="238" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:21" ht="13">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="20"/>
@@ -6316,7 +6346,7 @@
       <c r="T238" s="4"/>
       <c r="U238" s="4"/>
     </row>
-    <row r="239" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:21" ht="13">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="20"/>
@@ -6339,7 +6369,7 @@
       <c r="T239" s="4"/>
       <c r="U239" s="4"/>
     </row>
-    <row r="240" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:21" ht="13">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="20"/>
@@ -6362,7 +6392,7 @@
       <c r="T240" s="4"/>
       <c r="U240" s="4"/>
     </row>
-    <row r="241" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:21" ht="13">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="20"/>
@@ -6385,7 +6415,7 @@
       <c r="T241" s="4"/>
       <c r="U241" s="4"/>
     </row>
-    <row r="242" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:21" ht="13">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="20"/>
@@ -6408,7 +6438,7 @@
       <c r="T242" s="4"/>
       <c r="U242" s="4"/>
     </row>
-    <row r="243" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:21" ht="13">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="20"/>
@@ -6431,7 +6461,7 @@
       <c r="T243" s="4"/>
       <c r="U243" s="4"/>
     </row>
-    <row r="244" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:21" ht="13">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="20"/>
@@ -6454,7 +6484,7 @@
       <c r="T244" s="4"/>
       <c r="U244" s="4"/>
     </row>
-    <row r="245" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:21" ht="13">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="20"/>
@@ -6477,7 +6507,7 @@
       <c r="T245" s="4"/>
       <c r="U245" s="4"/>
     </row>
-    <row r="246" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:21" ht="13">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="20"/>
@@ -6500,7 +6530,7 @@
       <c r="T246" s="4"/>
       <c r="U246" s="4"/>
     </row>
-    <row r="247" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:21" ht="13">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="20"/>
@@ -6523,7 +6553,7 @@
       <c r="T247" s="4"/>
       <c r="U247" s="4"/>
     </row>
-    <row r="248" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:21" ht="13">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="20"/>
@@ -6546,7 +6576,7 @@
       <c r="T248" s="4"/>
       <c r="U248" s="4"/>
     </row>
-    <row r="249" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:21" ht="13">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="20"/>
@@ -6569,7 +6599,7 @@
       <c r="T249" s="4"/>
       <c r="U249" s="4"/>
     </row>
-    <row r="250" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:21" ht="13">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="20"/>
@@ -6592,7 +6622,7 @@
       <c r="T250" s="4"/>
       <c r="U250" s="4"/>
     </row>
-    <row r="251" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:21" ht="13">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="20"/>
@@ -6615,7 +6645,7 @@
       <c r="T251" s="4"/>
       <c r="U251" s="4"/>
     </row>
-    <row r="252" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:21" ht="13">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="20"/>
@@ -6638,7 +6668,7 @@
       <c r="T252" s="4"/>
       <c r="U252" s="4"/>
     </row>
-    <row r="253" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:21" ht="13">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="20"/>
@@ -6661,7 +6691,7 @@
       <c r="T253" s="4"/>
       <c r="U253" s="4"/>
     </row>
-    <row r="254" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:21" ht="13">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="20"/>
@@ -6684,7 +6714,7 @@
       <c r="T254" s="4"/>
       <c r="U254" s="4"/>
     </row>
-    <row r="255" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:21" ht="13">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="20"/>
@@ -6707,7 +6737,7 @@
       <c r="T255" s="4"/>
       <c r="U255" s="4"/>
     </row>
-    <row r="256" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:21" ht="13">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="20"/>
@@ -6730,7 +6760,7 @@
       <c r="T256" s="4"/>
       <c r="U256" s="4"/>
     </row>
-    <row r="257" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:21" ht="13">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="20"/>
@@ -6753,7 +6783,7 @@
       <c r="T257" s="4"/>
       <c r="U257" s="4"/>
     </row>
-    <row r="258" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:21" ht="13">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="20"/>
@@ -6776,7 +6806,7 @@
       <c r="T258" s="4"/>
       <c r="U258" s="4"/>
     </row>
-    <row r="259" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:21" ht="13">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="20"/>
@@ -6799,7 +6829,7 @@
       <c r="T259" s="4"/>
       <c r="U259" s="4"/>
     </row>
-    <row r="260" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:21" ht="13">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="20"/>
@@ -6822,7 +6852,7 @@
       <c r="T260" s="4"/>
       <c r="U260" s="4"/>
     </row>
-    <row r="261" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:21" ht="13">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="20"/>
@@ -6845,7 +6875,7 @@
       <c r="T261" s="4"/>
       <c r="U261" s="4"/>
     </row>
-    <row r="262" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:21" ht="13">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="20"/>
@@ -6868,7 +6898,7 @@
       <c r="T262" s="4"/>
       <c r="U262" s="4"/>
     </row>
-    <row r="263" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:21" ht="13">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="20"/>
@@ -6891,7 +6921,7 @@
       <c r="T263" s="4"/>
       <c r="U263" s="4"/>
     </row>
-    <row r="264" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:21" ht="13">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="20"/>
@@ -6914,7 +6944,7 @@
       <c r="T264" s="4"/>
       <c r="U264" s="4"/>
     </row>
-    <row r="265" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:21" ht="13">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="20"/>
@@ -6937,7 +6967,7 @@
       <c r="T265" s="4"/>
       <c r="U265" s="4"/>
     </row>
-    <row r="266" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:21" ht="13">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="20"/>
@@ -6960,7 +6990,7 @@
       <c r="T266" s="4"/>
       <c r="U266" s="4"/>
     </row>
-    <row r="267" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:21" ht="13">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="20"/>
@@ -6983,7 +7013,7 @@
       <c r="T267" s="4"/>
       <c r="U267" s="4"/>
     </row>
-    <row r="268" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:21" ht="13">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="20"/>
@@ -7006,7 +7036,7 @@
       <c r="T268" s="4"/>
       <c r="U268" s="4"/>
     </row>
-    <row r="269" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:21" ht="13">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="20"/>
@@ -7029,7 +7059,7 @@
       <c r="T269" s="4"/>
       <c r="U269" s="4"/>
     </row>
-    <row r="270" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:21" ht="13">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="20"/>
@@ -7052,7 +7082,7 @@
       <c r="T270" s="4"/>
       <c r="U270" s="4"/>
     </row>
-    <row r="271" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:21" ht="13">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="20"/>
@@ -7075,7 +7105,7 @@
       <c r="T271" s="4"/>
       <c r="U271" s="4"/>
     </row>
-    <row r="272" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:21" ht="13">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="20"/>
@@ -7098,7 +7128,7 @@
       <c r="T272" s="4"/>
       <c r="U272" s="4"/>
     </row>
-    <row r="273" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:21" ht="13">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="20"/>
@@ -7121,7 +7151,7 @@
       <c r="T273" s="4"/>
       <c r="U273" s="4"/>
     </row>
-    <row r="274" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:21" ht="13">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="20"/>
@@ -7144,7 +7174,7 @@
       <c r="T274" s="4"/>
       <c r="U274" s="4"/>
     </row>
-    <row r="275" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:21" ht="13">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="20"/>
@@ -7167,7 +7197,7 @@
       <c r="T275" s="4"/>
       <c r="U275" s="4"/>
     </row>
-    <row r="276" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:21" ht="13">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="20"/>
@@ -7190,7 +7220,7 @@
       <c r="T276" s="4"/>
       <c r="U276" s="4"/>
     </row>
-    <row r="277" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:21" ht="13">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="20"/>
@@ -7213,7 +7243,7 @@
       <c r="T277" s="4"/>
       <c r="U277" s="4"/>
     </row>
-    <row r="278" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:21" ht="13">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="20"/>
@@ -7236,7 +7266,7 @@
       <c r="T278" s="4"/>
       <c r="U278" s="4"/>
     </row>
-    <row r="279" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:21" ht="13">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="20"/>
@@ -7259,7 +7289,7 @@
       <c r="T279" s="4"/>
       <c r="U279" s="4"/>
     </row>
-    <row r="280" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:21" ht="13">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="20"/>
@@ -7282,7 +7312,7 @@
       <c r="T280" s="4"/>
       <c r="U280" s="4"/>
     </row>
-    <row r="281" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:21" ht="13">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="20"/>
@@ -7305,7 +7335,7 @@
       <c r="T281" s="4"/>
       <c r="U281" s="4"/>
     </row>
-    <row r="282" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:21" ht="13">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="20"/>
@@ -7328,7 +7358,7 @@
       <c r="T282" s="4"/>
       <c r="U282" s="4"/>
     </row>
-    <row r="283" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:21" ht="13">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="20"/>
@@ -7351,7 +7381,7 @@
       <c r="T283" s="4"/>
       <c r="U283" s="4"/>
     </row>
-    <row r="284" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:21" ht="13">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="20"/>
@@ -7374,7 +7404,7 @@
       <c r="T284" s="4"/>
       <c r="U284" s="4"/>
     </row>
-    <row r="285" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:21" ht="13">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="20"/>
@@ -7397,7 +7427,7 @@
       <c r="T285" s="4"/>
       <c r="U285" s="4"/>
     </row>
-    <row r="286" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:21" ht="13">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="20"/>
@@ -7420,7 +7450,7 @@
       <c r="T286" s="4"/>
       <c r="U286" s="4"/>
     </row>
-    <row r="287" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:21" ht="13">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="20"/>
@@ -7443,7 +7473,7 @@
       <c r="T287" s="4"/>
       <c r="U287" s="4"/>
     </row>
-    <row r="288" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:21" ht="13">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="20"/>
@@ -7466,7 +7496,7 @@
       <c r="T288" s="4"/>
       <c r="U288" s="4"/>
     </row>
-    <row r="289" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:21" ht="13">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="20"/>
@@ -7489,7 +7519,7 @@
       <c r="T289" s="4"/>
       <c r="U289" s="4"/>
     </row>
-    <row r="290" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:21" ht="13">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="20"/>
@@ -7512,7 +7542,7 @@
       <c r="T290" s="4"/>
       <c r="U290" s="4"/>
     </row>
-    <row r="291" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:21" ht="13">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="20"/>
@@ -7535,7 +7565,7 @@
       <c r="T291" s="4"/>
       <c r="U291" s="4"/>
     </row>
-    <row r="292" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:21" ht="13">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="20"/>
@@ -7558,7 +7588,7 @@
       <c r="T292" s="4"/>
       <c r="U292" s="4"/>
     </row>
-    <row r="293" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:21" ht="13">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="20"/>
@@ -7581,7 +7611,7 @@
       <c r="T293" s="4"/>
       <c r="U293" s="4"/>
     </row>
-    <row r="294" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:21" ht="13">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="20"/>
@@ -7604,7 +7634,7 @@
       <c r="T294" s="4"/>
       <c r="U294" s="4"/>
     </row>
-    <row r="295" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:21" ht="13">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="20"/>
@@ -7627,7 +7657,7 @@
       <c r="T295" s="4"/>
       <c r="U295" s="4"/>
     </row>
-    <row r="296" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:21" ht="13">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="20"/>
@@ -7650,7 +7680,7 @@
       <c r="T296" s="4"/>
       <c r="U296" s="4"/>
     </row>
-    <row r="297" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:21" ht="13">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="20"/>
@@ -7673,7 +7703,7 @@
       <c r="T297" s="4"/>
       <c r="U297" s="4"/>
     </row>
-    <row r="298" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:21" ht="13">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="20"/>
@@ -7696,7 +7726,7 @@
       <c r="T298" s="4"/>
       <c r="U298" s="4"/>
     </row>
-    <row r="299" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:21" ht="13">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="20"/>
@@ -7719,7 +7749,7 @@
       <c r="T299" s="4"/>
       <c r="U299" s="4"/>
     </row>
-    <row r="300" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:21" ht="13">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="20"/>
@@ -7742,7 +7772,7 @@
       <c r="T300" s="4"/>
       <c r="U300" s="4"/>
     </row>
-    <row r="301" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:21" ht="13">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="20"/>
@@ -7765,7 +7795,7 @@
       <c r="T301" s="4"/>
       <c r="U301" s="4"/>
     </row>
-    <row r="302" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:21" ht="13">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="20"/>
@@ -7788,7 +7818,7 @@
       <c r="T302" s="4"/>
       <c r="U302" s="4"/>
     </row>
-    <row r="303" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:21" ht="13">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="20"/>
@@ -7811,7 +7841,7 @@
       <c r="T303" s="4"/>
       <c r="U303" s="4"/>
     </row>
-    <row r="304" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:21" ht="13">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="20"/>
@@ -7834,7 +7864,7 @@
       <c r="T304" s="4"/>
       <c r="U304" s="4"/>
     </row>
-    <row r="305" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:21" ht="13">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="20"/>
@@ -7857,7 +7887,7 @@
       <c r="T305" s="4"/>
       <c r="U305" s="4"/>
     </row>
-    <row r="306" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:21" ht="13">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="20"/>
@@ -7880,7 +7910,7 @@
       <c r="T306" s="4"/>
       <c r="U306" s="4"/>
     </row>
-    <row r="307" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:21" ht="13">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="20"/>
@@ -7903,7 +7933,7 @@
       <c r="T307" s="4"/>
       <c r="U307" s="4"/>
     </row>
-    <row r="308" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:21" ht="13">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="20"/>
@@ -7926,7 +7956,7 @@
       <c r="T308" s="4"/>
       <c r="U308" s="4"/>
     </row>
-    <row r="309" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:21" ht="13">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="20"/>
@@ -7949,7 +7979,7 @@
       <c r="T309" s="4"/>
       <c r="U309" s="4"/>
     </row>
-    <row r="310" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:21" ht="13">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="20"/>
@@ -7972,7 +8002,7 @@
       <c r="T310" s="4"/>
       <c r="U310" s="4"/>
     </row>
-    <row r="311" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:21" ht="13">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="20"/>
@@ -7995,7 +8025,7 @@
       <c r="T311" s="4"/>
       <c r="U311" s="4"/>
     </row>
-    <row r="312" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:21" ht="13">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="20"/>
@@ -8018,7 +8048,7 @@
       <c r="T312" s="4"/>
       <c r="U312" s="4"/>
     </row>
-    <row r="313" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:21" ht="13">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="20"/>
@@ -8041,7 +8071,7 @@
       <c r="T313" s="4"/>
       <c r="U313" s="4"/>
     </row>
-    <row r="314" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:21" ht="13">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="20"/>
@@ -8064,7 +8094,7 @@
       <c r="T314" s="4"/>
       <c r="U314" s="4"/>
     </row>
-    <row r="315" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:21" ht="13">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="20"/>
@@ -8087,7 +8117,7 @@
       <c r="T315" s="4"/>
       <c r="U315" s="4"/>
     </row>
-    <row r="316" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:21" ht="13">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="20"/>
@@ -8110,7 +8140,7 @@
       <c r="T316" s="4"/>
       <c r="U316" s="4"/>
     </row>
-    <row r="317" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:21" ht="13">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="20"/>
@@ -8133,7 +8163,7 @@
       <c r="T317" s="4"/>
       <c r="U317" s="4"/>
     </row>
-    <row r="318" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:21" ht="13">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="20"/>
@@ -8156,7 +8186,7 @@
       <c r="T318" s="4"/>
       <c r="U318" s="4"/>
     </row>
-    <row r="319" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:21" ht="13">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="20"/>
@@ -8179,7 +8209,7 @@
       <c r="T319" s="4"/>
       <c r="U319" s="4"/>
     </row>
-    <row r="320" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:21" ht="13">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="20"/>
@@ -8202,7 +8232,7 @@
       <c r="T320" s="4"/>
       <c r="U320" s="4"/>
     </row>
-    <row r="321" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:21" ht="13">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="20"/>
@@ -8225,7 +8255,7 @@
       <c r="T321" s="4"/>
       <c r="U321" s="4"/>
     </row>
-    <row r="322" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:21" ht="13">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="20"/>
@@ -8248,7 +8278,7 @@
       <c r="T322" s="4"/>
       <c r="U322" s="4"/>
     </row>
-    <row r="323" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:21" ht="13">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="20"/>
@@ -8271,7 +8301,7 @@
       <c r="T323" s="4"/>
       <c r="U323" s="4"/>
     </row>
-    <row r="324" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:21" ht="13">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="20"/>
@@ -8294,7 +8324,7 @@
       <c r="T324" s="4"/>
       <c r="U324" s="4"/>
     </row>
-    <row r="325" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:21" ht="13">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="20"/>
@@ -8317,7 +8347,7 @@
       <c r="T325" s="4"/>
       <c r="U325" s="4"/>
     </row>
-    <row r="326" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:21" ht="13">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="20"/>
@@ -8340,7 +8370,7 @@
       <c r="T326" s="4"/>
       <c r="U326" s="4"/>
     </row>
-    <row r="327" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:21" ht="13">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="20"/>
@@ -8363,7 +8393,7 @@
       <c r="T327" s="4"/>
       <c r="U327" s="4"/>
     </row>
-    <row r="328" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:21" ht="13">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="20"/>
@@ -8386,7 +8416,7 @@
       <c r="T328" s="4"/>
       <c r="U328" s="4"/>
     </row>
-    <row r="329" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:21" ht="13">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="20"/>
@@ -8409,7 +8439,7 @@
       <c r="T329" s="4"/>
       <c r="U329" s="4"/>
     </row>
-    <row r="330" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:21" ht="13">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="20"/>
@@ -8432,7 +8462,7 @@
       <c r="T330" s="4"/>
       <c r="U330" s="4"/>
     </row>
-    <row r="331" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:21" ht="13">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="20"/>
@@ -8455,7 +8485,7 @@
       <c r="T331" s="4"/>
       <c r="U331" s="4"/>
     </row>
-    <row r="332" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:21" ht="13">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="20"/>
@@ -8478,7 +8508,7 @@
       <c r="T332" s="4"/>
       <c r="U332" s="4"/>
     </row>
-    <row r="333" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:21" ht="13">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="20"/>
@@ -8501,7 +8531,7 @@
       <c r="T333" s="4"/>
       <c r="U333" s="4"/>
     </row>
-    <row r="334" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:21" ht="13">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="20"/>
@@ -8524,7 +8554,7 @@
       <c r="T334" s="4"/>
       <c r="U334" s="4"/>
     </row>
-    <row r="335" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:21" ht="13">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="20"/>
@@ -8547,7 +8577,7 @@
       <c r="T335" s="4"/>
       <c r="U335" s="4"/>
     </row>
-    <row r="336" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:21" ht="13">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="20"/>
@@ -8570,7 +8600,7 @@
       <c r="T336" s="4"/>
       <c r="U336" s="4"/>
     </row>
-    <row r="337" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:21" ht="13">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="20"/>
@@ -8593,7 +8623,7 @@
       <c r="T337" s="4"/>
       <c r="U337" s="4"/>
     </row>
-    <row r="338" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:21" ht="13">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="20"/>
@@ -8616,7 +8646,7 @@
       <c r="T338" s="4"/>
       <c r="U338" s="4"/>
     </row>
-    <row r="339" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:21" ht="13">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="20"/>
@@ -8639,7 +8669,7 @@
       <c r="T339" s="4"/>
       <c r="U339" s="4"/>
     </row>
-    <row r="340" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:21" ht="13">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="20"/>
@@ -8662,7 +8692,7 @@
       <c r="T340" s="4"/>
       <c r="U340" s="4"/>
     </row>
-    <row r="341" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:21" ht="13">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="20"/>
@@ -8685,7 +8715,7 @@
       <c r="T341" s="4"/>
       <c r="U341" s="4"/>
     </row>
-    <row r="342" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:21" ht="13">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="20"/>
@@ -8708,7 +8738,7 @@
       <c r="T342" s="4"/>
       <c r="U342" s="4"/>
     </row>
-    <row r="343" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:21" ht="13">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="20"/>
@@ -8731,7 +8761,7 @@
       <c r="T343" s="4"/>
       <c r="U343" s="4"/>
     </row>
-    <row r="344" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:21" ht="13">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="20"/>
@@ -8754,7 +8784,7 @@
       <c r="T344" s="4"/>
       <c r="U344" s="4"/>
     </row>
-    <row r="345" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:21" ht="13">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="20"/>
@@ -8777,7 +8807,7 @@
       <c r="T345" s="4"/>
       <c r="U345" s="4"/>
     </row>
-    <row r="346" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:21" ht="13">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="20"/>
@@ -8800,7 +8830,7 @@
       <c r="T346" s="4"/>
       <c r="U346" s="4"/>
     </row>
-    <row r="347" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:21" ht="13">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="20"/>
@@ -8823,7 +8853,7 @@
       <c r="T347" s="4"/>
       <c r="U347" s="4"/>
     </row>
-    <row r="348" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:21" ht="13">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="20"/>
@@ -8846,7 +8876,7 @@
       <c r="T348" s="4"/>
       <c r="U348" s="4"/>
     </row>
-    <row r="349" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:21" ht="13">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="20"/>
@@ -8869,7 +8899,7 @@
       <c r="T349" s="4"/>
       <c r="U349" s="4"/>
     </row>
-    <row r="350" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:21" ht="13">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="20"/>
@@ -8892,7 +8922,7 @@
       <c r="T350" s="4"/>
       <c r="U350" s="4"/>
     </row>
-    <row r="351" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:21" ht="13">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="20"/>
@@ -8915,7 +8945,7 @@
       <c r="T351" s="4"/>
       <c r="U351" s="4"/>
     </row>
-    <row r="352" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:21" ht="13">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="20"/>
@@ -8938,7 +8968,7 @@
       <c r="T352" s="4"/>
       <c r="U352" s="4"/>
     </row>
-    <row r="353" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:21" ht="13">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="20"/>
@@ -8961,7 +8991,7 @@
       <c r="T353" s="4"/>
       <c r="U353" s="4"/>
     </row>
-    <row r="354" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:21" ht="13">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="20"/>
@@ -8984,7 +9014,7 @@
       <c r="T354" s="4"/>
       <c r="U354" s="4"/>
     </row>
-    <row r="355" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:21" ht="13">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="20"/>
@@ -9007,7 +9037,7 @@
       <c r="T355" s="4"/>
       <c r="U355" s="4"/>
     </row>
-    <row r="356" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:21" ht="13">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="20"/>
@@ -9030,7 +9060,7 @@
       <c r="T356" s="4"/>
       <c r="U356" s="4"/>
     </row>
-    <row r="357" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:21" ht="13">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="20"/>
@@ -9053,7 +9083,7 @@
       <c r="T357" s="4"/>
       <c r="U357" s="4"/>
     </row>
-    <row r="358" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:21" ht="13">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="20"/>
@@ -9076,7 +9106,7 @@
       <c r="T358" s="4"/>
       <c r="U358" s="4"/>
     </row>
-    <row r="359" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:21" ht="13">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="20"/>
@@ -9099,7 +9129,7 @@
       <c r="T359" s="4"/>
       <c r="U359" s="4"/>
     </row>
-    <row r="360" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:21" ht="13">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="20"/>
@@ -9122,7 +9152,7 @@
       <c r="T360" s="4"/>
       <c r="U360" s="4"/>
     </row>
-    <row r="361" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:21" ht="13">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="20"/>
@@ -9145,7 +9175,7 @@
       <c r="T361" s="4"/>
       <c r="U361" s="4"/>
     </row>
-    <row r="362" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:21" ht="13">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="20"/>
@@ -9168,7 +9198,7 @@
       <c r="T362" s="4"/>
       <c r="U362" s="4"/>
     </row>
-    <row r="363" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:21" ht="13">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="20"/>
@@ -9191,7 +9221,7 @@
       <c r="T363" s="4"/>
       <c r="U363" s="4"/>
     </row>
-    <row r="364" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:21" ht="13">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="20"/>
@@ -9214,7 +9244,7 @@
       <c r="T364" s="4"/>
       <c r="U364" s="4"/>
     </row>
-    <row r="365" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:21" ht="13">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="20"/>
@@ -9237,7 +9267,7 @@
       <c r="T365" s="4"/>
       <c r="U365" s="4"/>
     </row>
-    <row r="366" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:21" ht="13">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="20"/>
@@ -9260,7 +9290,7 @@
       <c r="T366" s="4"/>
       <c r="U366" s="4"/>
     </row>
-    <row r="367" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:21" ht="13">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="20"/>
@@ -9283,7 +9313,7 @@
       <c r="T367" s="4"/>
       <c r="U367" s="4"/>
     </row>
-    <row r="368" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:21" ht="13">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="20"/>
@@ -9306,7 +9336,7 @@
       <c r="T368" s="4"/>
       <c r="U368" s="4"/>
     </row>
-    <row r="369" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:21" ht="13">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="20"/>
@@ -9329,7 +9359,7 @@
       <c r="T369" s="4"/>
       <c r="U369" s="4"/>
     </row>
-    <row r="370" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:21" ht="13">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="20"/>
@@ -9352,7 +9382,7 @@
       <c r="T370" s="4"/>
       <c r="U370" s="4"/>
     </row>
-    <row r="371" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:21" ht="13">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="20"/>
@@ -9375,7 +9405,7 @@
       <c r="T371" s="4"/>
       <c r="U371" s="4"/>
     </row>
-    <row r="372" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:21" ht="13">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="20"/>
@@ -9398,7 +9428,7 @@
       <c r="T372" s="4"/>
       <c r="U372" s="4"/>
     </row>
-    <row r="373" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:21" ht="13">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="20"/>
@@ -9421,7 +9451,7 @@
       <c r="T373" s="4"/>
       <c r="U373" s="4"/>
     </row>
-    <row r="374" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:21" ht="13">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="20"/>
@@ -9444,7 +9474,7 @@
       <c r="T374" s="4"/>
       <c r="U374" s="4"/>
     </row>
-    <row r="375" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:21" ht="13">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="20"/>
@@ -9467,7 +9497,7 @@
       <c r="T375" s="4"/>
       <c r="U375" s="4"/>
     </row>
-    <row r="376" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:21" ht="13">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="20"/>
@@ -9490,7 +9520,7 @@
       <c r="T376" s="4"/>
       <c r="U376" s="4"/>
     </row>
-    <row r="377" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:21" ht="13">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="20"/>
@@ -9513,7 +9543,7 @@
       <c r="T377" s="4"/>
       <c r="U377" s="4"/>
     </row>
-    <row r="378" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:21" ht="13">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="20"/>
@@ -9536,7 +9566,7 @@
       <c r="T378" s="4"/>
       <c r="U378" s="4"/>
     </row>
-    <row r="379" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:21" ht="13">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="20"/>
@@ -9559,7 +9589,7 @@
       <c r="T379" s="4"/>
       <c r="U379" s="4"/>
     </row>
-    <row r="380" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:21" ht="13">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="20"/>
@@ -9582,7 +9612,7 @@
       <c r="T380" s="4"/>
       <c r="U380" s="4"/>
     </row>
-    <row r="381" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:21" ht="13">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="20"/>
@@ -9605,7 +9635,7 @@
       <c r="T381" s="4"/>
       <c r="U381" s="4"/>
     </row>
-    <row r="382" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:21" ht="13">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="20"/>
@@ -9628,7 +9658,7 @@
       <c r="T382" s="4"/>
       <c r="U382" s="4"/>
     </row>
-    <row r="383" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:21" ht="13">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="20"/>
@@ -9651,7 +9681,7 @@
       <c r="T383" s="4"/>
       <c r="U383" s="4"/>
     </row>
-    <row r="384" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:21" ht="13">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="20"/>
@@ -9674,7 +9704,7 @@
       <c r="T384" s="4"/>
       <c r="U384" s="4"/>
     </row>
-    <row r="385" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:21" ht="13">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="20"/>
@@ -9697,7 +9727,7 @@
       <c r="T385" s="4"/>
       <c r="U385" s="4"/>
     </row>
-    <row r="386" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:21" ht="13">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="20"/>
@@ -9720,7 +9750,7 @@
       <c r="T386" s="4"/>
       <c r="U386" s="4"/>
     </row>
-    <row r="387" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:21" ht="13">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="20"/>
@@ -9743,7 +9773,7 @@
       <c r="T387" s="4"/>
       <c r="U387" s="4"/>
     </row>
-    <row r="388" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:21" ht="13">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="20"/>
@@ -9766,7 +9796,7 @@
       <c r="T388" s="4"/>
       <c r="U388" s="4"/>
     </row>
-    <row r="389" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:21" ht="13">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="20"/>
@@ -9789,7 +9819,7 @@
       <c r="T389" s="4"/>
       <c r="U389" s="4"/>
     </row>
-    <row r="390" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:21" ht="13">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="20"/>
@@ -9812,7 +9842,7 @@
       <c r="T390" s="4"/>
       <c r="U390" s="4"/>
     </row>
-    <row r="391" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:21" ht="13">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="20"/>
@@ -9835,7 +9865,7 @@
       <c r="T391" s="4"/>
       <c r="U391" s="4"/>
     </row>
-    <row r="392" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:21" ht="13">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="20"/>
@@ -9858,7 +9888,7 @@
       <c r="T392" s="4"/>
       <c r="U392" s="4"/>
     </row>
-    <row r="393" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:21" ht="13">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="20"/>
@@ -9881,7 +9911,7 @@
       <c r="T393" s="4"/>
       <c r="U393" s="4"/>
     </row>
-    <row r="394" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:21" ht="13">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="20"/>
@@ -9904,7 +9934,7 @@
       <c r="T394" s="4"/>
       <c r="U394" s="4"/>
     </row>
-    <row r="395" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:21" ht="13">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="20"/>
@@ -9927,7 +9957,7 @@
       <c r="T395" s="4"/>
       <c r="U395" s="4"/>
     </row>
-    <row r="396" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:21" ht="13">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="20"/>
@@ -9950,7 +9980,7 @@
       <c r="T396" s="4"/>
       <c r="U396" s="4"/>
     </row>
-    <row r="397" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:21" ht="13">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="20"/>
@@ -9973,7 +10003,7 @@
       <c r="T397" s="4"/>
       <c r="U397" s="4"/>
     </row>
-    <row r="398" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:21" ht="13">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="20"/>
@@ -9996,7 +10026,7 @@
       <c r="T398" s="4"/>
       <c r="U398" s="4"/>
     </row>
-    <row r="399" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:21" ht="13">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="20"/>
@@ -10019,7 +10049,7 @@
       <c r="T399" s="4"/>
       <c r="U399" s="4"/>
     </row>
-    <row r="400" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:21" ht="13">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="20"/>
@@ -10042,7 +10072,7 @@
       <c r="T400" s="4"/>
       <c r="U400" s="4"/>
     </row>
-    <row r="401" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:21" ht="13">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="20"/>
@@ -10065,7 +10095,7 @@
       <c r="T401" s="4"/>
       <c r="U401" s="4"/>
     </row>
-    <row r="402" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:21" ht="13">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="20"/>
@@ -10088,7 +10118,7 @@
       <c r="T402" s="4"/>
       <c r="U402" s="4"/>
     </row>
-    <row r="403" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:21" ht="13">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="20"/>
@@ -10111,7 +10141,7 @@
       <c r="T403" s="4"/>
       <c r="U403" s="4"/>
     </row>
-    <row r="404" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:21" ht="13">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="20"/>
@@ -10134,7 +10164,7 @@
       <c r="T404" s="4"/>
       <c r="U404" s="4"/>
     </row>
-    <row r="405" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:21" ht="13">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="20"/>
@@ -10157,7 +10187,7 @@
       <c r="T405" s="4"/>
       <c r="U405" s="4"/>
     </row>
-    <row r="406" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:21" ht="13">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="20"/>
@@ -10180,7 +10210,7 @@
       <c r="T406" s="4"/>
       <c r="U406" s="4"/>
     </row>
-    <row r="407" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:21" ht="13">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="20"/>
@@ -10203,7 +10233,7 @@
       <c r="T407" s="4"/>
       <c r="U407" s="4"/>
     </row>
-    <row r="408" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:21" ht="13">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="20"/>
@@ -10226,7 +10256,7 @@
       <c r="T408" s="4"/>
       <c r="U408" s="4"/>
     </row>
-    <row r="409" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:21" ht="13">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="20"/>
@@ -10249,7 +10279,7 @@
       <c r="T409" s="4"/>
       <c r="U409" s="4"/>
     </row>
-    <row r="410" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:21" ht="13">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="20"/>
@@ -10272,7 +10302,7 @@
       <c r="T410" s="4"/>
       <c r="U410" s="4"/>
     </row>
-    <row r="411" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:21" ht="13">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="20"/>
@@ -10295,7 +10325,7 @@
       <c r="T411" s="4"/>
       <c r="U411" s="4"/>
     </row>
-    <row r="412" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:21" ht="13">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="20"/>
@@ -10318,7 +10348,7 @@
       <c r="T412" s="4"/>
       <c r="U412" s="4"/>
     </row>
-    <row r="413" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:21" ht="13">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="20"/>
@@ -10341,7 +10371,7 @@
       <c r="T413" s="4"/>
       <c r="U413" s="4"/>
     </row>
-    <row r="414" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:21" ht="13">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="20"/>
@@ -10364,7 +10394,7 @@
       <c r="T414" s="4"/>
       <c r="U414" s="4"/>
     </row>
-    <row r="415" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:21" ht="13">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="20"/>
@@ -10387,7 +10417,7 @@
       <c r="T415" s="4"/>
       <c r="U415" s="4"/>
     </row>
-    <row r="416" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:21" ht="13">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="20"/>
@@ -10410,7 +10440,7 @@
       <c r="T416" s="4"/>
       <c r="U416" s="4"/>
     </row>
-    <row r="417" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:21" ht="13">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="20"/>
@@ -10433,7 +10463,7 @@
       <c r="T417" s="4"/>
       <c r="U417" s="4"/>
     </row>
-    <row r="418" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:21" ht="13">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="20"/>
@@ -10456,7 +10486,7 @@
       <c r="T418" s="4"/>
       <c r="U418" s="4"/>
     </row>
-    <row r="419" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:21" ht="13">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="20"/>
@@ -10479,7 +10509,7 @@
       <c r="T419" s="4"/>
       <c r="U419" s="4"/>
     </row>
-    <row r="420" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:21" ht="13">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="20"/>
@@ -10502,7 +10532,7 @@
       <c r="T420" s="4"/>
       <c r="U420" s="4"/>
     </row>
-    <row r="421" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:21" ht="13">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="20"/>
@@ -10525,7 +10555,7 @@
       <c r="T421" s="4"/>
       <c r="U421" s="4"/>
     </row>
-    <row r="422" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:21" ht="13">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="20"/>
@@ -10548,7 +10578,7 @@
       <c r="T422" s="4"/>
       <c r="U422" s="4"/>
     </row>
-    <row r="423" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:21" ht="13">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="20"/>
@@ -10571,7 +10601,7 @@
       <c r="T423" s="4"/>
       <c r="U423" s="4"/>
     </row>
-    <row r="424" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:21" ht="13">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="20"/>
@@ -10594,7 +10624,7 @@
       <c r="T424" s="4"/>
       <c r="U424" s="4"/>
     </row>
-    <row r="425" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:21" ht="13">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="20"/>
@@ -10617,7 +10647,7 @@
       <c r="T425" s="4"/>
       <c r="U425" s="4"/>
     </row>
-    <row r="426" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:21" ht="13">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="20"/>
@@ -10640,7 +10670,7 @@
       <c r="T426" s="4"/>
       <c r="U426" s="4"/>
     </row>
-    <row r="427" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:21" ht="13">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="20"/>
@@ -10663,7 +10693,7 @@
       <c r="T427" s="4"/>
       <c r="U427" s="4"/>
     </row>
-    <row r="428" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:21" ht="13">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="20"/>
@@ -10686,7 +10716,7 @@
       <c r="T428" s="4"/>
       <c r="U428" s="4"/>
     </row>
-    <row r="429" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:21" ht="13">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="20"/>
@@ -10709,7 +10739,7 @@
       <c r="T429" s="4"/>
       <c r="U429" s="4"/>
     </row>
-    <row r="430" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:21" ht="13">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="20"/>
@@ -10732,7 +10762,7 @@
       <c r="T430" s="4"/>
       <c r="U430" s="4"/>
     </row>
-    <row r="431" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:21" ht="13">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="20"/>
@@ -10755,7 +10785,7 @@
       <c r="T431" s="4"/>
       <c r="U431" s="4"/>
     </row>
-    <row r="432" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:21" ht="13">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="20"/>
@@ -10778,7 +10808,7 @@
       <c r="T432" s="4"/>
       <c r="U432" s="4"/>
     </row>
-    <row r="433" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:21" ht="13">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="20"/>
@@ -10801,7 +10831,7 @@
       <c r="T433" s="4"/>
       <c r="U433" s="4"/>
     </row>
-    <row r="434" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:21" ht="13">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="20"/>
@@ -10824,7 +10854,7 @@
       <c r="T434" s="4"/>
       <c r="U434" s="4"/>
     </row>
-    <row r="435" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:21" ht="13">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="20"/>
@@ -10847,7 +10877,7 @@
       <c r="T435" s="4"/>
       <c r="U435" s="4"/>
     </row>
-    <row r="436" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:21" ht="13">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="20"/>
@@ -10870,7 +10900,7 @@
       <c r="T436" s="4"/>
       <c r="U436" s="4"/>
     </row>
-    <row r="437" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:21" ht="13">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="20"/>
@@ -10893,7 +10923,7 @@
       <c r="T437" s="4"/>
       <c r="U437" s="4"/>
     </row>
-    <row r="438" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:21" ht="13">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="20"/>
@@ -10916,7 +10946,7 @@
       <c r="T438" s="4"/>
       <c r="U438" s="4"/>
     </row>
-    <row r="439" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:21" ht="13">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="20"/>
@@ -10939,7 +10969,7 @@
       <c r="T439" s="4"/>
       <c r="U439" s="4"/>
     </row>
-    <row r="440" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:21" ht="13">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="20"/>
@@ -10962,7 +10992,7 @@
       <c r="T440" s="4"/>
       <c r="U440" s="4"/>
     </row>
-    <row r="441" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:21" ht="13">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="20"/>
@@ -10985,7 +11015,7 @@
       <c r="T441" s="4"/>
       <c r="U441" s="4"/>
     </row>
-    <row r="442" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:21" ht="13">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="20"/>
@@ -11008,7 +11038,7 @@
       <c r="T442" s="4"/>
       <c r="U442" s="4"/>
     </row>
-    <row r="443" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:21" ht="13">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="20"/>
@@ -11031,7 +11061,7 @@
       <c r="T443" s="4"/>
       <c r="U443" s="4"/>
     </row>
-    <row r="444" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:21" ht="13">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="20"/>
@@ -11054,7 +11084,7 @@
       <c r="T444" s="4"/>
       <c r="U444" s="4"/>
     </row>
-    <row r="445" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:21" ht="13">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="20"/>
@@ -11077,7 +11107,7 @@
       <c r="T445" s="4"/>
       <c r="U445" s="4"/>
     </row>
-    <row r="446" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:21" ht="13">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="20"/>
@@ -11100,7 +11130,7 @@
       <c r="T446" s="4"/>
       <c r="U446" s="4"/>
     </row>
-    <row r="447" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:21" ht="13">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="20"/>
@@ -11123,7 +11153,7 @@
       <c r="T447" s="4"/>
       <c r="U447" s="4"/>
     </row>
-    <row r="448" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:21" ht="13">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="20"/>
@@ -11146,7 +11176,7 @@
       <c r="T448" s="4"/>
       <c r="U448" s="4"/>
     </row>
-    <row r="449" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:21" ht="13">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="20"/>
@@ -11169,7 +11199,7 @@
       <c r="T449" s="4"/>
       <c r="U449" s="4"/>
     </row>
-    <row r="450" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:21" ht="13">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="20"/>
@@ -11192,7 +11222,7 @@
       <c r="T450" s="4"/>
       <c r="U450" s="4"/>
     </row>
-    <row r="451" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:21" ht="13">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="20"/>
@@ -11215,7 +11245,7 @@
       <c r="T451" s="4"/>
       <c r="U451" s="4"/>
     </row>
-    <row r="452" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:21" ht="13">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="20"/>
@@ -11238,7 +11268,7 @@
       <c r="T452" s="4"/>
       <c r="U452" s="4"/>
     </row>
-    <row r="453" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:21" ht="13">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="20"/>
@@ -11261,7 +11291,7 @@
       <c r="T453" s="4"/>
       <c r="U453" s="4"/>
     </row>
-    <row r="454" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:21" ht="13">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="20"/>
@@ -11284,7 +11314,7 @@
       <c r="T454" s="4"/>
       <c r="U454" s="4"/>
     </row>
-    <row r="455" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:21" ht="13">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="20"/>
@@ -11307,7 +11337,7 @@
       <c r="T455" s="4"/>
       <c r="U455" s="4"/>
     </row>
-    <row r="456" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:21" ht="13">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="20"/>
@@ -11330,7 +11360,7 @@
       <c r="T456" s="4"/>
       <c r="U456" s="4"/>
     </row>
-    <row r="457" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:21" ht="13">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="20"/>
@@ -11353,7 +11383,7 @@
       <c r="T457" s="4"/>
       <c r="U457" s="4"/>
     </row>
-    <row r="458" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:21" ht="13">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="20"/>
@@ -11376,7 +11406,7 @@
       <c r="T458" s="4"/>
       <c r="U458" s="4"/>
     </row>
-    <row r="459" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:21" ht="13">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="20"/>
@@ -11399,7 +11429,7 @@
       <c r="T459" s="4"/>
       <c r="U459" s="4"/>
     </row>
-    <row r="460" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:21" ht="13">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="20"/>
@@ -11422,7 +11452,7 @@
       <c r="T460" s="4"/>
       <c r="U460" s="4"/>
     </row>
-    <row r="461" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:21" ht="13">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="20"/>
@@ -11445,7 +11475,7 @@
       <c r="T461" s="4"/>
       <c r="U461" s="4"/>
     </row>
-    <row r="462" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:21" ht="13">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="20"/>
@@ -11468,7 +11498,7 @@
       <c r="T462" s="4"/>
       <c r="U462" s="4"/>
     </row>
-    <row r="463" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:21" ht="13">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="20"/>
@@ -11491,7 +11521,7 @@
       <c r="T463" s="4"/>
       <c r="U463" s="4"/>
     </row>
-    <row r="464" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:21" ht="13">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="20"/>
@@ -11514,7 +11544,7 @@
       <c r="T464" s="4"/>
       <c r="U464" s="4"/>
     </row>
-    <row r="465" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:21" ht="13">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="20"/>
@@ -11537,7 +11567,7 @@
       <c r="T465" s="4"/>
       <c r="U465" s="4"/>
     </row>
-    <row r="466" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:21" ht="13">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="20"/>
@@ -11560,7 +11590,7 @@
       <c r="T466" s="4"/>
       <c r="U466" s="4"/>
     </row>
-    <row r="467" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:21" ht="13">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="20"/>
@@ -11583,7 +11613,7 @@
       <c r="T467" s="4"/>
       <c r="U467" s="4"/>
     </row>
-    <row r="468" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:21" ht="13">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="20"/>
@@ -11606,7 +11636,7 @@
       <c r="T468" s="4"/>
       <c r="U468" s="4"/>
     </row>
-    <row r="469" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:21" ht="13">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="20"/>
@@ -11629,7 +11659,7 @@
       <c r="T469" s="4"/>
       <c r="U469" s="4"/>
     </row>
-    <row r="470" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:21" ht="13">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="20"/>
@@ -11652,7 +11682,7 @@
       <c r="T470" s="4"/>
       <c r="U470" s="4"/>
     </row>
-    <row r="471" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:21" ht="13">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="20"/>
@@ -11675,7 +11705,7 @@
       <c r="T471" s="4"/>
       <c r="U471" s="4"/>
     </row>
-    <row r="472" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:21" ht="13">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="20"/>
@@ -11698,7 +11728,7 @@
       <c r="T472" s="4"/>
       <c r="U472" s="4"/>
     </row>
-    <row r="473" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:21" ht="13">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="20"/>
@@ -11721,7 +11751,7 @@
       <c r="T473" s="4"/>
       <c r="U473" s="4"/>
     </row>
-    <row r="474" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:21" ht="13">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="20"/>
@@ -11744,7 +11774,7 @@
       <c r="T474" s="4"/>
       <c r="U474" s="4"/>
     </row>
-    <row r="475" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:21" ht="13">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="20"/>
@@ -11767,7 +11797,7 @@
       <c r="T475" s="4"/>
       <c r="U475" s="4"/>
     </row>
-    <row r="476" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:21" ht="13">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="20"/>
@@ -11790,7 +11820,7 @@
       <c r="T476" s="4"/>
       <c r="U476" s="4"/>
     </row>
-    <row r="477" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:21" ht="13">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="20"/>
@@ -11813,7 +11843,7 @@
       <c r="T477" s="4"/>
       <c r="U477" s="4"/>
     </row>
-    <row r="478" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:21" ht="13">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="20"/>
@@ -11836,7 +11866,7 @@
       <c r="T478" s="4"/>
       <c r="U478" s="4"/>
     </row>
-    <row r="479" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:21" ht="13">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="20"/>
@@ -11859,7 +11889,7 @@
       <c r="T479" s="4"/>
       <c r="U479" s="4"/>
     </row>
-    <row r="480" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:21" ht="13">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="20"/>
@@ -11882,7 +11912,7 @@
       <c r="T480" s="4"/>
       <c r="U480" s="4"/>
     </row>
-    <row r="481" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:21" ht="13">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="20"/>
@@ -11905,7 +11935,7 @@
       <c r="T481" s="4"/>
       <c r="U481" s="4"/>
     </row>
-    <row r="482" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:21" ht="13">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="20"/>
@@ -11928,7 +11958,7 @@
       <c r="T482" s="4"/>
       <c r="U482" s="4"/>
     </row>
-    <row r="483" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:21" ht="13">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="20"/>
@@ -11951,7 +11981,7 @@
       <c r="T483" s="4"/>
       <c r="U483" s="4"/>
     </row>
-    <row r="484" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:21" ht="13">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="20"/>
@@ -11974,7 +12004,7 @@
       <c r="T484" s="4"/>
       <c r="U484" s="4"/>
     </row>
-    <row r="485" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:21" ht="13">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="20"/>
@@ -11997,7 +12027,7 @@
       <c r="T485" s="4"/>
       <c r="U485" s="4"/>
     </row>
-    <row r="486" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:21" ht="13">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="20"/>
@@ -12020,7 +12050,7 @@
       <c r="T486" s="4"/>
       <c r="U486" s="4"/>
     </row>
-    <row r="487" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:21" ht="13">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="20"/>
@@ -12043,7 +12073,7 @@
       <c r="T487" s="4"/>
       <c r="U487" s="4"/>
     </row>
-    <row r="488" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:21" ht="13">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="20"/>
@@ -12066,7 +12096,7 @@
       <c r="T488" s="4"/>
       <c r="U488" s="4"/>
     </row>
-    <row r="489" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:21" ht="13">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="20"/>
@@ -12089,7 +12119,7 @@
       <c r="T489" s="4"/>
       <c r="U489" s="4"/>
     </row>
-    <row r="490" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:21" ht="13">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="20"/>
@@ -12112,7 +12142,7 @@
       <c r="T490" s="4"/>
       <c r="U490" s="4"/>
     </row>
-    <row r="491" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:21" ht="13">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="20"/>
@@ -12135,7 +12165,7 @@
       <c r="T491" s="4"/>
       <c r="U491" s="4"/>
     </row>
-    <row r="492" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:21" ht="13">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="20"/>
@@ -12158,7 +12188,7 @@
       <c r="T492" s="4"/>
       <c r="U492" s="4"/>
     </row>
-    <row r="493" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:21" ht="13">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="20"/>
@@ -12181,7 +12211,7 @@
       <c r="T493" s="4"/>
       <c r="U493" s="4"/>
     </row>
-    <row r="494" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:21" ht="13">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="20"/>
@@ -12204,7 +12234,7 @@
       <c r="T494" s="4"/>
       <c r="U494" s="4"/>
     </row>
-    <row r="495" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:21" ht="13">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="20"/>
@@ -12227,7 +12257,7 @@
       <c r="T495" s="4"/>
       <c r="U495" s="4"/>
     </row>
-    <row r="496" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:21" ht="13">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="20"/>
@@ -12250,7 +12280,7 @@
       <c r="T496" s="4"/>
       <c r="U496" s="4"/>
     </row>
-    <row r="497" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:21" ht="13">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="20"/>
@@ -12273,7 +12303,7 @@
       <c r="T497" s="4"/>
       <c r="U497" s="4"/>
     </row>
-    <row r="498" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:21" ht="13">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="20"/>
@@ -12296,7 +12326,7 @@
       <c r="T498" s="4"/>
       <c r="U498" s="4"/>
     </row>
-    <row r="499" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:21" ht="13">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="20"/>
@@ -12319,7 +12349,7 @@
       <c r="T499" s="4"/>
       <c r="U499" s="4"/>
     </row>
-    <row r="500" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:21" ht="13">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="20"/>
@@ -12342,7 +12372,7 @@
       <c r="T500" s="4"/>
       <c r="U500" s="4"/>
     </row>
-    <row r="501" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:21" ht="13">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="20"/>
@@ -12365,7 +12395,7 @@
       <c r="T501" s="4"/>
       <c r="U501" s="4"/>
     </row>
-    <row r="502" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:21" ht="13">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="20"/>
@@ -12388,7 +12418,7 @@
       <c r="T502" s="4"/>
       <c r="U502" s="4"/>
     </row>
-    <row r="503" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:21" ht="13">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="20"/>
@@ -12411,7 +12441,7 @@
       <c r="T503" s="4"/>
       <c r="U503" s="4"/>
     </row>
-    <row r="504" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:21" ht="13">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="20"/>
@@ -12434,7 +12464,7 @@
       <c r="T504" s="4"/>
       <c r="U504" s="4"/>
     </row>
-    <row r="505" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:21" ht="13">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="20"/>
@@ -12457,7 +12487,7 @@
       <c r="T505" s="4"/>
       <c r="U505" s="4"/>
     </row>
-    <row r="506" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:21" ht="13">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="20"/>
@@ -12480,7 +12510,7 @@
       <c r="T506" s="4"/>
       <c r="U506" s="4"/>
     </row>
-    <row r="507" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:21" ht="13">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="20"/>
@@ -12503,7 +12533,7 @@
       <c r="T507" s="4"/>
       <c r="U507" s="4"/>
     </row>
-    <row r="508" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:21" ht="13">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="20"/>
@@ -12526,7 +12556,7 @@
       <c r="T508" s="4"/>
       <c r="U508" s="4"/>
     </row>
-    <row r="509" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:21" ht="13">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="20"/>
@@ -12549,7 +12579,7 @@
       <c r="T509" s="4"/>
       <c r="U509" s="4"/>
     </row>
-    <row r="510" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:21" ht="13">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="20"/>
@@ -12572,7 +12602,7 @@
       <c r="T510" s="4"/>
       <c r="U510" s="4"/>
     </row>
-    <row r="511" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:21" ht="13">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="20"/>
@@ -12595,7 +12625,7 @@
       <c r="T511" s="4"/>
       <c r="U511" s="4"/>
     </row>
-    <row r="512" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:21" ht="13">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="20"/>
@@ -12618,7 +12648,7 @@
       <c r="T512" s="4"/>
       <c r="U512" s="4"/>
     </row>
-    <row r="513" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:21" ht="13">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="20"/>
@@ -12641,7 +12671,7 @@
       <c r="T513" s="4"/>
       <c r="U513" s="4"/>
     </row>
-    <row r="514" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:21" ht="13">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="20"/>
@@ -12664,7 +12694,7 @@
       <c r="T514" s="4"/>
       <c r="U514" s="4"/>
     </row>
-    <row r="515" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:21" ht="13">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="20"/>
@@ -12687,7 +12717,7 @@
       <c r="T515" s="4"/>
       <c r="U515" s="4"/>
     </row>
-    <row r="516" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:21" ht="13">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="20"/>
@@ -12710,7 +12740,7 @@
       <c r="T516" s="4"/>
       <c r="U516" s="4"/>
     </row>
-    <row r="517" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:21" ht="13">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="20"/>
@@ -12733,7 +12763,7 @@
       <c r="T517" s="4"/>
       <c r="U517" s="4"/>
     </row>
-    <row r="518" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:21" ht="13">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="20"/>
@@ -12756,7 +12786,7 @@
       <c r="T518" s="4"/>
       <c r="U518" s="4"/>
     </row>
-    <row r="519" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:21" ht="13">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="20"/>
@@ -12779,7 +12809,7 @@
       <c r="T519" s="4"/>
       <c r="U519" s="4"/>
     </row>
-    <row r="520" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:21" ht="13">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="20"/>
@@ -12802,7 +12832,7 @@
       <c r="T520" s="4"/>
       <c r="U520" s="4"/>
     </row>
-    <row r="521" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:21" ht="13">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="20"/>
@@ -12825,7 +12855,7 @@
       <c r="T521" s="4"/>
       <c r="U521" s="4"/>
     </row>
-    <row r="522" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:21" ht="13">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="20"/>
@@ -12848,7 +12878,7 @@
       <c r="T522" s="4"/>
       <c r="U522" s="4"/>
     </row>
-    <row r="523" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:21" ht="13">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="20"/>
@@ -12871,7 +12901,7 @@
       <c r="T523" s="4"/>
       <c r="U523" s="4"/>
     </row>
-    <row r="524" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:21" ht="13">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="20"/>
@@ -12894,7 +12924,7 @@
       <c r="T524" s="4"/>
       <c r="U524" s="4"/>
     </row>
-    <row r="525" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:21" ht="13">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="20"/>
@@ -12917,7 +12947,7 @@
       <c r="T525" s="4"/>
       <c r="U525" s="4"/>
     </row>
-    <row r="526" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:21" ht="13">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="20"/>
@@ -12940,7 +12970,7 @@
       <c r="T526" s="4"/>
       <c r="U526" s="4"/>
     </row>
-    <row r="527" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:21" ht="13">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="20"/>
@@ -12963,7 +12993,7 @@
       <c r="T527" s="4"/>
       <c r="U527" s="4"/>
     </row>
-    <row r="528" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:21" ht="13">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="20"/>
@@ -12986,7 +13016,7 @@
       <c r="T528" s="4"/>
       <c r="U528" s="4"/>
     </row>
-    <row r="529" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:21" ht="13">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="20"/>
@@ -13009,7 +13039,7 @@
       <c r="T529" s="4"/>
       <c r="U529" s="4"/>
     </row>
-    <row r="530" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:21" ht="13">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="20"/>
@@ -13032,7 +13062,7 @@
       <c r="T530" s="4"/>
       <c r="U530" s="4"/>
     </row>
-    <row r="531" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:21" ht="13">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="20"/>
@@ -13055,7 +13085,7 @@
       <c r="T531" s="4"/>
       <c r="U531" s="4"/>
     </row>
-    <row r="532" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:21" ht="13">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="20"/>
@@ -13078,7 +13108,7 @@
       <c r="T532" s="4"/>
       <c r="U532" s="4"/>
     </row>
-    <row r="533" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:21" ht="13">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="20"/>
@@ -13101,7 +13131,7 @@
       <c r="T533" s="4"/>
       <c r="U533" s="4"/>
     </row>
-    <row r="534" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:21" ht="13">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="20"/>
@@ -13124,7 +13154,7 @@
       <c r="T534" s="4"/>
       <c r="U534" s="4"/>
     </row>
-    <row r="535" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:21" ht="13">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="20"/>
@@ -13147,7 +13177,7 @@
       <c r="T535" s="4"/>
       <c r="U535" s="4"/>
     </row>
-    <row r="536" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:21" ht="13">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="20"/>
@@ -13170,7 +13200,7 @@
       <c r="T536" s="4"/>
       <c r="U536" s="4"/>
     </row>
-    <row r="537" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:21" ht="13">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="20"/>
@@ -13193,7 +13223,7 @@
       <c r="T537" s="4"/>
       <c r="U537" s="4"/>
     </row>
-    <row r="538" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:21" ht="13">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="20"/>
@@ -13216,7 +13246,7 @@
       <c r="T538" s="4"/>
       <c r="U538" s="4"/>
     </row>
-    <row r="539" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:21" ht="13">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="20"/>
@@ -13239,7 +13269,7 @@
       <c r="T539" s="4"/>
       <c r="U539" s="4"/>
     </row>
-    <row r="540" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:21" ht="13">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="20"/>
@@ -13262,7 +13292,7 @@
       <c r="T540" s="4"/>
       <c r="U540" s="4"/>
     </row>
-    <row r="541" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:21" ht="13">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="20"/>
@@ -13285,7 +13315,7 @@
       <c r="T541" s="4"/>
       <c r="U541" s="4"/>
     </row>
-    <row r="542" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:21" ht="13">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="20"/>
@@ -13308,7 +13338,7 @@
       <c r="T542" s="4"/>
       <c r="U542" s="4"/>
     </row>
-    <row r="543" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:21" ht="13">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="20"/>
@@ -13331,7 +13361,7 @@
       <c r="T543" s="4"/>
       <c r="U543" s="4"/>
     </row>
-    <row r="544" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:21" ht="13">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="20"/>
@@ -13354,7 +13384,7 @@
       <c r="T544" s="4"/>
       <c r="U544" s="4"/>
     </row>
-    <row r="545" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:21" ht="13">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="20"/>
@@ -13377,7 +13407,7 @@
       <c r="T545" s="4"/>
       <c r="U545" s="4"/>
     </row>
-    <row r="546" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:21" ht="13">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="20"/>
@@ -13400,7 +13430,7 @@
       <c r="T546" s="4"/>
       <c r="U546" s="4"/>
     </row>
-    <row r="547" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:21" ht="13">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="20"/>
@@ -13423,7 +13453,7 @@
       <c r="T547" s="4"/>
       <c r="U547" s="4"/>
     </row>
-    <row r="548" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:21" ht="13">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="20"/>
@@ -13446,7 +13476,7 @@
       <c r="T548" s="4"/>
       <c r="U548" s="4"/>
     </row>
-    <row r="549" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:21" ht="13">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="20"/>
@@ -13469,7 +13499,7 @@
       <c r="T549" s="4"/>
       <c r="U549" s="4"/>
     </row>
-    <row r="550" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:21" ht="13">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="20"/>
@@ -13492,7 +13522,7 @@
       <c r="T550" s="4"/>
       <c r="U550" s="4"/>
     </row>
-    <row r="551" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:21" ht="13">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="20"/>
@@ -13515,7 +13545,7 @@
       <c r="T551" s="4"/>
       <c r="U551" s="4"/>
     </row>
-    <row r="552" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:21" ht="13">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="20"/>
@@ -13538,7 +13568,7 @@
       <c r="T552" s="4"/>
       <c r="U552" s="4"/>
     </row>
-    <row r="553" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:21" ht="13">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="20"/>
@@ -13561,7 +13591,7 @@
       <c r="T553" s="4"/>
       <c r="U553" s="4"/>
     </row>
-    <row r="554" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:21" ht="13">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="20"/>
@@ -13584,7 +13614,7 @@
       <c r="T554" s="4"/>
       <c r="U554" s="4"/>
     </row>
-    <row r="555" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:21" ht="13">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="20"/>
@@ -13607,7 +13637,7 @@
       <c r="T555" s="4"/>
       <c r="U555" s="4"/>
     </row>
-    <row r="556" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:21" ht="13">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="20"/>
@@ -13630,7 +13660,7 @@
       <c r="T556" s="4"/>
       <c r="U556" s="4"/>
     </row>
-    <row r="557" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:21" ht="13">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="20"/>
@@ -13653,7 +13683,7 @@
       <c r="T557" s="4"/>
       <c r="U557" s="4"/>
     </row>
-    <row r="558" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:21" ht="13">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="20"/>
@@ -13676,7 +13706,7 @@
       <c r="T558" s="4"/>
       <c r="U558" s="4"/>
     </row>
-    <row r="559" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:21" ht="13">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="20"/>
@@ -13699,7 +13729,7 @@
       <c r="T559" s="4"/>
       <c r="U559" s="4"/>
     </row>
-    <row r="560" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:21" ht="13">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="20"/>
@@ -13722,7 +13752,7 @@
       <c r="T560" s="4"/>
       <c r="U560" s="4"/>
     </row>
-    <row r="561" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:21" ht="13">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="20"/>
@@ -13745,7 +13775,7 @@
       <c r="T561" s="4"/>
       <c r="U561" s="4"/>
     </row>
-    <row r="562" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:21" ht="13">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="20"/>
@@ -13768,7 +13798,7 @@
       <c r="T562" s="4"/>
       <c r="U562" s="4"/>
     </row>
-    <row r="563" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:21" ht="13">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="20"/>
@@ -13791,7 +13821,7 @@
       <c r="T563" s="4"/>
       <c r="U563" s="4"/>
     </row>
-    <row r="564" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:21" ht="13">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="20"/>
@@ -13814,7 +13844,7 @@
       <c r="T564" s="4"/>
       <c r="U564" s="4"/>
     </row>
-    <row r="565" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:21" ht="13">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="20"/>
@@ -13837,7 +13867,7 @@
       <c r="T565" s="4"/>
       <c r="U565" s="4"/>
     </row>
-    <row r="566" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:21" ht="13">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="20"/>
@@ -13860,7 +13890,7 @@
       <c r="T566" s="4"/>
       <c r="U566" s="4"/>
     </row>
-    <row r="567" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:21" ht="13">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="20"/>
@@ -13883,7 +13913,7 @@
       <c r="T567" s="4"/>
       <c r="U567" s="4"/>
     </row>
-    <row r="568" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:21" ht="13">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="20"/>
@@ -13906,7 +13936,7 @@
       <c r="T568" s="4"/>
       <c r="U568" s="4"/>
     </row>
-    <row r="569" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:21" ht="13">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="20"/>
@@ -13929,7 +13959,7 @@
       <c r="T569" s="4"/>
       <c r="U569" s="4"/>
     </row>
-    <row r="570" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:21" ht="13">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="20"/>
@@ -13952,7 +13982,7 @@
       <c r="T570" s="4"/>
       <c r="U570" s="4"/>
     </row>
-    <row r="571" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:21" ht="13">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="20"/>
@@ -13975,7 +14005,7 @@
       <c r="T571" s="4"/>
       <c r="U571" s="4"/>
     </row>
-    <row r="572" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:21" ht="13">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="20"/>
@@ -13998,7 +14028,7 @@
       <c r="T572" s="4"/>
       <c r="U572" s="4"/>
     </row>
-    <row r="573" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:21" ht="13">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="20"/>
@@ -14021,7 +14051,7 @@
       <c r="T573" s="4"/>
       <c r="U573" s="4"/>
     </row>
-    <row r="574" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:21" ht="13">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="20"/>
@@ -14044,7 +14074,7 @@
       <c r="T574" s="4"/>
       <c r="U574" s="4"/>
     </row>
-    <row r="575" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:21" ht="13">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="20"/>
@@ -14067,7 +14097,7 @@
       <c r="T575" s="4"/>
       <c r="U575" s="4"/>
     </row>
-    <row r="576" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:21" ht="13">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="20"/>
@@ -14090,7 +14120,7 @@
       <c r="T576" s="4"/>
       <c r="U576" s="4"/>
     </row>
-    <row r="577" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:21" ht="13">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="20"/>
@@ -14113,7 +14143,7 @@
       <c r="T577" s="4"/>
       <c r="U577" s="4"/>
     </row>
-    <row r="578" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:21" ht="13">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="20"/>
@@ -14136,7 +14166,7 @@
       <c r="T578" s="4"/>
       <c r="U578" s="4"/>
     </row>
-    <row r="579" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:21" ht="13">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="20"/>
@@ -14159,7 +14189,7 @@
       <c r="T579" s="4"/>
       <c r="U579" s="4"/>
     </row>
-    <row r="580" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:21" ht="13">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="20"/>
@@ -14182,7 +14212,7 @@
       <c r="T580" s="4"/>
       <c r="U580" s="4"/>
     </row>
-    <row r="581" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:21" ht="13">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="20"/>
@@ -14205,7 +14235,7 @@
       <c r="T581" s="4"/>
       <c r="U581" s="4"/>
     </row>
-    <row r="582" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:21" ht="13">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="20"/>
@@ -14228,7 +14258,7 @@
       <c r="T582" s="4"/>
       <c r="U582" s="4"/>
     </row>
-    <row r="583" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:21" ht="13">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="20"/>
@@ -14251,7 +14281,7 @@
       <c r="T583" s="4"/>
       <c r="U583" s="4"/>
     </row>
-    <row r="584" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:21" ht="13">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="20"/>
@@ -14274,7 +14304,7 @@
       <c r="T584" s="4"/>
       <c r="U584" s="4"/>
     </row>
-    <row r="585" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:21" ht="13">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="20"/>
@@ -14297,7 +14327,7 @@
       <c r="T585" s="4"/>
       <c r="U585" s="4"/>
     </row>
-    <row r="586" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:21" ht="13">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="20"/>
@@ -14320,7 +14350,7 @@
       <c r="T586" s="4"/>
       <c r="U586" s="4"/>
     </row>
-    <row r="587" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:21" ht="13">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="20"/>
@@ -14343,7 +14373,7 @@
       <c r="T587" s="4"/>
       <c r="U587" s="4"/>
     </row>
-    <row r="588" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:21" ht="13">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="20"/>
@@ -14366,7 +14396,7 @@
       <c r="T588" s="4"/>
       <c r="U588" s="4"/>
     </row>
-    <row r="589" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:21" ht="13">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="20"/>
@@ -14389,7 +14419,7 @@
       <c r="T589" s="4"/>
       <c r="U589" s="4"/>
     </row>
-    <row r="590" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:21" ht="13">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="20"/>
@@ -14412,7 +14442,7 @@
       <c r="T590" s="4"/>
       <c r="U590" s="4"/>
     </row>
-    <row r="591" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:21" ht="13">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="20"/>
@@ -14435,7 +14465,7 @@
       <c r="T591" s="4"/>
       <c r="U591" s="4"/>
     </row>
-    <row r="592" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:21" ht="13">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="20"/>
@@ -14458,7 +14488,7 @@
       <c r="T592" s="4"/>
       <c r="U592" s="4"/>
     </row>
-    <row r="593" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:21" ht="13">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="20"/>
@@ -14481,7 +14511,7 @@
       <c r="T593" s="4"/>
       <c r="U593" s="4"/>
     </row>
-    <row r="594" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:21" ht="13">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="20"/>
@@ -14504,7 +14534,7 @@
       <c r="T594" s="4"/>
       <c r="U594" s="4"/>
     </row>
-    <row r="595" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:21" ht="13">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="20"/>
@@ -14527,7 +14557,7 @@
       <c r="T595" s="4"/>
       <c r="U595" s="4"/>
     </row>
-    <row r="596" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:21" ht="13">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="20"/>
@@ -14550,7 +14580,7 @@
       <c r="T596" s="4"/>
       <c r="U596" s="4"/>
     </row>
-    <row r="597" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:21" ht="13">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="20"/>
@@ -14573,7 +14603,7 @@
       <c r="T597" s="4"/>
       <c r="U597" s="4"/>
     </row>
-    <row r="598" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:21" ht="13">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="20"/>
@@ -14596,7 +14626,7 @@
       <c r="T598" s="4"/>
       <c r="U598" s="4"/>
     </row>
-    <row r="599" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:21" ht="13">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="20"/>
@@ -14619,7 +14649,7 @@
       <c r="T599" s="4"/>
       <c r="U599" s="4"/>
     </row>
-    <row r="600" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:21" ht="13">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="20"/>
@@ -14642,7 +14672,7 @@
       <c r="T600" s="4"/>
       <c r="U600" s="4"/>
     </row>
-    <row r="601" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:21" ht="13">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="20"/>
@@ -14665,7 +14695,7 @@
       <c r="T601" s="4"/>
       <c r="U601" s="4"/>
     </row>
-    <row r="602" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:21" ht="13">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="20"/>
@@ -14688,7 +14718,7 @@
       <c r="T602" s="4"/>
       <c r="U602" s="4"/>
     </row>
-    <row r="603" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:21" ht="13">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="20"/>
@@ -14711,7 +14741,7 @@
       <c r="T603" s="4"/>
       <c r="U603" s="4"/>
     </row>
-    <row r="604" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:21" ht="13">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="20"/>
@@ -14734,7 +14764,7 @@
       <c r="T604" s="4"/>
       <c r="U604" s="4"/>
     </row>
-    <row r="605" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:21" ht="13">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="20"/>
@@ -14757,7 +14787,7 @@
       <c r="T605" s="4"/>
       <c r="U605" s="4"/>
     </row>
-    <row r="606" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:21" ht="13">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="20"/>
@@ -14780,7 +14810,7 @@
       <c r="T606" s="4"/>
       <c r="U606" s="4"/>
     </row>
-    <row r="607" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:21" ht="13">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="20"/>
@@ -14803,7 +14833,7 @@
       <c r="T607" s="4"/>
       <c r="U607" s="4"/>
     </row>
-    <row r="608" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:21" ht="13">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="20"/>
@@ -14826,7 +14856,7 @@
       <c r="T608" s="4"/>
       <c r="U608" s="4"/>
     </row>
-    <row r="609" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:21" ht="13">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="20"/>
@@ -14849,7 +14879,7 @@
       <c r="T609" s="4"/>
       <c r="U609" s="4"/>
     </row>
-    <row r="610" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:21" ht="13">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="20"/>
@@ -14872,7 +14902,7 @@
       <c r="T610" s="4"/>
       <c r="U610" s="4"/>
     </row>
-    <row r="611" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:21" ht="13">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="20"/>
@@ -14895,7 +14925,7 @@
       <c r="T611" s="4"/>
       <c r="U611" s="4"/>
     </row>
-    <row r="612" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:21" ht="13">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="20"/>
@@ -14918,7 +14948,7 @@
       <c r="T612" s="4"/>
       <c r="U612" s="4"/>
     </row>
-    <row r="613" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:21" ht="13">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="20"/>
@@ -14941,7 +14971,7 @@
       <c r="T613" s="4"/>
       <c r="U613" s="4"/>
     </row>
-    <row r="614" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:21" ht="13">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="20"/>
@@ -14964,7 +14994,7 @@
       <c r="T614" s="4"/>
       <c r="U614" s="4"/>
     </row>
-    <row r="615" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:21" ht="13">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="20"/>
@@ -14987,7 +15017,7 @@
       <c r="T615" s="4"/>
       <c r="U615" s="4"/>
     </row>
-    <row r="616" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:21" ht="13">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="20"/>
@@ -15010,7 +15040,7 @@
       <c r="T616" s="4"/>
       <c r="U616" s="4"/>
     </row>
-    <row r="617" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:21" ht="13">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="20"/>
@@ -15033,7 +15063,7 @@
       <c r="T617" s="4"/>
       <c r="U617" s="4"/>
     </row>
-    <row r="618" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:21" ht="13">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="20"/>
@@ -15056,7 +15086,7 @@
       <c r="T618" s="4"/>
       <c r="U618" s="4"/>
     </row>
-    <row r="619" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:21" ht="13">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="20"/>
@@ -15079,7 +15109,7 @@
       <c r="T619" s="4"/>
       <c r="U619" s="4"/>
     </row>
-    <row r="620" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:21" ht="13">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="20"/>
@@ -15102,7 +15132,7 @@
       <c r="T620" s="4"/>
       <c r="U620" s="4"/>
     </row>
-    <row r="621" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:21" ht="13">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="20"/>
@@ -15125,7 +15155,7 @@
       <c r="T621" s="4"/>
       <c r="U621" s="4"/>
     </row>
-    <row r="622" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:21" ht="13">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="20"/>
@@ -15148,7 +15178,7 @@
       <c r="T622" s="4"/>
       <c r="U622" s="4"/>
     </row>
-    <row r="623" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:21" ht="13">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="20"/>
@@ -15171,7 +15201,7 @@
       <c r="T623" s="4"/>
       <c r="U623" s="4"/>
     </row>
-    <row r="624" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:21" ht="13">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="20"/>
@@ -15194,7 +15224,7 @@
       <c r="T624" s="4"/>
       <c r="U624" s="4"/>
     </row>
-    <row r="625" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:21" ht="13">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="20"/>
@@ -15217,7 +15247,7 @@
       <c r="T625" s="4"/>
       <c r="U625" s="4"/>
     </row>
-    <row r="626" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:21" ht="13">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="20"/>
@@ -15240,7 +15270,7 @@
       <c r="T626" s="4"/>
       <c r="U626" s="4"/>
     </row>
-    <row r="627" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:21" ht="13">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="20"/>
@@ -15263,7 +15293,7 @@
       <c r="T627" s="4"/>
       <c r="U627" s="4"/>
     </row>
-    <row r="628" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:21" ht="13">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="20"/>
@@ -15286,7 +15316,7 @@
       <c r="T628" s="4"/>
       <c r="U628" s="4"/>
     </row>
-    <row r="629" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:21" ht="13">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="20"/>
@@ -15309,7 +15339,7 @@
       <c r="T629" s="4"/>
       <c r="U629" s="4"/>
     </row>
-    <row r="630" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:21" ht="13">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="20"/>
@@ -15332,7 +15362,7 @@
       <c r="T630" s="4"/>
       <c r="U630" s="4"/>
     </row>
-    <row r="631" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:21" ht="13">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="20"/>
@@ -15355,7 +15385,7 @@
       <c r="T631" s="4"/>
       <c r="U631" s="4"/>
     </row>
-    <row r="632" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:21" ht="13">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="20"/>
@@ -15378,7 +15408,7 @@
       <c r="T632" s="4"/>
       <c r="U632" s="4"/>
     </row>
-    <row r="633" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:21" ht="13">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="20"/>
@@ -15401,7 +15431,7 @@
       <c r="T633" s="4"/>
       <c r="U633" s="4"/>
     </row>
-    <row r="634" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:21" ht="13">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="20"/>
@@ -15424,7 +15454,7 @@
       <c r="T634" s="4"/>
       <c r="U634" s="4"/>
     </row>
-    <row r="635" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:21" ht="13">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="20"/>
@@ -15447,7 +15477,7 @@
       <c r="T635" s="4"/>
       <c r="U635" s="4"/>
     </row>
-    <row r="636" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:21" ht="13">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="20"/>
@@ -15470,7 +15500,7 @@
       <c r="T636" s="4"/>
       <c r="U636" s="4"/>
     </row>
-    <row r="637" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:21" ht="13">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="20"/>
@@ -15493,7 +15523,7 @@
       <c r="T637" s="4"/>
       <c r="U637" s="4"/>
     </row>
-    <row r="638" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:21" ht="13">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="20"/>
@@ -15516,7 +15546,7 @@
       <c r="T638" s="4"/>
       <c r="U638" s="4"/>
     </row>
-    <row r="639" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:21" ht="13">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="20"/>
@@ -15539,7 +15569,7 @@
       <c r="T639" s="4"/>
       <c r="U639" s="4"/>
     </row>
-    <row r="640" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:21" ht="13">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="20"/>
@@ -15562,7 +15592,7 @@
       <c r="T640" s="4"/>
       <c r="U640" s="4"/>
     </row>
-    <row r="641" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:21" ht="13">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="20"/>
@@ -15585,7 +15615,7 @@
       <c r="T641" s="4"/>
       <c r="U641" s="4"/>
     </row>
-    <row r="642" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:21" ht="13">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="20"/>
@@ -15608,7 +15638,7 @@
       <c r="T642" s="4"/>
       <c r="U642" s="4"/>
     </row>
-    <row r="643" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:21" ht="13">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="20"/>
@@ -15631,7 +15661,7 @@
       <c r="T643" s="4"/>
       <c r="U643" s="4"/>
     </row>
-    <row r="644" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:21" ht="13">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="20"/>
@@ -15654,7 +15684,7 @@
       <c r="T644" s="4"/>
       <c r="U644" s="4"/>
     </row>
-    <row r="645" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:21" ht="13">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="20"/>
@@ -15677,7 +15707,7 @@
       <c r="T645" s="4"/>
       <c r="U645" s="4"/>
     </row>
-    <row r="646" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:21" ht="13">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="20"/>
@@ -15700,7 +15730,7 @@
       <c r="T646" s="4"/>
       <c r="U646" s="4"/>
     </row>
-    <row r="647" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:21" ht="13">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="20"/>
@@ -15723,7 +15753,7 @@
       <c r="T647" s="4"/>
       <c r="U647" s="4"/>
     </row>
-    <row r="648" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:21" ht="13">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="20"/>
@@ -15746,7 +15776,7 @@
       <c r="T648" s="4"/>
       <c r="U648" s="4"/>
     </row>
-    <row r="649" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:21" ht="13">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="20"/>
@@ -15769,7 +15799,7 @@
       <c r="T649" s="4"/>
       <c r="U649" s="4"/>
     </row>
-    <row r="650" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:21" ht="13">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="20"/>
@@ -15792,7 +15822,7 @@
       <c r="T650" s="4"/>
       <c r="U650" s="4"/>
     </row>
-    <row r="651" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:21" ht="13">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="20"/>
@@ -15815,7 +15845,7 @@
       <c r="T651" s="4"/>
       <c r="U651" s="4"/>
     </row>
-    <row r="652" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:21" ht="13">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="20"/>
@@ -15838,7 +15868,7 @@
       <c r="T652" s="4"/>
       <c r="U652" s="4"/>
     </row>
-    <row r="653" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:21" ht="13">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="20"/>
@@ -15861,7 +15891,7 @@
       <c r="T653" s="4"/>
       <c r="U653" s="4"/>
     </row>
-    <row r="654" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:21" ht="13">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="20"/>
@@ -15884,7 +15914,7 @@
       <c r="T654" s="4"/>
       <c r="U654" s="4"/>
     </row>
-    <row r="655" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:21" ht="13">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="20"/>
@@ -15907,7 +15937,7 @@
       <c r="T655" s="4"/>
       <c r="U655" s="4"/>
     </row>
-    <row r="656" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:21" ht="13">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="20"/>
@@ -15930,7 +15960,7 @@
       <c r="T656" s="4"/>
       <c r="U656" s="4"/>
     </row>
-    <row r="657" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:21" ht="13">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="20"/>
@@ -15953,7 +15983,7 @@
       <c r="T657" s="4"/>
       <c r="U657" s="4"/>
     </row>
-    <row r="658" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:21" ht="13">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="20"/>
@@ -15976,7 +16006,7 @@
       <c r="T658" s="4"/>
       <c r="U658" s="4"/>
     </row>
-    <row r="659" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:21" ht="13">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="20"/>
@@ -15999,7 +16029,7 @@
       <c r="T659" s="4"/>
       <c r="U659" s="4"/>
     </row>
-    <row r="660" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:21" ht="13">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="20"/>
@@ -16022,7 +16052,7 @@
       <c r="T660" s="4"/>
       <c r="U660" s="4"/>
     </row>
-    <row r="661" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:21" ht="13">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="20"/>
@@ -16045,7 +16075,7 @@
       <c r="T661" s="4"/>
       <c r="U661" s="4"/>
     </row>
-    <row r="662" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:21" ht="13">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="20"/>
@@ -16068,7 +16098,7 @@
       <c r="T662" s="4"/>
       <c r="U662" s="4"/>
     </row>
-    <row r="663" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:21" ht="13">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="20"/>
@@ -16091,7 +16121,7 @@
       <c r="T663" s="4"/>
       <c r="U663" s="4"/>
     </row>
-    <row r="664" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:21" ht="13">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="20"/>
@@ -16114,7 +16144,7 @@
       <c r="T664" s="4"/>
       <c r="U664" s="4"/>
     </row>
-    <row r="665" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:21" ht="13">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="20"/>
@@ -16137,7 +16167,7 @@
       <c r="T665" s="4"/>
       <c r="U665" s="4"/>
     </row>
-    <row r="666" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:21" ht="13">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="20"/>
@@ -16160,7 +16190,7 @@
       <c r="T666" s="4"/>
       <c r="U666" s="4"/>
     </row>
-    <row r="667" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:21" ht="13">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="20"/>
@@ -16183,7 +16213,7 @@
       <c r="T667" s="4"/>
       <c r="U667" s="4"/>
     </row>
-    <row r="668" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:21" ht="13">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="20"/>
@@ -16206,7 +16236,7 @@
       <c r="T668" s="4"/>
       <c r="U668" s="4"/>
     </row>
-    <row r="669" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:21" ht="13">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="20"/>
@@ -16229,7 +16259,7 @@
       <c r="T669" s="4"/>
       <c r="U669" s="4"/>
     </row>
-    <row r="670" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:21" ht="13">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="20"/>
@@ -16252,7 +16282,7 @@
       <c r="T670" s="4"/>
       <c r="U670" s="4"/>
     </row>
-    <row r="671" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:21" ht="13">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="20"/>
@@ -16275,7 +16305,7 @@
       <c r="T671" s="4"/>
       <c r="U671" s="4"/>
     </row>
-    <row r="672" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:21" ht="13">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="20"/>
@@ -16298,7 +16328,7 @@
       <c r="T672" s="4"/>
       <c r="U672" s="4"/>
     </row>
-    <row r="673" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:21" ht="13">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="20"/>
@@ -16321,7 +16351,7 @@
       <c r="T673" s="4"/>
       <c r="U673" s="4"/>
     </row>
-    <row r="674" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:21" ht="13">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="20"/>
@@ -16344,7 +16374,7 @@
       <c r="T674" s="4"/>
       <c r="U674" s="4"/>
     </row>
-    <row r="675" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:21" ht="13">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="20"/>
@@ -16367,7 +16397,7 @@
       <c r="T675" s="4"/>
       <c r="U675" s="4"/>
     </row>
-    <row r="676" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:21" ht="13">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="20"/>
@@ -16390,7 +16420,7 @@
       <c r="T676" s="4"/>
       <c r="U676" s="4"/>
     </row>
-    <row r="677" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:21" ht="13">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="20"/>
@@ -16413,7 +16443,7 @@
       <c r="T677" s="4"/>
       <c r="U677" s="4"/>
     </row>
-    <row r="678" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:21" ht="13">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="20"/>
@@ -16436,7 +16466,7 @@
       <c r="T678" s="4"/>
       <c r="U678" s="4"/>
     </row>
-    <row r="679" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:21" ht="13">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="20"/>
@@ -16459,7 +16489,7 @@
       <c r="T679" s="4"/>
       <c r="U679" s="4"/>
     </row>
-    <row r="680" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:21" ht="13">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="20"/>
@@ -16482,7 +16512,7 @@
       <c r="T680" s="4"/>
       <c r="U680" s="4"/>
     </row>
-    <row r="681" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:21" ht="13">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="20"/>
@@ -16505,7 +16535,7 @@
       <c r="T681" s="4"/>
       <c r="U681" s="4"/>
     </row>
-    <row r="682" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:21" ht="13">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="20"/>
@@ -16528,7 +16558,7 @@
       <c r="T682" s="4"/>
       <c r="U682" s="4"/>
     </row>
-    <row r="683" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:21" ht="13">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="20"/>
@@ -16551,7 +16581,7 @@
       <c r="T683" s="4"/>
       <c r="U683" s="4"/>
     </row>
-    <row r="684" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:21" ht="13">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="20"/>
@@ -16574,7 +16604,7 @@
       <c r="T684" s="4"/>
       <c r="U684" s="4"/>
     </row>
-    <row r="685" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:21" ht="13">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="20"/>
@@ -16597,7 +16627,7 @@
       <c r="T685" s="4"/>
       <c r="U685" s="4"/>
     </row>
-    <row r="686" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:21" ht="13">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="20"/>
@@ -16620,7 +16650,7 @@
       <c r="T686" s="4"/>
       <c r="U686" s="4"/>
     </row>
-    <row r="687" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:21" ht="13">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="20"/>
@@ -16643,7 +16673,7 @@
       <c r="T687" s="4"/>
       <c r="U687" s="4"/>
     </row>
-    <row r="688" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:21" ht="13">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="20"/>
@@ -16666,7 +16696,7 @@
       <c r="T688" s="4"/>
       <c r="U688" s="4"/>
     </row>
-    <row r="689" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:21" ht="13">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="20"/>
@@ -16689,7 +16719,7 @@
       <c r="T689" s="4"/>
       <c r="U689" s="4"/>
     </row>
-    <row r="690" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:21" ht="13">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="20"/>
@@ -16712,7 +16742,7 @@
       <c r="T690" s="4"/>
       <c r="U690" s="4"/>
     </row>
-    <row r="691" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:21" ht="13">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="20"/>
@@ -16735,7 +16765,7 @@
       <c r="T691" s="4"/>
       <c r="U691" s="4"/>
     </row>
-    <row r="692" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:21" ht="13">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="20"/>
@@ -16758,7 +16788,7 @@
       <c r="T692" s="4"/>
       <c r="U692" s="4"/>
     </row>
-    <row r="693" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:21" ht="13">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="20"/>
@@ -16781,7 +16811,7 @@
       <c r="T693" s="4"/>
       <c r="U693" s="4"/>
     </row>
-    <row r="694" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:21" ht="13">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="20"/>
@@ -16804,7 +16834,7 @@
       <c r="T694" s="4"/>
       <c r="U694" s="4"/>
     </row>
-    <row r="695" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:21" ht="13">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="20"/>
@@ -16827,7 +16857,7 @@
       <c r="T695" s="4"/>
       <c r="U695" s="4"/>
     </row>
-    <row r="696" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:21" ht="13">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="20"/>
@@ -16850,7 +16880,7 @@
       <c r="T696" s="4"/>
       <c r="U696" s="4"/>
     </row>
-    <row r="697" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:21" ht="13">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="20"/>
@@ -16873,7 +16903,7 @@
       <c r="T697" s="4"/>
       <c r="U697" s="4"/>
     </row>
-    <row r="698" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:21" ht="13">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="20"/>
@@ -16896,7 +16926,7 @@
       <c r="T698" s="4"/>
       <c r="U698" s="4"/>
     </row>
-    <row r="699" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:21" ht="13">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="20"/>
@@ -16919,7 +16949,7 @@
       <c r="T699" s="4"/>
       <c r="U699" s="4"/>
     </row>
-    <row r="700" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:21" ht="13">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="20"/>
@@ -16942,7 +16972,7 @@
       <c r="T700" s="4"/>
       <c r="U700" s="4"/>
     </row>
-    <row r="701" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:21" ht="13">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="20"/>
@@ -16965,7 +16995,7 @@
       <c r="T701" s="4"/>
       <c r="U701" s="4"/>
     </row>
-    <row r="702" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:21" ht="13">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="20"/>
@@ -16988,7 +17018,7 @@
       <c r="T702" s="4"/>
       <c r="U702" s="4"/>
     </row>
-    <row r="703" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:21" ht="13">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="20"/>
@@ -17011,7 +17041,7 @@
       <c r="T703" s="4"/>
       <c r="U703" s="4"/>
     </row>
-    <row r="704" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:21" ht="13">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="20"/>
@@ -17034,7 +17064,7 @@
       <c r="T704" s="4"/>
       <c r="U704" s="4"/>
     </row>
-    <row r="705" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:21" ht="13">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="20"/>
@@ -17057,7 +17087,7 @@
       <c r="T705" s="4"/>
       <c r="U705" s="4"/>
     </row>
-    <row r="706" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:21" ht="13">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="20"/>
@@ -17080,7 +17110,7 @@
       <c r="T706" s="4"/>
       <c r="U706" s="4"/>
     </row>
-    <row r="707" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:21" ht="13">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="20"/>
@@ -17103,7 +17133,7 @@
       <c r="T707" s="4"/>
       <c r="U707" s="4"/>
     </row>
-    <row r="708" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:21" ht="13">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="20"/>
@@ -17126,7 +17156,7 @@
       <c r="T708" s="4"/>
       <c r="U708" s="4"/>
     </row>
-    <row r="709" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:21" ht="13">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="20"/>
@@ -17149,7 +17179,7 @@
       <c r="T709" s="4"/>
       <c r="U709" s="4"/>
     </row>
-    <row r="710" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:21" ht="13">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="20"/>
@@ -17172,7 +17202,7 @@
       <c r="T710" s="4"/>
       <c r="U710" s="4"/>
     </row>
-    <row r="711" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:21" ht="13">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="20"/>
@@ -17195,7 +17225,7 @@
       <c r="T711" s="4"/>
       <c r="U711" s="4"/>
     </row>
-    <row r="712" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:21" ht="13">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="20"/>
@@ -17218,7 +17248,7 @@
       <c r="T712" s="4"/>
       <c r="U712" s="4"/>
     </row>
-    <row r="713" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:21" ht="13">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="20"/>
@@ -17241,7 +17271,7 @@
       <c r="T713" s="4"/>
       <c r="U713" s="4"/>
     </row>
-    <row r="714" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:21" ht="13">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="20"/>
@@ -17264,7 +17294,7 @@
       <c r="T714" s="4"/>
       <c r="U714" s="4"/>
     </row>
-    <row r="715" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:21" ht="13">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="20"/>
@@ -17287,7 +17317,7 @@
       <c r="T715" s="4"/>
       <c r="U715" s="4"/>
     </row>
-    <row r="716" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:21" ht="13">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="20"/>
@@ -17310,7 +17340,7 @@
       <c r="T716" s="4"/>
       <c r="U716" s="4"/>
     </row>
-    <row r="717" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:21" ht="13">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="20"/>
@@ -17333,7 +17363,7 @@
       <c r="T717" s="4"/>
       <c r="U717" s="4"/>
     </row>
-    <row r="718" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:21" ht="13">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="20"/>
@@ -17356,7 +17386,7 @@
       <c r="T718" s="4"/>
       <c r="U718" s="4"/>
     </row>
-    <row r="719" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:21" ht="13">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="20"/>
@@ -17379,7 +17409,7 @@
       <c r="T719" s="4"/>
       <c r="U719" s="4"/>
     </row>
-    <row r="720" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:21" ht="13">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="20"/>
@@ -17402,7 +17432,7 @@
       <c r="T720" s="4"/>
       <c r="U720" s="4"/>
     </row>
-    <row r="721" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:21" ht="13">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="20"/>
@@ -17425,7 +17455,7 @@
       <c r="T721" s="4"/>
       <c r="U721" s="4"/>
     </row>
-    <row r="722" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:21" ht="13">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="20"/>
@@ -17448,7 +17478,7 @@
       <c r="T722" s="4"/>
       <c r="U722" s="4"/>
     </row>
-    <row r="723" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:21" ht="13">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="20"/>
@@ -17471,7 +17501,7 @@
       <c r="T723" s="4"/>
       <c r="U723" s="4"/>
     </row>
-    <row r="724" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:21" ht="13">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="20"/>
@@ -17494,7 +17524,7 @@
       <c r="T724" s="4"/>
       <c r="U724" s="4"/>
     </row>
-    <row r="725" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:21" ht="13">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="20"/>
@@ -17517,7 +17547,7 @@
       <c r="T725" s="4"/>
       <c r="U725" s="4"/>
     </row>
-    <row r="726" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:21" ht="13">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="20"/>
@@ -17540,7 +17570,7 @@
       <c r="T726" s="4"/>
       <c r="U726" s="4"/>
     </row>
-    <row r="727" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:21" ht="13">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="20"/>
@@ -17563,7 +17593,7 @@
       <c r="T727" s="4"/>
       <c r="U727" s="4"/>
     </row>
-    <row r="728" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:21" ht="13">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="20"/>
@@ -17586,7 +17616,7 @@
       <c r="T728" s="4"/>
       <c r="U728" s="4"/>
     </row>
-    <row r="729" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:21" ht="13">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="20"/>
@@ -17609,7 +17639,7 @@
       <c r="T729" s="4"/>
       <c r="U729" s="4"/>
     </row>
-    <row r="730" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:21" ht="13">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="20"/>
@@ -17632,7 +17662,7 @@
       <c r="T730" s="4"/>
       <c r="U730" s="4"/>
     </row>
-    <row r="731" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:21" ht="13">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="20"/>
@@ -17655,7 +17685,7 @@
       <c r="T731" s="4"/>
       <c r="U731" s="4"/>
     </row>
-    <row r="732" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:21" ht="13">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="20"/>
@@ -17678,7 +17708,7 @@
       <c r="T732" s="4"/>
       <c r="U732" s="4"/>
     </row>
-    <row r="733" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:21" ht="13">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="20"/>
@@ -17701,7 +17731,7 @@
       <c r="T733" s="4"/>
       <c r="U733" s="4"/>
     </row>
-    <row r="734" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:21" ht="13">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="20"/>
@@ -17724,7 +17754,7 @@
       <c r="T734" s="4"/>
       <c r="U734" s="4"/>
     </row>
-    <row r="735" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:21" ht="13">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="20"/>
@@ -17747,7 +17777,7 @@
       <c r="T735" s="4"/>
       <c r="U735" s="4"/>
     </row>
-    <row r="736" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:21" ht="13">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="20"/>
@@ -17770,7 +17800,7 @@
       <c r="T736" s="4"/>
       <c r="U736" s="4"/>
     </row>
-    <row r="737" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:21" ht="13">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="20"/>
@@ -17793,7 +17823,7 @@
       <c r="T737" s="4"/>
       <c r="U737" s="4"/>
     </row>
-    <row r="738" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:21" ht="13">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="20"/>
@@ -17816,7 +17846,7 @@
       <c r="T738" s="4"/>
       <c r="U738" s="4"/>
     </row>
-    <row r="739" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:21" ht="13">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="20"/>
@@ -17839,7 +17869,7 @@
       <c r="T739" s="4"/>
       <c r="U739" s="4"/>
     </row>
-    <row r="740" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:21" ht="13">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="20"/>
@@ -17862,7 +17892,7 @@
       <c r="T740" s="4"/>
       <c r="U740" s="4"/>
     </row>
-    <row r="741" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:21" ht="13">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="20"/>
@@ -17885,7 +17915,7 @@
       <c r="T741" s="4"/>
       <c r="U741" s="4"/>
     </row>
-    <row r="742" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:21" ht="13">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="20"/>
@@ -17908,7 +17938,7 @@
       <c r="T742" s="4"/>
       <c r="U742" s="4"/>
     </row>
-    <row r="743" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:21" ht="13">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="20"/>
@@ -17931,7 +17961,7 @@
       <c r="T743" s="4"/>
       <c r="U743" s="4"/>
     </row>
-    <row r="744" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:21" ht="13">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="20"/>
@@ -17954,7 +17984,7 @@
       <c r="T744" s="4"/>
       <c r="U744" s="4"/>
     </row>
-    <row r="745" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:21" ht="13">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="20"/>
@@ -17977,7 +18007,7 @@
       <c r="T745" s="4"/>
       <c r="U745" s="4"/>
     </row>
-    <row r="746" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:21" ht="13">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="20"/>
@@ -18000,7 +18030,7 @@
       <c r="T746" s="4"/>
       <c r="U746" s="4"/>
     </row>
-    <row r="747" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:21" ht="13">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="20"/>
@@ -18023,7 +18053,7 @@
       <c r="T747" s="4"/>
       <c r="U747" s="4"/>
     </row>
-    <row r="748" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:21" ht="13">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="20"/>
@@ -18046,7 +18076,7 @@
       <c r="T748" s="4"/>
       <c r="U748" s="4"/>
     </row>
-    <row r="749" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:21" ht="13">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="20"/>
@@ -18069,7 +18099,7 @@
       <c r="T749" s="4"/>
       <c r="U749" s="4"/>
     </row>
-    <row r="750" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:21" ht="13">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="20"/>
@@ -18092,7 +18122,7 @@
       <c r="T750" s="4"/>
       <c r="U750" s="4"/>
     </row>
-    <row r="751" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:21" ht="13">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="20"/>
@@ -18115,7 +18145,7 @@
       <c r="T751" s="4"/>
       <c r="U751" s="4"/>
     </row>
-    <row r="752" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:21" ht="13">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="20"/>
@@ -18138,7 +18168,7 @@
       <c r="T752" s="4"/>
       <c r="U752" s="4"/>
     </row>
-    <row r="753" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:21" ht="13">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="20"/>
@@ -18161,7 +18191,7 @@
       <c r="T753" s="4"/>
       <c r="U753" s="4"/>
     </row>
-    <row r="754" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:21" ht="13">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="20"/>
@@ -18184,7 +18214,7 @@
       <c r="T754" s="4"/>
       <c r="U754" s="4"/>
     </row>
-    <row r="755" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:21" ht="13">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="20"/>
@@ -18207,7 +18237,7 @@
       <c r="T755" s="4"/>
       <c r="U755" s="4"/>
     </row>
-    <row r="756" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:21" ht="13">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="20"/>
@@ -18230,7 +18260,7 @@
       <c r="T756" s="4"/>
       <c r="U756" s="4"/>
     </row>
-    <row r="757" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:21" ht="13">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="20"/>
@@ -18253,7 +18283,7 @@
       <c r="T757" s="4"/>
       <c r="U757" s="4"/>
     </row>
-    <row r="758" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:21" ht="13">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="20"/>
@@ -18276,7 +18306,7 @@
       <c r="T758" s="4"/>
       <c r="U758" s="4"/>
     </row>
-    <row r="759" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:21" ht="13">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="20"/>
@@ -18299,7 +18329,7 @@
       <c r="T759" s="4"/>
       <c r="U759" s="4"/>
     </row>
-    <row r="760" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:21" ht="13">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="20"/>
@@ -18322,7 +18352,7 @@
       <c r="T760" s="4"/>
       <c r="U760" s="4"/>
     </row>
-    <row r="761" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:21" ht="13">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="20"/>
@@ -18345,7 +18375,7 @@
       <c r="T761" s="4"/>
       <c r="U761" s="4"/>
     </row>
-    <row r="762" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:21" ht="13">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="20"/>
@@ -18368,7 +18398,7 @@
       <c r="T762" s="4"/>
       <c r="U762" s="4"/>
     </row>
-    <row r="763" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:21" ht="13">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="20"/>
@@ -18391,7 +18421,7 @@
       <c r="T763" s="4"/>
       <c r="U763" s="4"/>
     </row>
-    <row r="764" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:21" ht="13">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="20"/>
@@ -18414,7 +18444,7 @@
       <c r="T764" s="4"/>
       <c r="U764" s="4"/>
     </row>
-    <row r="765" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:21" ht="13">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="20"/>
@@ -18437,7 +18467,7 @@
       <c r="T765" s="4"/>
       <c r="U765" s="4"/>
     </row>
-    <row r="766" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:21" ht="13">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="20"/>
@@ -18460,7 +18490,7 @@
       <c r="T766" s="4"/>
       <c r="U766" s="4"/>
     </row>
-    <row r="767" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:21" ht="13">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="20"/>
@@ -18483,7 +18513,7 @@
       <c r="T767" s="4"/>
       <c r="U767" s="4"/>
     </row>
-    <row r="768" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:21" ht="13">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="20"/>
@@ -18506,7 +18536,7 @@
       <c r="T768" s="4"/>
       <c r="U768" s="4"/>
     </row>
-    <row r="769" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:21" ht="13">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="20"/>
@@ -18529,7 +18559,7 @@
       <c r="T769" s="4"/>
       <c r="U769" s="4"/>
     </row>
-    <row r="770" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:21" ht="13">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="20"/>
@@ -18552,7 +18582,7 @@
       <c r="T770" s="4"/>
       <c r="U770" s="4"/>
     </row>
-    <row r="771" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:21" ht="13">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="20"/>
@@ -18575,7 +18605,7 @@
       <c r="T771" s="4"/>
       <c r="U771" s="4"/>
     </row>
-    <row r="772" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:21" ht="13">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="20"/>
@@ -18598,7 +18628,7 @@
       <c r="T772" s="4"/>
       <c r="U772" s="4"/>
     </row>
-    <row r="773" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:21" ht="13">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="20"/>
@@ -18621,7 +18651,7 @@
       <c r="T773" s="4"/>
       <c r="U773" s="4"/>
     </row>
-    <row r="774" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:21" ht="13">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="20"/>
@@ -18644,7 +18674,7 @@
       <c r="T774" s="4"/>
       <c r="U774" s="4"/>
     </row>
-    <row r="775" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:21" ht="13">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="20"/>
@@ -18667,7 +18697,7 @@
       <c r="T775" s="4"/>
       <c r="U775" s="4"/>
     </row>
-    <row r="776" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:21" ht="13">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="20"/>
@@ -18690,7 +18720,7 @@
       <c r="T776" s="4"/>
       <c r="U776" s="4"/>
     </row>
-    <row r="777" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:21" ht="13">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="20"/>
@@ -18713,7 +18743,7 @@
       <c r="T777" s="4"/>
       <c r="U777" s="4"/>
     </row>
-    <row r="778" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:21" ht="13">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="20"/>
@@ -18736,7 +18766,7 @@
       <c r="T778" s="4"/>
       <c r="U778" s="4"/>
     </row>
-    <row r="779" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:21" ht="13">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="20"/>
@@ -18759,7 +18789,7 @@
       <c r="T779" s="4"/>
       <c r="U779" s="4"/>
     </row>
-    <row r="780" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:21" ht="13">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="20"/>
@@ -18782,7 +18812,7 @@
       <c r="T780" s="4"/>
       <c r="U780" s="4"/>
     </row>
-    <row r="781" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:21" ht="13">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="20"/>
@@ -18805,7 +18835,7 @@
       <c r="T781" s="4"/>
       <c r="U781" s="4"/>
     </row>
-    <row r="782" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:21" ht="13">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="20"/>
@@ -18828,7 +18858,7 @@
       <c r="T782" s="4"/>
       <c r="U782" s="4"/>
     </row>
-    <row r="783" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:21" ht="13">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="20"/>
@@ -18851,7 +18881,7 @@
       <c r="T783" s="4"/>
       <c r="U783" s="4"/>
     </row>
-    <row r="784" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:21" ht="13">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="20"/>
@@ -18874,7 +18904,7 @@
       <c r="T784" s="4"/>
       <c r="U784" s="4"/>
     </row>
-    <row r="785" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:21" ht="13">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="20"/>
@@ -18897,7 +18927,7 @@
       <c r="T785" s="4"/>
       <c r="U785" s="4"/>
     </row>
-    <row r="786" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:21" ht="13">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="20"/>
@@ -18920,7 +18950,7 @@
       <c r="T786" s="4"/>
       <c r="U786" s="4"/>
     </row>
-    <row r="787" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:21" ht="13">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="20"/>
@@ -18943,7 +18973,7 @@
       <c r="T787" s="4"/>
       <c r="U787" s="4"/>
     </row>
-    <row r="788" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:21" ht="13">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="20"/>
@@ -18966,7 +18996,7 @@
       <c r="T788" s="4"/>
       <c r="U788" s="4"/>
     </row>
-    <row r="789" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:21" ht="13">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="20"/>
@@ -18989,7 +19019,7 @@
       <c r="T789" s="4"/>
       <c r="U789" s="4"/>
     </row>
-    <row r="790" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:21" ht="13">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="20"/>
@@ -19012,7 +19042,7 @@
       <c r="T790" s="4"/>
       <c r="U790" s="4"/>
     </row>
-    <row r="791" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:21" ht="13">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="20"/>
@@ -19035,7 +19065,7 @@
       <c r="T791" s="4"/>
       <c r="U791" s="4"/>
     </row>
-    <row r="792" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:21" ht="13">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="20"/>
@@ -19058,7 +19088,7 @@
       <c r="T792" s="4"/>
       <c r="U792" s="4"/>
     </row>
-    <row r="793" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:21" ht="13">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="20"/>
@@ -19081,7 +19111,7 @@
       <c r="T793" s="4"/>
       <c r="U793" s="4"/>
     </row>
-    <row r="794" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:21" ht="13">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="20"/>
@@ -19104,7 +19134,7 @@
       <c r="T794" s="4"/>
       <c r="U794" s="4"/>
     </row>
-    <row r="795" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:21" ht="13">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="20"/>
@@ -19127,7 +19157,7 @@
       <c r="T795" s="4"/>
       <c r="U795" s="4"/>
     </row>
-    <row r="796" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:21" ht="13">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="20"/>
@@ -19150,7 +19180,7 @@
       <c r="T796" s="4"/>
       <c r="U796" s="4"/>
     </row>
-    <row r="797" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:21" ht="13">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="20"/>
@@ -19173,7 +19203,7 @@
       <c r="T797" s="4"/>
       <c r="U797" s="4"/>
     </row>
-    <row r="798" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:21" ht="13">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="20"/>
@@ -19196,7 +19226,7 @@
       <c r="T798" s="4"/>
       <c r="U798" s="4"/>
     </row>
-    <row r="799" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:21" ht="13">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="20"/>
@@ -19219,7 +19249,7 @@
       <c r="T799" s="4"/>
       <c r="U799" s="4"/>
     </row>
-    <row r="800" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:21" ht="13">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="20"/>
@@ -19242,7 +19272,7 @@
       <c r="T800" s="4"/>
       <c r="U800" s="4"/>
     </row>
-    <row r="801" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:21" ht="13">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="20"/>
@@ -19265,7 +19295,7 @@
       <c r="T801" s="4"/>
       <c r="U801" s="4"/>
     </row>
-    <row r="802" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:21" ht="13">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="20"/>
@@ -19288,7 +19318,7 @@
       <c r="T802" s="4"/>
       <c r="U802" s="4"/>
     </row>
-    <row r="803" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:21" ht="13">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="20"/>
@@ -19311,7 +19341,7 @@
       <c r="T803" s="4"/>
       <c r="U803" s="4"/>
     </row>
-    <row r="804" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:21" ht="13">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="20"/>
@@ -19334,7 +19364,7 @@
       <c r="T804" s="4"/>
       <c r="U804" s="4"/>
     </row>
-    <row r="805" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:21" ht="13">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="20"/>
@@ -19357,7 +19387,7 @@
       <c r="T805" s="4"/>
       <c r="U805" s="4"/>
     </row>
-    <row r="806" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:21" ht="13">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="20"/>
@@ -19380,7 +19410,7 @@
       <c r="T806" s="4"/>
       <c r="U806" s="4"/>
     </row>
-    <row r="807" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:21" ht="13">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="20"/>
@@ -19403,7 +19433,7 @@
       <c r="T807" s="4"/>
       <c r="U807" s="4"/>
     </row>
-    <row r="808" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:21" ht="13">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="20"/>
@@ -19426,7 +19456,7 @@
       <c r="T808" s="4"/>
       <c r="U808" s="4"/>
     </row>
-    <row r="809" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:21" ht="13">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="20"/>
@@ -19449,7 +19479,7 @@
       <c r="T809" s="4"/>
       <c r="U809" s="4"/>
     </row>
-    <row r="810" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:21" ht="13">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="20"/>
@@ -19472,7 +19502,7 @@
       <c r="T810" s="4"/>
       <c r="U810" s="4"/>
     </row>
-    <row r="811" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:21" ht="13">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="20"/>
@@ -19495,7 +19525,7 @@
       <c r="T811" s="4"/>
       <c r="U811" s="4"/>
     </row>
-    <row r="812" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:21" ht="13">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="20"/>
@@ -19518,7 +19548,7 @@
       <c r="T812" s="4"/>
       <c r="U812" s="4"/>
     </row>
-    <row r="813" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:21" ht="13">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="20"/>
@@ -19541,7 +19571,7 @@
       <c r="T813" s="4"/>
       <c r="U813" s="4"/>
     </row>
-    <row r="814" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:21" ht="13">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="20"/>
@@ -19564,7 +19594,7 @@
       <c r="T814" s="4"/>
       <c r="U814" s="4"/>
     </row>
-    <row r="815" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:21" ht="13">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="20"/>
@@ -19587,7 +19617,7 @@
       <c r="T815" s="4"/>
       <c r="U815" s="4"/>
     </row>
-    <row r="816" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:21" ht="13">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="20"/>
@@ -19610,7 +19640,7 @@
       <c r="T816" s="4"/>
       <c r="U816" s="4"/>
     </row>
-    <row r="817" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:21" ht="13">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="20"/>
@@ -19633,7 +19663,7 @@
       <c r="T817" s="4"/>
       <c r="U817" s="4"/>
     </row>
-    <row r="818" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:21" ht="13">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="20"/>
@@ -19656,7 +19686,7 @@
       <c r="T818" s="4"/>
       <c r="U818" s="4"/>
     </row>
-    <row r="819" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:21" ht="13">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="20"/>
@@ -19679,7 +19709,7 @@
       <c r="T819" s="4"/>
       <c r="U819" s="4"/>
     </row>
-    <row r="820" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:21" ht="13">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="20"/>
@@ -19702,7 +19732,7 @@
       <c r="T820" s="4"/>
       <c r="U820" s="4"/>
     </row>
-    <row r="821" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:21" ht="13">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="20"/>
@@ -19725,7 +19755,7 @@
       <c r="T821" s="4"/>
       <c r="U821" s="4"/>
     </row>
-    <row r="822" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:21" ht="13">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="20"/>
@@ -19748,7 +19778,7 @@
       <c r="T822" s="4"/>
       <c r="U822" s="4"/>
     </row>
-    <row r="823" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:21" ht="13">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="20"/>
@@ -19771,7 +19801,7 @@
       <c r="T823" s="4"/>
       <c r="U823" s="4"/>
     </row>
-    <row r="824" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:21" ht="13">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="20"/>
@@ -19794,7 +19824,7 @@
       <c r="T824" s="4"/>
       <c r="U824" s="4"/>
     </row>
-    <row r="825" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:21" ht="13">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="20"/>
@@ -19817,7 +19847,7 @@
       <c r="T825" s="4"/>
       <c r="U825" s="4"/>
     </row>
-    <row r="826" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:21" ht="13">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="20"/>
@@ -19840,7 +19870,7 @@
       <c r="T826" s="4"/>
       <c r="U826" s="4"/>
     </row>
-    <row r="827" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:21" ht="13">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="20"/>
@@ -19863,7 +19893,7 @@
       <c r="T827" s="4"/>
       <c r="U827" s="4"/>
     </row>
-    <row r="828" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:21" ht="13">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="20"/>
@@ -19886,7 +19916,7 @@
       <c r="T828" s="4"/>
       <c r="U828" s="4"/>
     </row>
-    <row r="829" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:21" ht="13">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="20"/>
@@ -19909,7 +19939,7 @@
       <c r="T829" s="4"/>
       <c r="U829" s="4"/>
     </row>
-    <row r="830" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:21" ht="13">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="20"/>
@@ -19932,7 +19962,7 @@
       <c r="T830" s="4"/>
       <c r="U830" s="4"/>
     </row>
-    <row r="831" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:21" ht="13">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="20"/>
@@ -19955,7 +19985,7 @@
       <c r="T831" s="4"/>
       <c r="U831" s="4"/>
     </row>
-    <row r="832" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:21" ht="13">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="20"/>
@@ -19978,7 +20008,7 @@
       <c r="T832" s="4"/>
       <c r="U832" s="4"/>
     </row>
-    <row r="833" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:21" ht="13">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="20"/>
@@ -20001,7 +20031,7 @@
       <c r="T833" s="4"/>
       <c r="U833" s="4"/>
     </row>
-    <row r="834" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:21" ht="13">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="20"/>
@@ -20024,7 +20054,7 @@
       <c r="T834" s="4"/>
       <c r="U834" s="4"/>
     </row>
-    <row r="835" spans="1:21" ht="13" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:21" ht="13">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="20"/>
